--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
@@ -71663,7 +71663,7 @@
         <v>2.42</v>
       </c>
       <c r="AU340">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV340">
         <v>2</v>
@@ -71672,13 +71672,13 @@
         <v>6</v>
       </c>
       <c r="AX340">
+        <v>6</v>
+      </c>
+      <c r="AY340">
         <v>9</v>
       </c>
-      <c r="AY340">
-        <v>12</v>
-      </c>
       <c r="AZ340">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA340">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
@@ -71663,7 +71663,7 @@
         <v>2.42</v>
       </c>
       <c r="AU340">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV340">
         <v>2</v>
@@ -71672,13 +71672,13 @@
         <v>6</v>
       </c>
       <c r="AX340">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY340">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ340">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA340">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="438">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -937,6 +937,12 @@
     <t>['17', '27', '63']</t>
   </si>
   <si>
+    <t>['73', '90+2']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
     <t>['24', '42', '79']</t>
   </si>
   <si>
@@ -1138,9 +1144,6 @@
     <t>['12', '81']</t>
   </si>
   <si>
-    <t>['20']</t>
-  </si>
-  <si>
     <t>['18', '45', '55']</t>
   </si>
   <si>
@@ -1322,6 +1325,9 @@
   </si>
   <si>
     <t>['59', '88']</t>
+  </si>
+  <si>
+    <t>['11', '83']</t>
   </si>
 </sst>
 </file>
@@ -1683,7 +1689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP340"/>
+  <dimension ref="A1:BP343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2148,7 +2154,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q3">
         <v>7.5</v>
@@ -2354,7 +2360,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2766,7 +2772,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2972,7 +2978,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -3050,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ7">
         <v>1.29</v>
@@ -3178,7 +3184,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q8">
         <v>4.5</v>
@@ -3259,7 +3265,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ8">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3384,7 +3390,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3668,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ10">
         <v>0.47</v>
@@ -3796,7 +3802,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q11">
         <v>4.33</v>
@@ -4080,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
         <v>0.88</v>
@@ -4414,7 +4420,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4826,7 +4832,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -5113,7 +5119,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ17">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5238,7 +5244,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q18">
         <v>2.1</v>
@@ -5856,7 +5862,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q21">
         <v>6.5</v>
@@ -5937,7 +5943,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ21">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6140,7 +6146,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ22">
         <v>0.61</v>
@@ -6268,7 +6274,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6680,7 +6686,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6886,7 +6892,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6967,7 +6973,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ26">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR26">
         <v>2.15</v>
@@ -7376,7 +7382,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ28">
         <v>1.06</v>
@@ -7916,7 +7922,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -8203,7 +8209,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ32">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR32">
         <v>1.51</v>
@@ -8534,7 +8540,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -9024,7 +9030,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
         <v>0.71</v>
@@ -9152,7 +9158,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -9358,7 +9364,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9770,7 +9776,7 @@
         <v>90</v>
       </c>
       <c r="P40" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -10057,7 +10063,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ41">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR41">
         <v>0.76</v>
@@ -10800,7 +10806,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10878,7 +10884,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ45">
         <v>1.71</v>
@@ -11006,7 +11012,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -11293,7 +11299,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ47">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AR47">
         <v>0.98</v>
@@ -11624,7 +11630,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -12036,7 +12042,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -12114,7 +12120,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ51">
         <v>1.35</v>
@@ -12448,7 +12454,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12860,7 +12866,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13272,7 +13278,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q57">
         <v>1.8</v>
@@ -13684,7 +13690,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13968,10 +13974,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR60">
         <v>2.12</v>
@@ -14096,7 +14102,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14302,7 +14308,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q62">
         <v>4.5</v>
@@ -14589,7 +14595,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ63">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR63">
         <v>1.43</v>
@@ -14714,7 +14720,7 @@
         <v>90</v>
       </c>
       <c r="P64" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -14795,7 +14801,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ64">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AR64">
         <v>1.55</v>
@@ -15126,7 +15132,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15744,7 +15750,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15822,7 +15828,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ69">
         <v>1.24</v>
@@ -16028,7 +16034,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ70">
         <v>0.61</v>
@@ -16568,7 +16574,7 @@
         <v>139</v>
       </c>
       <c r="P73" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16774,7 +16780,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16855,7 +16861,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ74">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR74">
         <v>1.73</v>
@@ -17470,7 +17476,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ77">
         <v>0.41</v>
@@ -17804,7 +17810,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -18010,7 +18016,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18216,7 +18222,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18422,7 +18428,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18628,7 +18634,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18706,10 +18712,10 @@
         <v>3</v>
       </c>
       <c r="AP83">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ83">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AR83">
         <v>1.23</v>
@@ -18834,7 +18840,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18912,10 +18918,10 @@
         <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ84">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR84">
         <v>1.56</v>
@@ -19246,7 +19252,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19452,7 +19458,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q87">
         <v>2.3</v>
@@ -19864,7 +19870,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -20276,7 +20282,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q91">
         <v>1.91</v>
@@ -20766,10 +20772,10 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ93">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR93">
         <v>1.43</v>
@@ -21306,7 +21312,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21512,7 +21518,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21590,7 +21596,7 @@
         <v>0.75</v>
       </c>
       <c r="AP97">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21924,7 +21930,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -22130,7 +22136,7 @@
         <v>90</v>
       </c>
       <c r="P100" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -22623,7 +22629,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ102">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR102">
         <v>1.6</v>
@@ -22748,7 +22754,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -22954,7 +22960,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -23035,7 +23041,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ104">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AR104">
         <v>1.65</v>
@@ -23160,7 +23166,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -23366,7 +23372,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -24474,7 +24480,7 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ111">
         <v>0.53</v>
@@ -24602,7 +24608,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q112">
         <v>2.2</v>
@@ -24680,7 +24686,7 @@
         <v>0.2</v>
       </c>
       <c r="AP112">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ112">
         <v>0.41</v>
@@ -25014,7 +25020,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -25504,7 +25510,7 @@
         <v>1.2</v>
       </c>
       <c r="AP116">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ116">
         <v>1</v>
@@ -26044,7 +26050,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -26125,7 +26131,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ119">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR119">
         <v>1.76</v>
@@ -26743,7 +26749,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ122">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR122">
         <v>1.32</v>
@@ -26868,7 +26874,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -27486,7 +27492,7 @@
         <v>178</v>
       </c>
       <c r="P126" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q126">
         <v>3.2</v>
@@ -27692,7 +27698,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q127">
         <v>3.2</v>
@@ -28104,7 +28110,7 @@
         <v>157</v>
       </c>
       <c r="P129" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -28185,7 +28191,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ129">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AR129">
         <v>1.75</v>
@@ -28310,7 +28316,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28722,7 +28728,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q132">
         <v>4.33</v>
@@ -28800,7 +28806,7 @@
         <v>2.17</v>
       </c>
       <c r="AP132">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ132">
         <v>1.71</v>
@@ -28928,7 +28934,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q133">
         <v>2.63</v>
@@ -29340,7 +29346,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q135">
         <v>1.91</v>
@@ -29546,7 +29552,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29627,7 +29633,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ136">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR136">
         <v>1.61</v>
@@ -29958,7 +29964,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q138">
         <v>2.38</v>
@@ -30164,7 +30170,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -30242,7 +30248,7 @@
         <v>0.83</v>
       </c>
       <c r="AP139">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ139">
         <v>1.35</v>
@@ -30370,7 +30376,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q140">
         <v>3.4</v>
@@ -30451,7 +30457,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ140">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AR140">
         <v>1.93</v>
@@ -30654,7 +30660,7 @@
         <v>1.43</v>
       </c>
       <c r="AP141">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ141">
         <v>1.29</v>
@@ -31069,7 +31075,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ143">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR143">
         <v>1.4</v>
@@ -31194,7 +31200,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31890,7 +31896,7 @@
         <v>0.57</v>
       </c>
       <c r="AP147">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ147">
         <v>1.06</v>
@@ -32018,7 +32024,7 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32099,7 +32105,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ148">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR148">
         <v>1.34</v>
@@ -32224,7 +32230,7 @@
         <v>195</v>
       </c>
       <c r="P149" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -33048,7 +33054,7 @@
         <v>198</v>
       </c>
       <c r="P153" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33538,7 +33544,7 @@
         <v>1</v>
       </c>
       <c r="AP155">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ155">
         <v>0.88</v>
@@ -33872,7 +33878,7 @@
         <v>201</v>
       </c>
       <c r="P157" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -34490,7 +34496,7 @@
         <v>90</v>
       </c>
       <c r="P160" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -34571,7 +34577,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ160">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AR160">
         <v>1.18</v>
@@ -34902,7 +34908,7 @@
         <v>90</v>
       </c>
       <c r="P162" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -34983,7 +34989,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ162">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR162">
         <v>1.28</v>
@@ -35108,7 +35114,7 @@
         <v>205</v>
       </c>
       <c r="P163" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35186,7 +35192,7 @@
         <v>0.5</v>
       </c>
       <c r="AP163">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ163">
         <v>1.06</v>
@@ -35392,7 +35398,7 @@
         <v>1.38</v>
       </c>
       <c r="AP164">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ164">
         <v>1.19</v>
@@ -35520,7 +35526,7 @@
         <v>206</v>
       </c>
       <c r="P165" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q165">
         <v>6.5</v>
@@ -35726,7 +35732,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q166">
         <v>5.5</v>
@@ -36216,7 +36222,7 @@
         <v>0.88</v>
       </c>
       <c r="AP168">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ168">
         <v>1</v>
@@ -37455,7 +37461,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ174">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AR174">
         <v>1.13</v>
@@ -38279,7 +38285,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ178">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR178">
         <v>1.43</v>
@@ -39022,7 +39028,7 @@
         <v>160</v>
       </c>
       <c r="P182" t="s">
-        <v>374</v>
+        <v>308</v>
       </c>
       <c r="Q182">
         <v>2.88</v>
@@ -39434,7 +39440,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q184">
         <v>3.25</v>
@@ -39640,7 +39646,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q185">
         <v>2.88</v>
@@ -39924,7 +39930,7 @@
         <v>1.56</v>
       </c>
       <c r="AP186">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ186">
         <v>1.19</v>
@@ -40052,7 +40058,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -40336,7 +40342,7 @@
         <v>1.89</v>
       </c>
       <c r="AP188">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ188">
         <v>1.53</v>
@@ -40464,7 +40470,7 @@
         <v>214</v>
       </c>
       <c r="P189" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -40545,7 +40551,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ189">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR189">
         <v>1.45</v>
@@ -40670,7 +40676,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q190">
         <v>7</v>
@@ -41700,7 +41706,7 @@
         <v>224</v>
       </c>
       <c r="P195" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q195">
         <v>6.5</v>
@@ -41778,10 +41784,10 @@
         <v>2.56</v>
       </c>
       <c r="AP195">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ195">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AR195">
         <v>1.37</v>
@@ -42193,7 +42199,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ197">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR197">
         <v>1.49</v>
@@ -42318,7 +42324,7 @@
         <v>226</v>
       </c>
       <c r="P198" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q198">
         <v>2.3</v>
@@ -43142,7 +43148,7 @@
         <v>230</v>
       </c>
       <c r="P202" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q202">
         <v>2.05</v>
@@ -43348,7 +43354,7 @@
         <v>231</v>
       </c>
       <c r="P203" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q203">
         <v>4.5</v>
@@ -43554,7 +43560,7 @@
         <v>232</v>
       </c>
       <c r="P204" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -43966,7 +43972,7 @@
         <v>234</v>
       </c>
       <c r="P206" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q206">
         <v>4.33</v>
@@ -44172,7 +44178,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -44378,7 +44384,7 @@
         <v>235</v>
       </c>
       <c r="P208" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q208">
         <v>4.33</v>
@@ -44996,7 +45002,7 @@
         <v>238</v>
       </c>
       <c r="P211" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45077,7 +45083,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ211">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR211">
         <v>1.41</v>
@@ -45486,7 +45492,7 @@
         <v>0.8</v>
       </c>
       <c r="AP213">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ213">
         <v>0.53</v>
@@ -46107,7 +46113,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ216">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AR216">
         <v>1.55</v>
@@ -46232,7 +46238,7 @@
         <v>132</v>
       </c>
       <c r="P217" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q217">
         <v>5.5</v>
@@ -46438,7 +46444,7 @@
         <v>241</v>
       </c>
       <c r="P218" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -47056,7 +47062,7 @@
         <v>242</v>
       </c>
       <c r="P221" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q221">
         <v>4.75</v>
@@ -47262,7 +47268,7 @@
         <v>243</v>
       </c>
       <c r="P222" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q222">
         <v>2.38</v>
@@ -47546,7 +47552,7 @@
         <v>0.5</v>
       </c>
       <c r="AP223">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ223">
         <v>0.41</v>
@@ -47880,7 +47886,7 @@
         <v>245</v>
       </c>
       <c r="P225" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q225">
         <v>2.75</v>
@@ -47961,7 +47967,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ225">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR225">
         <v>1.78</v>
@@ -48498,7 +48504,7 @@
         <v>224</v>
       </c>
       <c r="P228" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q228">
         <v>3.2</v>
@@ -48704,7 +48710,7 @@
         <v>191</v>
       </c>
       <c r="P229" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q229">
         <v>4.33</v>
@@ -48785,7 +48791,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ229">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR229">
         <v>1.5</v>
@@ -48910,7 +48916,7 @@
         <v>247</v>
       </c>
       <c r="P230" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -48991,7 +48997,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ230">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AR230">
         <v>1.38</v>
@@ -49194,7 +49200,7 @@
         <v>1.09</v>
       </c>
       <c r="AP231">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ231">
         <v>1</v>
@@ -49322,7 +49328,7 @@
         <v>248</v>
       </c>
       <c r="P232" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q232">
         <v>2.05</v>
@@ -49606,7 +49612,7 @@
         <v>0.42</v>
       </c>
       <c r="AP233">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ233">
         <v>0.61</v>
@@ -49940,7 +49946,7 @@
         <v>191</v>
       </c>
       <c r="P235" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50842,7 +50848,7 @@
         <v>0.42</v>
       </c>
       <c r="AP239">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ239">
         <v>0.71</v>
@@ -51382,7 +51388,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q242">
         <v>6</v>
@@ -51794,7 +51800,7 @@
         <v>255</v>
       </c>
       <c r="P244" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q244">
         <v>3</v>
@@ -51875,7 +51881,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ244">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR244">
         <v>1.19</v>
@@ -52412,7 +52418,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q247">
         <v>4.33</v>
@@ -52618,7 +52624,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q248">
         <v>4.5</v>
@@ -52696,7 +52702,7 @@
         <v>2</v>
       </c>
       <c r="AP248">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ248">
         <v>1.94</v>
@@ -52824,7 +52830,7 @@
         <v>90</v>
       </c>
       <c r="P249" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q249">
         <v>3.4</v>
@@ -52902,10 +52908,10 @@
         <v>1.33</v>
       </c>
       <c r="AP249">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ249">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR249">
         <v>1.34</v>
@@ -53236,7 +53242,7 @@
         <v>260</v>
       </c>
       <c r="P251" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q251">
         <v>2.75</v>
@@ -53314,7 +53320,7 @@
         <v>1</v>
       </c>
       <c r="AP251">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ251">
         <v>0.88</v>
@@ -53442,7 +53448,7 @@
         <v>90</v>
       </c>
       <c r="P252" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q252">
         <v>3.6</v>
@@ -53854,7 +53860,7 @@
         <v>262</v>
       </c>
       <c r="P254" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q254">
         <v>1.8</v>
@@ -54266,7 +54272,7 @@
         <v>90</v>
       </c>
       <c r="P256" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -54347,7 +54353,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ256">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AR256">
         <v>1.55</v>
@@ -54678,7 +54684,7 @@
         <v>264</v>
       </c>
       <c r="P258" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q258">
         <v>2.63</v>
@@ -54884,7 +54890,7 @@
         <v>265</v>
       </c>
       <c r="P259" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -54965,7 +54971,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ259">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR259">
         <v>1.58</v>
@@ -55090,7 +55096,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -55168,7 +55174,7 @@
         <v>1.46</v>
       </c>
       <c r="AP260">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ260">
         <v>1.53</v>
@@ -55914,7 +55920,7 @@
         <v>145</v>
       </c>
       <c r="P264" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -55992,7 +55998,7 @@
         <v>1.17</v>
       </c>
       <c r="AP264">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ264">
         <v>1.35</v>
@@ -56198,7 +56204,7 @@
         <v>1.15</v>
       </c>
       <c r="AP265">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ265">
         <v>1.19</v>
@@ -56944,7 +56950,7 @@
         <v>205</v>
       </c>
       <c r="P269" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q269">
         <v>2.6</v>
@@ -57025,7 +57031,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ269">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR269">
         <v>1.88</v>
@@ -57846,7 +57852,7 @@
         <v>0.23</v>
       </c>
       <c r="AP273">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ273">
         <v>0.35</v>
@@ -57974,7 +57980,7 @@
         <v>271</v>
       </c>
       <c r="P274" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q274">
         <v>2.5</v>
@@ -58261,7 +58267,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ275">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AR275">
         <v>1.42</v>
@@ -58386,7 +58392,7 @@
         <v>272</v>
       </c>
       <c r="P276" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q276">
         <v>3</v>
@@ -59004,7 +59010,7 @@
         <v>169</v>
       </c>
       <c r="P279" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q279">
         <v>2.88</v>
@@ -59210,7 +59216,7 @@
         <v>274</v>
       </c>
       <c r="P280" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59416,7 +59422,7 @@
         <v>152</v>
       </c>
       <c r="P281" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q281">
         <v>2.6</v>
@@ -59703,7 +59709,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ282">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR282">
         <v>1.26</v>
@@ -59906,7 +59912,7 @@
         <v>0.5</v>
       </c>
       <c r="AP283">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ283">
         <v>0.47</v>
@@ -60034,7 +60040,7 @@
         <v>90</v>
       </c>
       <c r="P284" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q284">
         <v>3.6</v>
@@ -60446,7 +60452,7 @@
         <v>276</v>
       </c>
       <c r="P286" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q286">
         <v>3.75</v>
@@ -60527,7 +60533,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ286">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR286">
         <v>1.4</v>
@@ -60858,7 +60864,7 @@
         <v>277</v>
       </c>
       <c r="P288" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q288">
         <v>5</v>
@@ -61476,7 +61482,7 @@
         <v>90</v>
       </c>
       <c r="P291" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q291">
         <v>2.63</v>
@@ -61682,7 +61688,7 @@
         <v>279</v>
       </c>
       <c r="P292" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q292">
         <v>2.6</v>
@@ -61966,7 +61972,7 @@
         <v>1.36</v>
       </c>
       <c r="AP293">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ293">
         <v>1.24</v>
@@ -62300,7 +62306,7 @@
         <v>237</v>
       </c>
       <c r="P295" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q295">
         <v>3.4</v>
@@ -62996,7 +63002,7 @@
         <v>1.07</v>
       </c>
       <c r="AP298">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ298">
         <v>1</v>
@@ -63536,7 +63542,7 @@
         <v>285</v>
       </c>
       <c r="P301" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q301">
         <v>3.5</v>
@@ -64029,7 +64035,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ303">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR303">
         <v>1.32</v>
@@ -64154,7 +64160,7 @@
         <v>287</v>
       </c>
       <c r="P304" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q304">
         <v>4.33</v>
@@ -64441,7 +64447,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ305">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR305">
         <v>1.41</v>
@@ -64566,7 +64572,7 @@
         <v>288</v>
       </c>
       <c r="P306" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q306">
         <v>4.33</v>
@@ -64644,7 +64650,7 @@
         <v>1.53</v>
       </c>
       <c r="AP306">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ306">
         <v>1.53</v>
@@ -64772,7 +64778,7 @@
         <v>121</v>
       </c>
       <c r="P307" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q307">
         <v>3.5</v>
@@ -64978,7 +64984,7 @@
         <v>269</v>
       </c>
       <c r="P308" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q308">
         <v>4.75</v>
@@ -65390,7 +65396,7 @@
         <v>273</v>
       </c>
       <c r="P310" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65471,7 +65477,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ310">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AR310">
         <v>1.41</v>
@@ -65596,7 +65602,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q311">
         <v>1.8</v>
@@ -66086,7 +66092,7 @@
         <v>1.8</v>
       </c>
       <c r="AP313">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ313">
         <v>1.71</v>
@@ -66420,7 +66426,7 @@
         <v>292</v>
       </c>
       <c r="P315" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q315">
         <v>1.8</v>
@@ -66626,7 +66632,7 @@
         <v>293</v>
       </c>
       <c r="P316" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q316">
         <v>4.75</v>
@@ -66704,7 +66710,7 @@
         <v>2.06</v>
       </c>
       <c r="AP316">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ316">
         <v>1.94</v>
@@ -66832,7 +66838,7 @@
         <v>294</v>
       </c>
       <c r="P317" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q317">
         <v>1.57</v>
@@ -67450,7 +67456,7 @@
         <v>90</v>
       </c>
       <c r="P320" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q320">
         <v>3.75</v>
@@ -67531,7 +67537,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ320">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR320">
         <v>1.34</v>
@@ -67656,7 +67662,7 @@
         <v>297</v>
       </c>
       <c r="P321" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q321">
         <v>5.5</v>
@@ -68274,7 +68280,7 @@
         <v>90</v>
       </c>
       <c r="P324" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q324">
         <v>3</v>
@@ -68352,7 +68358,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP324">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ324">
         <v>0.71</v>
@@ -68558,7 +68564,7 @@
         <v>0.31</v>
       </c>
       <c r="AP325">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ325">
         <v>0.35</v>
@@ -68686,7 +68692,7 @@
         <v>90</v>
       </c>
       <c r="P326" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q326">
         <v>5</v>
@@ -68892,7 +68898,7 @@
         <v>291</v>
       </c>
       <c r="P327" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q327">
         <v>4.5</v>
@@ -68970,7 +68976,7 @@
         <v>1.19</v>
       </c>
       <c r="AP327">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ327">
         <v>1.29</v>
@@ -69098,7 +69104,7 @@
         <v>299</v>
       </c>
       <c r="P328" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q328">
         <v>3.2</v>
@@ -69179,7 +69185,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ328">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR328">
         <v>1.31</v>
@@ -69304,7 +69310,7 @@
         <v>101</v>
       </c>
       <c r="P329" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q329">
         <v>4</v>
@@ -69385,7 +69391,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ329">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AR329">
         <v>1.52</v>
@@ -69510,7 +69516,7 @@
         <v>300</v>
       </c>
       <c r="P330" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q330">
         <v>4</v>
@@ -70952,7 +70958,7 @@
         <v>303</v>
       </c>
       <c r="P337" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q337">
         <v>2.5</v>
@@ -71727,6 +71733,624 @@
       </c>
       <c r="BP340">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:68">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>6745735</v>
+      </c>
+      <c r="C341" t="s">
+        <v>68</v>
+      </c>
+      <c r="D341" t="s">
+        <v>69</v>
+      </c>
+      <c r="E341" s="2">
+        <v>45415.65625</v>
+      </c>
+      <c r="F341">
+        <v>35</v>
+      </c>
+      <c r="G341" t="s">
+        <v>78</v>
+      </c>
+      <c r="H341" t="s">
+        <v>79</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>0</v>
+      </c>
+      <c r="L341">
+        <v>0</v>
+      </c>
+      <c r="M341">
+        <v>0</v>
+      </c>
+      <c r="N341">
+        <v>0</v>
+      </c>
+      <c r="O341" t="s">
+        <v>90</v>
+      </c>
+      <c r="P341" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q341">
+        <v>3.72</v>
+      </c>
+      <c r="R341">
+        <v>1.86</v>
+      </c>
+      <c r="S341">
+        <v>3.56</v>
+      </c>
+      <c r="T341">
+        <v>1.61</v>
+      </c>
+      <c r="U341">
+        <v>2.25</v>
+      </c>
+      <c r="V341">
+        <v>3.76</v>
+      </c>
+      <c r="W341">
+        <v>1.25</v>
+      </c>
+      <c r="X341">
+        <v>10.75</v>
+      </c>
+      <c r="Y341">
+        <v>1.03</v>
+      </c>
+      <c r="Z341">
+        <v>2.9</v>
+      </c>
+      <c r="AA341">
+        <v>3</v>
+      </c>
+      <c r="AB341">
+        <v>2.8</v>
+      </c>
+      <c r="AC341">
+        <v>1.08</v>
+      </c>
+      <c r="AD341">
+        <v>5.8</v>
+      </c>
+      <c r="AE341">
+        <v>1.53</v>
+      </c>
+      <c r="AF341">
+        <v>2.38</v>
+      </c>
+      <c r="AG341">
+        <v>2.7</v>
+      </c>
+      <c r="AH341">
+        <v>1.45</v>
+      </c>
+      <c r="AI341">
+        <v>2.17</v>
+      </c>
+      <c r="AJ341">
+        <v>1.66</v>
+      </c>
+      <c r="AK341">
+        <v>1.45</v>
+      </c>
+      <c r="AL341">
+        <v>1.41</v>
+      </c>
+      <c r="AM341">
+        <v>1.44</v>
+      </c>
+      <c r="AN341">
+        <v>1.71</v>
+      </c>
+      <c r="AO341">
+        <v>1.44</v>
+      </c>
+      <c r="AP341">
+        <v>1.67</v>
+      </c>
+      <c r="AQ341">
+        <v>1.41</v>
+      </c>
+      <c r="AR341">
+        <v>1.32</v>
+      </c>
+      <c r="AS341">
+        <v>1.29</v>
+      </c>
+      <c r="AT341">
+        <v>2.61</v>
+      </c>
+      <c r="AU341">
+        <v>2</v>
+      </c>
+      <c r="AV341">
+        <v>3</v>
+      </c>
+      <c r="AW341">
+        <v>1</v>
+      </c>
+      <c r="AX341">
+        <v>3</v>
+      </c>
+      <c r="AY341">
+        <v>3</v>
+      </c>
+      <c r="AZ341">
+        <v>6</v>
+      </c>
+      <c r="BA341">
+        <v>2</v>
+      </c>
+      <c r="BB341">
+        <v>4</v>
+      </c>
+      <c r="BC341">
+        <v>6</v>
+      </c>
+      <c r="BD341">
+        <v>1.5</v>
+      </c>
+      <c r="BE341">
+        <v>8</v>
+      </c>
+      <c r="BF341">
+        <v>3.1</v>
+      </c>
+      <c r="BG341">
+        <v>1.4</v>
+      </c>
+      <c r="BH341">
+        <v>2.6</v>
+      </c>
+      <c r="BI341">
+        <v>1.72</v>
+      </c>
+      <c r="BJ341">
+        <v>1.97</v>
+      </c>
+      <c r="BK341">
+        <v>2.18</v>
+      </c>
+      <c r="BL341">
+        <v>1.57</v>
+      </c>
+      <c r="BM341">
+        <v>2.9</v>
+      </c>
+      <c r="BN341">
+        <v>1.32</v>
+      </c>
+      <c r="BO341">
+        <v>3.95</v>
+      </c>
+      <c r="BP341">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="342" spans="1:68">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>6745731</v>
+      </c>
+      <c r="C342" t="s">
+        <v>68</v>
+      </c>
+      <c r="D342" t="s">
+        <v>69</v>
+      </c>
+      <c r="E342" s="2">
+        <v>45416.54166666666</v>
+      </c>
+      <c r="F342">
+        <v>35</v>
+      </c>
+      <c r="G342" t="s">
+        <v>80</v>
+      </c>
+      <c r="H342" t="s">
+        <v>85</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>1</v>
+      </c>
+      <c r="K342">
+        <v>1</v>
+      </c>
+      <c r="L342">
+        <v>2</v>
+      </c>
+      <c r="M342">
+        <v>2</v>
+      </c>
+      <c r="N342">
+        <v>4</v>
+      </c>
+      <c r="O342" t="s">
+        <v>307</v>
+      </c>
+      <c r="P342" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q342">
+        <v>4.75</v>
+      </c>
+      <c r="R342">
+        <v>2.2</v>
+      </c>
+      <c r="S342">
+        <v>2.4</v>
+      </c>
+      <c r="T342">
+        <v>1.4</v>
+      </c>
+      <c r="U342">
+        <v>2.75</v>
+      </c>
+      <c r="V342">
+        <v>2.75</v>
+      </c>
+      <c r="W342">
+        <v>1.4</v>
+      </c>
+      <c r="X342">
+        <v>8</v>
+      </c>
+      <c r="Y342">
+        <v>1.08</v>
+      </c>
+      <c r="Z342">
+        <v>3.95</v>
+      </c>
+      <c r="AA342">
+        <v>3.5</v>
+      </c>
+      <c r="AB342">
+        <v>1.9</v>
+      </c>
+      <c r="AC342">
+        <v>1.06</v>
+      </c>
+      <c r="AD342">
+        <v>11.5</v>
+      </c>
+      <c r="AE342">
+        <v>1.3</v>
+      </c>
+      <c r="AF342">
+        <v>3.55</v>
+      </c>
+      <c r="AG342">
+        <v>1.95</v>
+      </c>
+      <c r="AH342">
+        <v>1.85</v>
+      </c>
+      <c r="AI342">
+        <v>1.8</v>
+      </c>
+      <c r="AJ342">
+        <v>1.95</v>
+      </c>
+      <c r="AK342">
+        <v>2.05</v>
+      </c>
+      <c r="AL342">
+        <v>1.31</v>
+      </c>
+      <c r="AM342">
+        <v>1.23</v>
+      </c>
+      <c r="AN342">
+        <v>1.35</v>
+      </c>
+      <c r="AO342">
+        <v>1.47</v>
+      </c>
+      <c r="AP342">
+        <v>1.33</v>
+      </c>
+      <c r="AQ342">
+        <v>1.44</v>
+      </c>
+      <c r="AR342">
+        <v>1.27</v>
+      </c>
+      <c r="AS342">
+        <v>1.18</v>
+      </c>
+      <c r="AT342">
+        <v>2.45</v>
+      </c>
+      <c r="AU342">
+        <v>6</v>
+      </c>
+      <c r="AV342">
+        <v>3</v>
+      </c>
+      <c r="AW342">
+        <v>5</v>
+      </c>
+      <c r="AX342">
+        <v>3</v>
+      </c>
+      <c r="AY342">
+        <v>11</v>
+      </c>
+      <c r="AZ342">
+        <v>6</v>
+      </c>
+      <c r="BA342">
+        <v>5</v>
+      </c>
+      <c r="BB342">
+        <v>4</v>
+      </c>
+      <c r="BC342">
+        <v>9</v>
+      </c>
+      <c r="BD342">
+        <v>2.5</v>
+      </c>
+      <c r="BE342">
+        <v>7.5</v>
+      </c>
+      <c r="BF342">
+        <v>1.7</v>
+      </c>
+      <c r="BG342">
+        <v>1.26</v>
+      </c>
+      <c r="BH342">
+        <v>3.2</v>
+      </c>
+      <c r="BI342">
+        <v>1.49</v>
+      </c>
+      <c r="BJ342">
+        <v>2.35</v>
+      </c>
+      <c r="BK342">
+        <v>1.85</v>
+      </c>
+      <c r="BL342">
+        <v>1.84</v>
+      </c>
+      <c r="BM342">
+        <v>2.33</v>
+      </c>
+      <c r="BN342">
+        <v>1.5</v>
+      </c>
+      <c r="BO342">
+        <v>3.05</v>
+      </c>
+      <c r="BP342">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="343" spans="1:68">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>6745734</v>
+      </c>
+      <c r="C343" t="s">
+        <v>68</v>
+      </c>
+      <c r="D343" t="s">
+        <v>69</v>
+      </c>
+      <c r="E343" s="2">
+        <v>45416.65625</v>
+      </c>
+      <c r="F343">
+        <v>35</v>
+      </c>
+      <c r="G343" t="s">
+        <v>75</v>
+      </c>
+      <c r="H343" t="s">
+        <v>73</v>
+      </c>
+      <c r="I343">
+        <v>1</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343">
+        <v>1</v>
+      </c>
+      <c r="L343">
+        <v>1</v>
+      </c>
+      <c r="M343">
+        <v>0</v>
+      </c>
+      <c r="N343">
+        <v>1</v>
+      </c>
+      <c r="O343" t="s">
+        <v>308</v>
+      </c>
+      <c r="P343" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q343">
+        <v>5.5</v>
+      </c>
+      <c r="R343">
+        <v>2.5</v>
+      </c>
+      <c r="S343">
+        <v>2</v>
+      </c>
+      <c r="T343">
+        <v>1.25</v>
+      </c>
+      <c r="U343">
+        <v>3.75</v>
+      </c>
+      <c r="V343">
+        <v>2.25</v>
+      </c>
+      <c r="W343">
+        <v>1.57</v>
+      </c>
+      <c r="X343">
+        <v>5.5</v>
+      </c>
+      <c r="Y343">
+        <v>1.14</v>
+      </c>
+      <c r="Z343">
+        <v>6.25</v>
+      </c>
+      <c r="AA343">
+        <v>4.9</v>
+      </c>
+      <c r="AB343">
+        <v>1.44</v>
+      </c>
+      <c r="AC343">
+        <v>1.03</v>
+      </c>
+      <c r="AD343">
+        <v>11</v>
+      </c>
+      <c r="AE343">
+        <v>1.17</v>
+      </c>
+      <c r="AF343">
+        <v>5</v>
+      </c>
+      <c r="AG343">
+        <v>1.7</v>
+      </c>
+      <c r="AH343">
+        <v>2.16</v>
+      </c>
+      <c r="AI343">
+        <v>1.67</v>
+      </c>
+      <c r="AJ343">
+        <v>2.1</v>
+      </c>
+      <c r="AK343">
+        <v>2.55</v>
+      </c>
+      <c r="AL343">
+        <v>1.15</v>
+      </c>
+      <c r="AM343">
+        <v>1.12</v>
+      </c>
+      <c r="AN343">
+        <v>1</v>
+      </c>
+      <c r="AO343">
+        <v>2.75</v>
+      </c>
+      <c r="AP343">
+        <v>1.11</v>
+      </c>
+      <c r="AQ343">
+        <v>2.59</v>
+      </c>
+      <c r="AR343">
+        <v>1.38</v>
+      </c>
+      <c r="AS343">
+        <v>1.45</v>
+      </c>
+      <c r="AT343">
+        <v>2.83</v>
+      </c>
+      <c r="AU343">
+        <v>2</v>
+      </c>
+      <c r="AV343">
+        <v>2</v>
+      </c>
+      <c r="AW343">
+        <v>0</v>
+      </c>
+      <c r="AX343">
+        <v>3</v>
+      </c>
+      <c r="AY343">
+        <v>2</v>
+      </c>
+      <c r="AZ343">
+        <v>5</v>
+      </c>
+      <c r="BA343">
+        <v>2</v>
+      </c>
+      <c r="BB343">
+        <v>1</v>
+      </c>
+      <c r="BC343">
+        <v>3</v>
+      </c>
+      <c r="BD343">
+        <v>2.9</v>
+      </c>
+      <c r="BE343">
+        <v>8.5</v>
+      </c>
+      <c r="BF343">
+        <v>1.61</v>
+      </c>
+      <c r="BG343">
+        <v>1.2</v>
+      </c>
+      <c r="BH343">
+        <v>3.7</v>
+      </c>
+      <c r="BI343">
+        <v>1.38</v>
+      </c>
+      <c r="BJ343">
+        <v>2.65</v>
+      </c>
+      <c r="BK343">
+        <v>1.67</v>
+      </c>
+      <c r="BL343">
+        <v>2.02</v>
+      </c>
+      <c r="BM343">
+        <v>2.1</v>
+      </c>
+      <c r="BN343">
+        <v>1.63</v>
+      </c>
+      <c r="BO343">
+        <v>2.7</v>
+      </c>
+      <c r="BP343">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="443">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -949,6 +949,12 @@
     <t>['13', '59']</t>
   </si>
   <si>
+    <t>['45', '72', '75']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
     <t>['24', '42', '79']</t>
   </si>
   <si>
@@ -1332,6 +1338,12 @@
   <si>
     <t>['11', '83']</t>
   </si>
+  <si>
+    <t>['5', '48', '87']</t>
+  </si>
+  <si>
+    <t>['57', '63']</t>
+  </si>
 </sst>
 </file>
 
@@ -1692,7 +1704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP346"/>
+  <dimension ref="A1:BP349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2157,7 +2169,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q3">
         <v>7.5</v>
@@ -2363,7 +2375,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2775,7 +2787,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2853,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ6">
         <v>0.41</v>
@@ -2981,7 +2993,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -3062,7 +3074,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ7">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3393,7 +3405,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3474,7 +3486,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ9">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3805,7 +3817,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q11">
         <v>4.33</v>
@@ -4298,7 +4310,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ13">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR13">
         <v>0.55</v>
@@ -4423,7 +4435,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4501,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4835,7 +4847,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -5247,7 +5259,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q18">
         <v>2.1</v>
@@ -5737,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5865,7 +5877,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q21">
         <v>6.5</v>
@@ -6277,7 +6289,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6355,7 +6367,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ23">
         <v>1.94</v>
@@ -6689,7 +6701,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6895,7 +6907,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -7925,7 +7937,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -8006,7 +8018,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ31">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR31">
         <v>1.21</v>
@@ -8543,7 +8555,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -9161,7 +9173,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -9367,7 +9379,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9448,7 +9460,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ38">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR38">
         <v>1.32</v>
@@ -9651,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ39">
         <v>0.88</v>
@@ -9779,7 +9791,7 @@
         <v>90</v>
       </c>
       <c r="P40" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9857,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -10269,7 +10281,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ42">
         <v>0.39</v>
@@ -10681,7 +10693,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ44">
         <v>0.61</v>
@@ -10809,7 +10821,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10890,7 +10902,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ45">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR45">
         <v>1.32</v>
@@ -11015,7 +11027,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -11633,7 +11645,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -12045,7 +12057,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -12457,7 +12469,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12869,7 +12881,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12950,7 +12962,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ55">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR55">
         <v>0.8</v>
@@ -13281,7 +13293,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q57">
         <v>1.8</v>
@@ -13693,7 +13705,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -14105,7 +14117,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14311,7 +14323,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q62">
         <v>4.5</v>
@@ -14595,7 +14607,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ63">
         <v>1.44</v>
@@ -14723,7 +14735,7 @@
         <v>90</v>
       </c>
       <c r="P64" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -14801,7 +14813,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ64">
         <v>2.59</v>
@@ -15135,7 +15147,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15422,7 +15434,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ67">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR67">
         <v>1.81</v>
@@ -15625,7 +15637,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ68">
         <v>0.39</v>
@@ -15753,7 +15765,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -16577,7 +16589,7 @@
         <v>139</v>
       </c>
       <c r="P73" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16783,7 +16795,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -17813,7 +17825,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17894,7 +17906,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ79">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR79">
         <v>1.24</v>
@@ -18019,7 +18031,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18225,7 +18237,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18431,7 +18443,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18637,7 +18649,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18843,7 +18855,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -19127,7 +19139,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ85">
         <v>1.24</v>
@@ -19255,7 +19267,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19333,7 +19345,7 @@
         <v>0.25</v>
       </c>
       <c r="AP86">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ86">
         <v>0.47</v>
@@ -19461,7 +19473,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q87">
         <v>2.3</v>
@@ -19873,7 +19885,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -19951,10 +19963,10 @@
         <v>1.75</v>
       </c>
       <c r="AP89">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ89">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR89">
         <v>1.49</v>
@@ -20285,7 +20297,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q91">
         <v>1.91</v>
@@ -21315,7 +21327,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21521,7 +21533,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21933,7 +21945,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -22139,7 +22151,7 @@
         <v>90</v>
       </c>
       <c r="P100" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -22220,7 +22232,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ100">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR100">
         <v>1.14</v>
@@ -22757,7 +22769,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -22835,7 +22847,7 @@
         <v>2.2</v>
       </c>
       <c r="AP103">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ103">
         <v>1.53</v>
@@ -22963,7 +22975,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -23169,7 +23181,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -23247,7 +23259,7 @@
         <v>0.8</v>
       </c>
       <c r="AP105">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -23375,7 +23387,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -23865,7 +23877,7 @@
         <v>0.75</v>
       </c>
       <c r="AP108">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ108">
         <v>0.72</v>
@@ -24074,7 +24086,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ109">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR109">
         <v>1.66</v>
@@ -24611,7 +24623,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q112">
         <v>2.2</v>
@@ -25023,7 +25035,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -25928,7 +25940,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ118">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR118">
         <v>1.5</v>
@@ -26053,7 +26065,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -26749,7 +26761,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ122">
         <v>1.44</v>
@@ -26877,7 +26889,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -27161,7 +27173,7 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ124">
         <v>1.12</v>
@@ -27495,7 +27507,7 @@
         <v>178</v>
       </c>
       <c r="P126" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q126">
         <v>3.2</v>
@@ -27701,7 +27713,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q127">
         <v>3.2</v>
@@ -27985,7 +27997,7 @@
         <v>1.17</v>
       </c>
       <c r="AP128">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ128">
         <v>1</v>
@@ -28113,7 +28125,7 @@
         <v>157</v>
       </c>
       <c r="P129" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -28319,7 +28331,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28731,7 +28743,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q132">
         <v>4.33</v>
@@ -28812,7 +28824,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ132">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR132">
         <v>1.58</v>
@@ -28937,7 +28949,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q133">
         <v>2.63</v>
@@ -29349,7 +29361,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q135">
         <v>1.91</v>
@@ -29427,7 +29439,7 @@
         <v>0.33</v>
       </c>
       <c r="AP135">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ135">
         <v>0.39</v>
@@ -29555,7 +29567,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29967,7 +29979,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q138">
         <v>2.38</v>
@@ -30173,7 +30185,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -30379,7 +30391,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q140">
         <v>3.4</v>
@@ -30666,7 +30678,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ141">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR141">
         <v>1.34</v>
@@ -31203,7 +31215,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -32027,7 +32039,7 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32105,7 +32117,7 @@
         <v>0.86</v>
       </c>
       <c r="AP148">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ148">
         <v>1.41</v>
@@ -32233,7 +32245,7 @@
         <v>195</v>
       </c>
       <c r="P149" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -32311,7 +32323,7 @@
         <v>1.43</v>
       </c>
       <c r="AP149">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ149">
         <v>1.12</v>
@@ -32932,7 +32944,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ152">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR152">
         <v>1.1</v>
@@ -33057,7 +33069,7 @@
         <v>198</v>
       </c>
       <c r="P153" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33753,7 +33765,7 @@
         <v>1.14</v>
       </c>
       <c r="AP156">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ156">
         <v>1.24</v>
@@ -33881,7 +33893,7 @@
         <v>201</v>
       </c>
       <c r="P157" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -34499,7 +34511,7 @@
         <v>90</v>
       </c>
       <c r="P160" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -34911,7 +34923,7 @@
         <v>90</v>
       </c>
       <c r="P162" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -35117,7 +35129,7 @@
         <v>205</v>
       </c>
       <c r="P163" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35529,7 +35541,7 @@
         <v>206</v>
       </c>
       <c r="P165" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q165">
         <v>6.5</v>
@@ -35607,7 +35619,7 @@
         <v>1.75</v>
       </c>
       <c r="AP165">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ165">
         <v>1.94</v>
@@ -35735,7 +35747,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q166">
         <v>5.5</v>
@@ -35816,7 +35828,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ166">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR166">
         <v>1.29</v>
@@ -36022,7 +36034,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ167">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR167">
         <v>1.33</v>
@@ -36843,7 +36855,7 @@
         <v>2.13</v>
       </c>
       <c r="AP171">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ171">
         <v>1.53</v>
@@ -38697,7 +38709,7 @@
         <v>1</v>
       </c>
       <c r="AP180">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ180">
         <v>0.53</v>
@@ -39443,7 +39455,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q184">
         <v>3.25</v>
@@ -39649,7 +39661,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q185">
         <v>2.88</v>
@@ -40061,7 +40073,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -40473,7 +40485,7 @@
         <v>214</v>
       </c>
       <c r="P189" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -40679,7 +40691,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q190">
         <v>7</v>
@@ -40757,10 +40769,10 @@
         <v>2.22</v>
       </c>
       <c r="AP190">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ190">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR190">
         <v>1.32</v>
@@ -40963,10 +40975,10 @@
         <v>1.11</v>
       </c>
       <c r="AP191">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ191">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR191">
         <v>1.38</v>
@@ -41709,7 +41721,7 @@
         <v>224</v>
       </c>
       <c r="P195" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q195">
         <v>6.5</v>
@@ -42327,7 +42339,7 @@
         <v>226</v>
       </c>
       <c r="P198" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q198">
         <v>2.3</v>
@@ -42611,7 +42623,7 @@
         <v>0.89</v>
       </c>
       <c r="AP199">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ199">
         <v>1.35</v>
@@ -43151,7 +43163,7 @@
         <v>230</v>
       </c>
       <c r="P202" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q202">
         <v>2.05</v>
@@ -43229,7 +43241,7 @@
         <v>0.5</v>
       </c>
       <c r="AP202">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ202">
         <v>0.61</v>
@@ -43357,7 +43369,7 @@
         <v>231</v>
       </c>
       <c r="P203" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q203">
         <v>4.5</v>
@@ -43975,7 +43987,7 @@
         <v>234</v>
       </c>
       <c r="P206" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q206">
         <v>4.33</v>
@@ -44053,7 +44065,7 @@
         <v>0.8</v>
       </c>
       <c r="AP206">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ206">
         <v>1.06</v>
@@ -44181,7 +44193,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -44262,7 +44274,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ207">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR207">
         <v>1.57</v>
@@ -44387,7 +44399,7 @@
         <v>235</v>
       </c>
       <c r="P208" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q208">
         <v>4.33</v>
@@ -45005,7 +45017,7 @@
         <v>238</v>
       </c>
       <c r="P211" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45083,7 +45095,7 @@
         <v>0.9</v>
       </c>
       <c r="AP211">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ211">
         <v>1.41</v>
@@ -46241,7 +46253,7 @@
         <v>132</v>
       </c>
       <c r="P217" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q217">
         <v>5.5</v>
@@ -46319,7 +46331,7 @@
         <v>0.8</v>
       </c>
       <c r="AP217">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ217">
         <v>1.35</v>
@@ -46447,7 +46459,7 @@
         <v>241</v>
       </c>
       <c r="P218" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -47065,7 +47077,7 @@
         <v>242</v>
       </c>
       <c r="P221" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q221">
         <v>4.75</v>
@@ -47271,7 +47283,7 @@
         <v>243</v>
       </c>
       <c r="P222" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q222">
         <v>2.38</v>
@@ -47889,7 +47901,7 @@
         <v>245</v>
       </c>
       <c r="P225" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q225">
         <v>2.75</v>
@@ -48176,7 +48188,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ226">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR226">
         <v>1.81</v>
@@ -48379,7 +48391,7 @@
         <v>0.27</v>
       </c>
       <c r="AP227">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ227">
         <v>0.47</v>
@@ -48507,7 +48519,7 @@
         <v>224</v>
       </c>
       <c r="P228" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q228">
         <v>3.2</v>
@@ -48585,7 +48597,7 @@
         <v>0.82</v>
       </c>
       <c r="AP228">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ228">
         <v>0.88</v>
@@ -48713,7 +48725,7 @@
         <v>191</v>
       </c>
       <c r="P229" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q229">
         <v>4.33</v>
@@ -48919,7 +48931,7 @@
         <v>247</v>
       </c>
       <c r="P230" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -48997,7 +49009,7 @@
         <v>2.64</v>
       </c>
       <c r="AP230">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ230">
         <v>2.59</v>
@@ -49331,7 +49343,7 @@
         <v>248</v>
       </c>
       <c r="P232" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q232">
         <v>2.05</v>
@@ -49949,7 +49961,7 @@
         <v>191</v>
       </c>
       <c r="P235" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50030,7 +50042,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ235">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR235">
         <v>1.26</v>
@@ -50233,7 +50245,7 @@
         <v>1.64</v>
       </c>
       <c r="AP236">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ236">
         <v>1.53</v>
@@ -51391,7 +51403,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q242">
         <v>6</v>
@@ -51472,7 +51484,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ242">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR242">
         <v>1.31</v>
@@ -51803,7 +51815,7 @@
         <v>255</v>
       </c>
       <c r="P244" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q244">
         <v>3</v>
@@ -52421,7 +52433,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q247">
         <v>4.33</v>
@@ -52627,7 +52639,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q248">
         <v>4.5</v>
@@ -52833,7 +52845,7 @@
         <v>90</v>
       </c>
       <c r="P249" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q249">
         <v>3.4</v>
@@ -53245,7 +53257,7 @@
         <v>260</v>
       </c>
       <c r="P251" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q251">
         <v>2.75</v>
@@ -53451,7 +53463,7 @@
         <v>90</v>
       </c>
       <c r="P252" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q252">
         <v>3.6</v>
@@ -53529,7 +53541,7 @@
         <v>1.08</v>
       </c>
       <c r="AP252">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ252">
         <v>1.24</v>
@@ -53863,7 +53875,7 @@
         <v>262</v>
       </c>
       <c r="P254" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q254">
         <v>1.8</v>
@@ -54275,7 +54287,7 @@
         <v>90</v>
       </c>
       <c r="P256" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -54559,10 +54571,10 @@
         <v>1.27</v>
       </c>
       <c r="AP257">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ257">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR257">
         <v>1.42</v>
@@ -54687,7 +54699,7 @@
         <v>264</v>
       </c>
       <c r="P258" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q258">
         <v>2.63</v>
@@ -54765,7 +54777,7 @@
         <v>1.08</v>
       </c>
       <c r="AP258">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ258">
         <v>1</v>
@@ -54893,7 +54905,7 @@
         <v>265</v>
       </c>
       <c r="P259" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -55099,7 +55111,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -55386,7 +55398,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ261">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR261">
         <v>1.86</v>
@@ -55923,7 +55935,7 @@
         <v>145</v>
       </c>
       <c r="P264" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56953,7 +56965,7 @@
         <v>205</v>
       </c>
       <c r="P269" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q269">
         <v>2.6</v>
@@ -57240,7 +57252,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ270">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR270">
         <v>2.03</v>
@@ -57983,7 +57995,7 @@
         <v>271</v>
       </c>
       <c r="P274" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q274">
         <v>2.5</v>
@@ -58395,7 +58407,7 @@
         <v>272</v>
       </c>
       <c r="P276" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q276">
         <v>3</v>
@@ -58885,7 +58897,7 @@
         <v>1.15</v>
       </c>
       <c r="AP278">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ278">
         <v>0.88</v>
@@ -59013,7 +59025,7 @@
         <v>169</v>
       </c>
       <c r="P279" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q279">
         <v>2.88</v>
@@ -59094,7 +59106,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ279">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR279">
         <v>1.53</v>
@@ -59219,7 +59231,7 @@
         <v>274</v>
       </c>
       <c r="P280" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59425,7 +59437,7 @@
         <v>152</v>
       </c>
       <c r="P281" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q281">
         <v>2.6</v>
@@ -60043,7 +60055,7 @@
         <v>90</v>
       </c>
       <c r="P284" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q284">
         <v>3.6</v>
@@ -60327,7 +60339,7 @@
         <v>0.43</v>
       </c>
       <c r="AP285">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ285">
         <v>0.72</v>
@@ -60455,7 +60467,7 @@
         <v>276</v>
       </c>
       <c r="P286" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q286">
         <v>3.75</v>
@@ -60867,7 +60879,7 @@
         <v>277</v>
       </c>
       <c r="P288" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q288">
         <v>5</v>
@@ -61151,7 +61163,7 @@
         <v>0.57</v>
       </c>
       <c r="AP289">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ289">
         <v>0.53</v>
@@ -61485,7 +61497,7 @@
         <v>90</v>
       </c>
       <c r="P291" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q291">
         <v>2.63</v>
@@ -61566,7 +61578,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ291">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR291">
         <v>2.01</v>
@@ -61691,7 +61703,7 @@
         <v>279</v>
       </c>
       <c r="P292" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q292">
         <v>2.6</v>
@@ -62184,7 +62196,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ294">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR294">
         <v>1.27</v>
@@ -62309,7 +62321,7 @@
         <v>237</v>
       </c>
       <c r="P295" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q295">
         <v>3.4</v>
@@ -63545,7 +63557,7 @@
         <v>285</v>
       </c>
       <c r="P301" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q301">
         <v>3.5</v>
@@ -63623,7 +63635,7 @@
         <v>0.53</v>
       </c>
       <c r="AP301">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ301">
         <v>0.53</v>
@@ -63829,7 +63841,7 @@
         <v>0.6</v>
       </c>
       <c r="AP302">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ302">
         <v>0.72</v>
@@ -64035,7 +64047,7 @@
         <v>1.47</v>
       </c>
       <c r="AP303">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ303">
         <v>1.44</v>
@@ -64163,7 +64175,7 @@
         <v>287</v>
       </c>
       <c r="P304" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q304">
         <v>4.33</v>
@@ -64575,7 +64587,7 @@
         <v>288</v>
       </c>
       <c r="P306" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q306">
         <v>4.33</v>
@@ -64781,7 +64793,7 @@
         <v>121</v>
       </c>
       <c r="P307" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q307">
         <v>3.5</v>
@@ -64987,7 +64999,7 @@
         <v>269</v>
       </c>
       <c r="P308" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q308">
         <v>4.75</v>
@@ -65068,7 +65080,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ308">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR308">
         <v>1.44</v>
@@ -65399,7 +65411,7 @@
         <v>273</v>
       </c>
       <c r="P310" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65605,7 +65617,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q311">
         <v>1.8</v>
@@ -66098,7 +66110,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ313">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR313">
         <v>1.35</v>
@@ -66429,7 +66441,7 @@
         <v>292</v>
       </c>
       <c r="P315" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q315">
         <v>1.8</v>
@@ -66635,7 +66647,7 @@
         <v>293</v>
       </c>
       <c r="P316" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q316">
         <v>4.75</v>
@@ -66841,7 +66853,7 @@
         <v>294</v>
       </c>
       <c r="P317" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q317">
         <v>1.57</v>
@@ -67459,7 +67471,7 @@
         <v>90</v>
       </c>
       <c r="P320" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q320">
         <v>3.75</v>
@@ -67665,7 +67677,7 @@
         <v>297</v>
       </c>
       <c r="P321" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q321">
         <v>5.5</v>
@@ -67746,7 +67758,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ321">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR321">
         <v>1.42</v>
@@ -68283,7 +68295,7 @@
         <v>90</v>
       </c>
       <c r="P324" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q324">
         <v>3</v>
@@ -68695,7 +68707,7 @@
         <v>90</v>
       </c>
       <c r="P326" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q326">
         <v>5</v>
@@ -68773,7 +68785,7 @@
         <v>1.07</v>
       </c>
       <c r="AP326">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ326">
         <v>1.12</v>
@@ -68901,7 +68913,7 @@
         <v>291</v>
       </c>
       <c r="P327" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q327">
         <v>4.5</v>
@@ -68982,7 +68994,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ327">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR327">
         <v>1.27</v>
@@ -69107,7 +69119,7 @@
         <v>299</v>
       </c>
       <c r="P328" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q328">
         <v>3.2</v>
@@ -69185,7 +69197,7 @@
         <v>1.33</v>
       </c>
       <c r="AP328">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ328">
         <v>1.41</v>
@@ -69313,7 +69325,7 @@
         <v>101</v>
       </c>
       <c r="P329" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q329">
         <v>4</v>
@@ -69391,7 +69403,7 @@
         <v>2.73</v>
       </c>
       <c r="AP329">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ329">
         <v>2.59</v>
@@ -69519,7 +69531,7 @@
         <v>300</v>
       </c>
       <c r="P330" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q330">
         <v>4</v>
@@ -70961,7 +70973,7 @@
         <v>303</v>
       </c>
       <c r="P337" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q337">
         <v>2.5</v>
@@ -71991,7 +72003,7 @@
         <v>307</v>
       </c>
       <c r="P342" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q342">
         <v>4.75</v>
@@ -72403,7 +72415,7 @@
         <v>309</v>
       </c>
       <c r="P344" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q344">
         <v>2.9</v>
@@ -72505,13 +72517,13 @@
         <v>2</v>
       </c>
       <c r="AX344">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY344">
         <v>6</v>
       </c>
       <c r="AZ344">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA344">
         <v>3</v>
@@ -72972,6 +72984,624 @@
       </c>
       <c r="BP346">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="347" spans="1:68">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>6745730</v>
+      </c>
+      <c r="C347" t="s">
+        <v>68</v>
+      </c>
+      <c r="D347" t="s">
+        <v>69</v>
+      </c>
+      <c r="E347" s="2">
+        <v>45417.54166666666</v>
+      </c>
+      <c r="F347">
+        <v>35</v>
+      </c>
+      <c r="G347" t="s">
+        <v>81</v>
+      </c>
+      <c r="H347" t="s">
+        <v>72</v>
+      </c>
+      <c r="I347">
+        <v>1</v>
+      </c>
+      <c r="J347">
+        <v>1</v>
+      </c>
+      <c r="K347">
+        <v>2</v>
+      </c>
+      <c r="L347">
+        <v>3</v>
+      </c>
+      <c r="M347">
+        <v>3</v>
+      </c>
+      <c r="N347">
+        <v>6</v>
+      </c>
+      <c r="O347" t="s">
+        <v>311</v>
+      </c>
+      <c r="P347" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q347">
+        <v>2.11</v>
+      </c>
+      <c r="R347">
+        <v>2.43</v>
+      </c>
+      <c r="S347">
+        <v>6.47</v>
+      </c>
+      <c r="T347">
+        <v>1.37</v>
+      </c>
+      <c r="U347">
+        <v>3.2</v>
+      </c>
+      <c r="V347">
+        <v>2.78</v>
+      </c>
+      <c r="W347">
+        <v>1.47</v>
+      </c>
+      <c r="X347">
+        <v>6.5</v>
+      </c>
+      <c r="Y347">
+        <v>1.11</v>
+      </c>
+      <c r="Z347">
+        <v>1.41</v>
+      </c>
+      <c r="AA347">
+        <v>4.35</v>
+      </c>
+      <c r="AB347">
+        <v>7.1</v>
+      </c>
+      <c r="AC347">
+        <v>1.06</v>
+      </c>
+      <c r="AD347">
+        <v>14</v>
+      </c>
+      <c r="AE347">
+        <v>1.26</v>
+      </c>
+      <c r="AF347">
+        <v>4.3</v>
+      </c>
+      <c r="AG347">
+        <v>1.91</v>
+      </c>
+      <c r="AH347">
+        <v>1.95</v>
+      </c>
+      <c r="AI347">
+        <v>1.95</v>
+      </c>
+      <c r="AJ347">
+        <v>1.85</v>
+      </c>
+      <c r="AK347">
+        <v>1.09</v>
+      </c>
+      <c r="AL347">
+        <v>1.17</v>
+      </c>
+      <c r="AM347">
+        <v>2.75</v>
+      </c>
+      <c r="AN347">
+        <v>2.19</v>
+      </c>
+      <c r="AO347">
+        <v>1.06</v>
+      </c>
+      <c r="AP347">
+        <v>2.12</v>
+      </c>
+      <c r="AQ347">
+        <v>1.06</v>
+      </c>
+      <c r="AR347">
+        <v>1.53</v>
+      </c>
+      <c r="AS347">
+        <v>1.04</v>
+      </c>
+      <c r="AT347">
+        <v>2.57</v>
+      </c>
+      <c r="AU347">
+        <v>7</v>
+      </c>
+      <c r="AV347">
+        <v>0</v>
+      </c>
+      <c r="AW347">
+        <v>10</v>
+      </c>
+      <c r="AX347">
+        <v>2</v>
+      </c>
+      <c r="AY347">
+        <v>17</v>
+      </c>
+      <c r="AZ347">
+        <v>2</v>
+      </c>
+      <c r="BA347">
+        <v>7</v>
+      </c>
+      <c r="BB347">
+        <v>1</v>
+      </c>
+      <c r="BC347">
+        <v>8</v>
+      </c>
+      <c r="BD347">
+        <v>1.28</v>
+      </c>
+      <c r="BE347">
+        <v>10.5</v>
+      </c>
+      <c r="BF347">
+        <v>4.75</v>
+      </c>
+      <c r="BG347">
+        <v>1.33</v>
+      </c>
+      <c r="BH347">
+        <v>2.91</v>
+      </c>
+      <c r="BI347">
+        <v>1.66</v>
+      </c>
+      <c r="BJ347">
+        <v>2.15</v>
+      </c>
+      <c r="BK347">
+        <v>2.09</v>
+      </c>
+      <c r="BL347">
+        <v>1.7</v>
+      </c>
+      <c r="BM347">
+        <v>2.35</v>
+      </c>
+      <c r="BN347">
+        <v>1.55</v>
+      </c>
+      <c r="BO347">
+        <v>3.74</v>
+      </c>
+      <c r="BP347">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="348" spans="1:68">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>6745732</v>
+      </c>
+      <c r="C348" t="s">
+        <v>68</v>
+      </c>
+      <c r="D348" t="s">
+        <v>69</v>
+      </c>
+      <c r="E348" s="2">
+        <v>45417.65625</v>
+      </c>
+      <c r="F348">
+        <v>35</v>
+      </c>
+      <c r="G348" t="s">
+        <v>74</v>
+      </c>
+      <c r="H348" t="s">
+        <v>84</v>
+      </c>
+      <c r="I348">
+        <v>1</v>
+      </c>
+      <c r="J348">
+        <v>1</v>
+      </c>
+      <c r="K348">
+        <v>2</v>
+      </c>
+      <c r="L348">
+        <v>1</v>
+      </c>
+      <c r="M348">
+        <v>1</v>
+      </c>
+      <c r="N348">
+        <v>2</v>
+      </c>
+      <c r="O348" t="s">
+        <v>312</v>
+      </c>
+      <c r="P348" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q348">
+        <v>3.5</v>
+      </c>
+      <c r="R348">
+        <v>2</v>
+      </c>
+      <c r="S348">
+        <v>3.4</v>
+      </c>
+      <c r="T348">
+        <v>1.5</v>
+      </c>
+      <c r="U348">
+        <v>2.5</v>
+      </c>
+      <c r="V348">
+        <v>3.5</v>
+      </c>
+      <c r="W348">
+        <v>1.29</v>
+      </c>
+      <c r="X348">
+        <v>11</v>
+      </c>
+      <c r="Y348">
+        <v>1.05</v>
+      </c>
+      <c r="Z348">
+        <v>2.8</v>
+      </c>
+      <c r="AA348">
+        <v>3.1</v>
+      </c>
+      <c r="AB348">
+        <v>2.5</v>
+      </c>
+      <c r="AC348">
+        <v>1.09</v>
+      </c>
+      <c r="AD348">
+        <v>8</v>
+      </c>
+      <c r="AE348">
+        <v>1.45</v>
+      </c>
+      <c r="AF348">
+        <v>2.75</v>
+      </c>
+      <c r="AG348">
+        <v>2.3</v>
+      </c>
+      <c r="AH348">
+        <v>1.57</v>
+      </c>
+      <c r="AI348">
+        <v>1.95</v>
+      </c>
+      <c r="AJ348">
+        <v>1.8</v>
+      </c>
+      <c r="AK348">
+        <v>1.48</v>
+      </c>
+      <c r="AL348">
+        <v>1.32</v>
+      </c>
+      <c r="AM348">
+        <v>1.47</v>
+      </c>
+      <c r="AN348">
+        <v>2.12</v>
+      </c>
+      <c r="AO348">
+        <v>1.71</v>
+      </c>
+      <c r="AP348">
+        <v>2.06</v>
+      </c>
+      <c r="AQ348">
+        <v>1.67</v>
+      </c>
+      <c r="AR348">
+        <v>1.33</v>
+      </c>
+      <c r="AS348">
+        <v>1.28</v>
+      </c>
+      <c r="AT348">
+        <v>2.61</v>
+      </c>
+      <c r="AU348">
+        <v>6</v>
+      </c>
+      <c r="AV348">
+        <v>7</v>
+      </c>
+      <c r="AW348">
+        <v>9</v>
+      </c>
+      <c r="AX348">
+        <v>7</v>
+      </c>
+      <c r="AY348">
+        <v>15</v>
+      </c>
+      <c r="AZ348">
+        <v>14</v>
+      </c>
+      <c r="BA348">
+        <v>9</v>
+      </c>
+      <c r="BB348">
+        <v>6</v>
+      </c>
+      <c r="BC348">
+        <v>15</v>
+      </c>
+      <c r="BD348">
+        <v>1.87</v>
+      </c>
+      <c r="BE348">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF348">
+        <v>2.28</v>
+      </c>
+      <c r="BG348">
+        <v>1.38</v>
+      </c>
+      <c r="BH348">
+        <v>2.8</v>
+      </c>
+      <c r="BI348">
+        <v>1.65</v>
+      </c>
+      <c r="BJ348">
+        <v>2.1</v>
+      </c>
+      <c r="BK348">
+        <v>2.05</v>
+      </c>
+      <c r="BL348">
+        <v>1.7</v>
+      </c>
+      <c r="BM348">
+        <v>2.62</v>
+      </c>
+      <c r="BN348">
+        <v>1.42</v>
+      </c>
+      <c r="BO348">
+        <v>3.4</v>
+      </c>
+      <c r="BP348">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="349" spans="1:68">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>6745733</v>
+      </c>
+      <c r="C349" t="s">
+        <v>68</v>
+      </c>
+      <c r="D349" t="s">
+        <v>69</v>
+      </c>
+      <c r="E349" s="2">
+        <v>45418.54166666666</v>
+      </c>
+      <c r="F349">
+        <v>35</v>
+      </c>
+      <c r="G349" t="s">
+        <v>87</v>
+      </c>
+      <c r="H349" t="s">
+        <v>89</v>
+      </c>
+      <c r="I349">
+        <v>1</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>1</v>
+      </c>
+      <c r="L349">
+        <v>1</v>
+      </c>
+      <c r="M349">
+        <v>2</v>
+      </c>
+      <c r="N349">
+        <v>3</v>
+      </c>
+      <c r="O349" t="s">
+        <v>255</v>
+      </c>
+      <c r="P349" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q349">
+        <v>7</v>
+      </c>
+      <c r="R349">
+        <v>2.63</v>
+      </c>
+      <c r="S349">
+        <v>1.8</v>
+      </c>
+      <c r="T349">
+        <v>1.25</v>
+      </c>
+      <c r="U349">
+        <v>3.75</v>
+      </c>
+      <c r="V349">
+        <v>2.2</v>
+      </c>
+      <c r="W349">
+        <v>1.62</v>
+      </c>
+      <c r="X349">
+        <v>5</v>
+      </c>
+      <c r="Y349">
+        <v>1.17</v>
+      </c>
+      <c r="Z349">
+        <v>7.5</v>
+      </c>
+      <c r="AA349">
+        <v>5</v>
+      </c>
+      <c r="AB349">
+        <v>1.36</v>
+      </c>
+      <c r="AC349">
+        <v>1.02</v>
+      </c>
+      <c r="AD349">
+        <v>15</v>
+      </c>
+      <c r="AE349">
+        <v>1.17</v>
+      </c>
+      <c r="AF349">
+        <v>5</v>
+      </c>
+      <c r="AG349">
+        <v>1.58</v>
+      </c>
+      <c r="AH349">
+        <v>2.4</v>
+      </c>
+      <c r="AI349">
+        <v>1.8</v>
+      </c>
+      <c r="AJ349">
+        <v>1.95</v>
+      </c>
+      <c r="AK349">
+        <v>2.9</v>
+      </c>
+      <c r="AL349">
+        <v>1.17</v>
+      </c>
+      <c r="AM349">
+        <v>1.11</v>
+      </c>
+      <c r="AN349">
+        <v>0.47</v>
+      </c>
+      <c r="AO349">
+        <v>1.29</v>
+      </c>
+      <c r="AP349">
+        <v>0.44</v>
+      </c>
+      <c r="AQ349">
+        <v>1.39</v>
+      </c>
+      <c r="AR349">
+        <v>1.23</v>
+      </c>
+      <c r="AS349">
+        <v>1.29</v>
+      </c>
+      <c r="AT349">
+        <v>2.52</v>
+      </c>
+      <c r="AU349">
+        <v>2</v>
+      </c>
+      <c r="AV349">
+        <v>0</v>
+      </c>
+      <c r="AW349">
+        <v>1</v>
+      </c>
+      <c r="AX349">
+        <v>5</v>
+      </c>
+      <c r="AY349">
+        <v>3</v>
+      </c>
+      <c r="AZ349">
+        <v>5</v>
+      </c>
+      <c r="BA349">
+        <v>1</v>
+      </c>
+      <c r="BB349">
+        <v>1</v>
+      </c>
+      <c r="BC349">
+        <v>2</v>
+      </c>
+      <c r="BD349">
+        <v>4.5</v>
+      </c>
+      <c r="BE349">
+        <v>10</v>
+      </c>
+      <c r="BF349">
+        <v>1.3</v>
+      </c>
+      <c r="BG349">
+        <v>1.19</v>
+      </c>
+      <c r="BH349">
+        <v>3.85</v>
+      </c>
+      <c r="BI349">
+        <v>1.36</v>
+      </c>
+      <c r="BJ349">
+        <v>2.75</v>
+      </c>
+      <c r="BK349">
+        <v>1.61</v>
+      </c>
+      <c r="BL349">
+        <v>2.12</v>
+      </c>
+      <c r="BM349">
+        <v>2</v>
+      </c>
+      <c r="BN349">
+        <v>1.7</v>
+      </c>
+      <c r="BO349">
+        <v>2.5</v>
+      </c>
+      <c r="BP349">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="443">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1704,7 +1704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP349"/>
+  <dimension ref="A1:BP350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2250,7 +2250,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ3">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ9">
         <v>1.67</v>
@@ -6573,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ24">
         <v>0.39</v>
@@ -8636,7 +8636,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ34">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR34">
         <v>0.77</v>
@@ -11723,7 +11723,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ49">
         <v>1.12</v>
@@ -11932,7 +11932,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ50">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR50">
         <v>1.73</v>
@@ -14404,7 +14404,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ62">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR62">
         <v>1.76</v>
@@ -15225,7 +15225,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ66">
         <v>1.06</v>
@@ -18524,7 +18524,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ82">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
         <v>0.88</v>
@@ -20169,7 +20169,7 @@
         <v>0.67</v>
       </c>
       <c r="AP90">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ90">
         <v>0.72</v>
@@ -22850,7 +22850,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ103">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR103">
         <v>1.4</v>
@@ -25937,7 +25937,7 @@
         <v>1.5</v>
       </c>
       <c r="AP118">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ118">
         <v>1.39</v>
@@ -26970,7 +26970,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ123">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR123">
         <v>1.61</v>
@@ -30057,7 +30057,7 @@
         <v>0.57</v>
       </c>
       <c r="AP138">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ138">
         <v>0.61</v>
@@ -30884,7 +30884,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ142">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR142">
         <v>1.59</v>
@@ -33971,7 +33971,7 @@
         <v>1</v>
       </c>
       <c r="AP157">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ157">
         <v>0.53</v>
@@ -36858,7 +36858,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ171">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR171">
         <v>1.35</v>
@@ -38297,7 +38297,7 @@
         <v>1.13</v>
       </c>
       <c r="AP178">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ178">
         <v>1.41</v>
@@ -40360,7 +40360,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ188">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR188">
         <v>1.36</v>
@@ -40563,7 +40563,7 @@
         <v>1.11</v>
       </c>
       <c r="AP189">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ189">
         <v>1.44</v>
@@ -43447,7 +43447,7 @@
         <v>1.8</v>
       </c>
       <c r="AP203">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ203">
         <v>1.94</v>
@@ -45922,7 +45922,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ215">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR215">
         <v>1.21</v>
@@ -46743,7 +46743,7 @@
         <v>1.09</v>
       </c>
       <c r="AP219">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ219">
         <v>1.24</v>
@@ -50248,7 +50248,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ236">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR236">
         <v>1.43</v>
@@ -52099,7 +52099,7 @@
         <v>0.25</v>
       </c>
       <c r="AP245">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ245">
         <v>0.47</v>
@@ -54162,7 +54162,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ255">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR255">
         <v>1.5</v>
@@ -55192,7 +55192,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ260">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR260">
         <v>1.48</v>
@@ -55807,7 +55807,7 @@
         <v>0.5</v>
       </c>
       <c r="AP263">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ263">
         <v>0.41</v>
@@ -60133,7 +60133,7 @@
         <v>1</v>
       </c>
       <c r="AP284">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ284">
         <v>1</v>
@@ -61372,7 +61372,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ290">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR290">
         <v>1.81</v>
@@ -64668,7 +64668,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ306">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR306">
         <v>1.3</v>
@@ -65489,7 +65489,7 @@
         <v>2.71</v>
       </c>
       <c r="AP310">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ310">
         <v>2.59</v>
@@ -67964,7 +67964,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ322">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR322">
         <v>1.2</v>
@@ -69609,7 +69609,7 @@
         <v>1.27</v>
       </c>
       <c r="AP330">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ330">
         <v>1.35</v>
@@ -73126,22 +73126,22 @@
         <v>2.57</v>
       </c>
       <c r="AU347">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV347">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW347">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX347">
         <v>2</v>
       </c>
       <c r="AY347">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ347">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BA347">
         <v>7</v>
@@ -73538,31 +73538,31 @@
         <v>2.52</v>
       </c>
       <c r="AU349">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV349">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW349">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX349">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY349">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AZ349">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BA349">
         <v>1</v>
       </c>
       <c r="BB349">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BC349">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BD349">
         <v>4.5</v>
@@ -73602,6 +73602,212 @@
       </c>
       <c r="BP349">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="350" spans="1:68">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>6745736</v>
+      </c>
+      <c r="C350" t="s">
+        <v>68</v>
+      </c>
+      <c r="D350" t="s">
+        <v>69</v>
+      </c>
+      <c r="E350" s="2">
+        <v>45418.65625</v>
+      </c>
+      <c r="F350">
+        <v>35</v>
+      </c>
+      <c r="G350" t="s">
+        <v>77</v>
+      </c>
+      <c r="H350" t="s">
+        <v>86</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350">
+        <v>0</v>
+      </c>
+      <c r="L350">
+        <v>1</v>
+      </c>
+      <c r="M350">
+        <v>1</v>
+      </c>
+      <c r="N350">
+        <v>2</v>
+      </c>
+      <c r="O350" t="s">
+        <v>105</v>
+      </c>
+      <c r="P350" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q350">
+        <v>4.33</v>
+      </c>
+      <c r="R350">
+        <v>2.2</v>
+      </c>
+      <c r="S350">
+        <v>2.6</v>
+      </c>
+      <c r="T350">
+        <v>1.36</v>
+      </c>
+      <c r="U350">
+        <v>3</v>
+      </c>
+      <c r="V350">
+        <v>2.75</v>
+      </c>
+      <c r="W350">
+        <v>1.4</v>
+      </c>
+      <c r="X350">
+        <v>7</v>
+      </c>
+      <c r="Y350">
+        <v>1.1</v>
+      </c>
+      <c r="Z350">
+        <v>3.4</v>
+      </c>
+      <c r="AA350">
+        <v>3.55</v>
+      </c>
+      <c r="AB350">
+        <v>1.98</v>
+      </c>
+      <c r="AC350">
+        <v>1.05</v>
+      </c>
+      <c r="AD350">
+        <v>13.25</v>
+      </c>
+      <c r="AE350">
+        <v>1.26</v>
+      </c>
+      <c r="AF350">
+        <v>3.9</v>
+      </c>
+      <c r="AG350">
+        <v>1.86</v>
+      </c>
+      <c r="AH350">
+        <v>2</v>
+      </c>
+      <c r="AI350">
+        <v>1.75</v>
+      </c>
+      <c r="AJ350">
+        <v>2</v>
+      </c>
+      <c r="AK350">
+        <v>1.8</v>
+      </c>
+      <c r="AL350">
+        <v>1.3</v>
+      </c>
+      <c r="AM350">
+        <v>1.28</v>
+      </c>
+      <c r="AN350">
+        <v>0.71</v>
+      </c>
+      <c r="AO350">
+        <v>1.53</v>
+      </c>
+      <c r="AP350">
+        <v>0.72</v>
+      </c>
+      <c r="AQ350">
+        <v>1.5</v>
+      </c>
+      <c r="AR350">
+        <v>1.32</v>
+      </c>
+      <c r="AS350">
+        <v>1.39</v>
+      </c>
+      <c r="AT350">
+        <v>2.71</v>
+      </c>
+      <c r="AU350">
+        <v>3</v>
+      </c>
+      <c r="AV350">
+        <v>5</v>
+      </c>
+      <c r="AW350">
+        <v>6</v>
+      </c>
+      <c r="AX350">
+        <v>1</v>
+      </c>
+      <c r="AY350">
+        <v>9</v>
+      </c>
+      <c r="AZ350">
+        <v>6</v>
+      </c>
+      <c r="BA350">
+        <v>7</v>
+      </c>
+      <c r="BB350">
+        <v>5</v>
+      </c>
+      <c r="BC350">
+        <v>12</v>
+      </c>
+      <c r="BD350">
+        <v>2.8</v>
+      </c>
+      <c r="BE350">
+        <v>8</v>
+      </c>
+      <c r="BF350">
+        <v>1.58</v>
+      </c>
+      <c r="BG350">
+        <v>1.23</v>
+      </c>
+      <c r="BH350">
+        <v>3.4</v>
+      </c>
+      <c r="BI350">
+        <v>1.44</v>
+      </c>
+      <c r="BJ350">
+        <v>2.48</v>
+      </c>
+      <c r="BK350">
+        <v>1.75</v>
+      </c>
+      <c r="BL350">
+        <v>1.94</v>
+      </c>
+      <c r="BM350">
+        <v>2.18</v>
+      </c>
+      <c r="BN350">
+        <v>1.57</v>
+      </c>
+      <c r="BO350">
+        <v>2.8</v>
+      </c>
+      <c r="BP350">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="444">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -925,10 +925,10 @@
     <t>['56', '60']</t>
   </si>
   <si>
-    <t>['64', '84']</t>
+    <t>['42', '51']</t>
   </si>
   <si>
-    <t>['42', '51']</t>
+    <t>['64', '84']</t>
   </si>
   <si>
     <t>['17', '54', '58', '62', '66']</t>
@@ -1344,6 +1344,9 @@
   <si>
     <t>['57', '63']</t>
   </si>
+  <si>
+    <t>['19', '60', '77', '80', '84']</t>
+  </si>
 </sst>
 </file>
 
@@ -1704,7 +1707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP350"/>
+  <dimension ref="A1:BP351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2247,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ3">
         <v>1.5</v>
@@ -4307,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ13">
         <v>1.39</v>
@@ -5958,7 +5961,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ21">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -9251,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ37">
         <v>0.53</v>
@@ -11314,7 +11317,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ47">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR47">
         <v>0.98</v>
@@ -13783,7 +13786,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ59">
         <v>1.12</v>
@@ -14816,7 +14819,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ64">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR64">
         <v>1.55</v>
@@ -17697,7 +17700,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ78">
         <v>0.61</v>
@@ -18730,7 +18733,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ83">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR83">
         <v>1.23</v>
@@ -23056,7 +23059,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ104">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR104">
         <v>1.65</v>
@@ -24289,7 +24292,7 @@
         <v>0.75</v>
       </c>
       <c r="AP110">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ110">
         <v>0.88</v>
@@ -27791,7 +27794,7 @@
         <v>0.67</v>
       </c>
       <c r="AP127">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ127">
         <v>1.06</v>
@@ -28206,7 +28209,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ129">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR129">
         <v>1.75</v>
@@ -30472,7 +30475,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ140">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR140">
         <v>1.93</v>
@@ -31705,7 +31708,7 @@
         <v>1</v>
       </c>
       <c r="AP146">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ146">
         <v>1</v>
@@ -34592,7 +34595,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ160">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR160">
         <v>1.18</v>
@@ -35825,7 +35828,7 @@
         <v>2.13</v>
       </c>
       <c r="AP166">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ166">
         <v>1.67</v>
@@ -37476,7 +37479,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ174">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR174">
         <v>1.13</v>
@@ -39533,7 +39536,7 @@
         <v>1</v>
       </c>
       <c r="AP184">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ184">
         <v>1.24</v>
@@ -41802,7 +41805,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ195">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR195">
         <v>1.37</v>
@@ -43653,7 +43656,7 @@
         <v>0.3</v>
       </c>
       <c r="AP204">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ204">
         <v>0.47</v>
@@ -46128,7 +46131,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ216">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR216">
         <v>1.55</v>
@@ -47155,7 +47158,7 @@
         <v>1.91</v>
       </c>
       <c r="AP221">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ221">
         <v>1.94</v>
@@ -49012,7 +49015,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ230">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR230">
         <v>1.38</v>
@@ -52511,7 +52514,7 @@
         <v>1</v>
       </c>
       <c r="AP247">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ247">
         <v>1.35</v>
@@ -54368,7 +54371,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ256">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR256">
         <v>1.55</v>
@@ -56631,7 +56634,7 @@
         <v>0.38</v>
       </c>
       <c r="AP267">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ267">
         <v>0.72</v>
@@ -58282,7 +58285,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ275">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR275">
         <v>1.42</v>
@@ -60545,7 +60548,7 @@
         <v>1.36</v>
       </c>
       <c r="AP286">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ286">
         <v>1.44</v>
@@ -64459,7 +64462,7 @@
         <v>1.36</v>
       </c>
       <c r="AP305">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ305">
         <v>1.41</v>
@@ -65492,7 +65495,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ310">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR310">
         <v>1.41</v>
@@ -69406,7 +69409,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ329">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR329">
         <v>1.52</v>
@@ -69815,7 +69818,7 @@
         <v>0.44</v>
       </c>
       <c r="AP331">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ331">
         <v>0.41</v>
@@ -70931,7 +70934,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>6745726</v>
+        <v>6745717</v>
       </c>
       <c r="C337" t="s">
         <v>68</v>
@@ -70946,190 +70949,190 @@
         <v>34</v>
       </c>
       <c r="G337" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H337" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J337">
         <v>0</v>
       </c>
       <c r="K337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L337">
         <v>2</v>
       </c>
       <c r="M337">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N337">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O337" t="s">
         <v>303</v>
       </c>
       <c r="P337" t="s">
-        <v>439</v>
+        <v>90</v>
       </c>
       <c r="Q337">
+        <v>1.95</v>
+      </c>
+      <c r="R337">
+        <v>2.4</v>
+      </c>
+      <c r="S337">
+        <v>6.5</v>
+      </c>
+      <c r="T337">
+        <v>1.3</v>
+      </c>
+      <c r="U337">
+        <v>3.4</v>
+      </c>
+      <c r="V337">
         <v>2.5</v>
       </c>
-      <c r="R337">
-        <v>2.2</v>
-      </c>
-      <c r="S337">
-        <v>4.33</v>
-      </c>
-      <c r="T337">
-        <v>1.36</v>
-      </c>
-      <c r="U337">
+      <c r="W337">
+        <v>1.5</v>
+      </c>
+      <c r="X337">
+        <v>6</v>
+      </c>
+      <c r="Y337">
+        <v>1.13</v>
+      </c>
+      <c r="Z337">
+        <v>1.32</v>
+      </c>
+      <c r="AA337">
+        <v>4.35</v>
+      </c>
+      <c r="AB337">
+        <v>6.9</v>
+      </c>
+      <c r="AC337">
+        <v>1.03</v>
+      </c>
+      <c r="AD337">
+        <v>13</v>
+      </c>
+      <c r="AE337">
+        <v>1.18</v>
+      </c>
+      <c r="AF337">
+        <v>4.4</v>
+      </c>
+      <c r="AG337">
+        <v>1.63</v>
+      </c>
+      <c r="AH337">
+        <v>2.13</v>
+      </c>
+      <c r="AI337">
+        <v>1.91</v>
+      </c>
+      <c r="AJ337">
+        <v>1.91</v>
+      </c>
+      <c r="AK337">
+        <v>1.07</v>
+      </c>
+      <c r="AL337">
+        <v>1.16</v>
+      </c>
+      <c r="AM337">
+        <v>2.66</v>
+      </c>
+      <c r="AN337">
+        <v>2.13</v>
+      </c>
+      <c r="AO337">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP337">
+        <v>2.19</v>
+      </c>
+      <c r="AQ337">
+        <v>0.88</v>
+      </c>
+      <c r="AR337">
+        <v>1.84</v>
+      </c>
+      <c r="AS337">
+        <v>1.08</v>
+      </c>
+      <c r="AT337">
+        <v>2.92</v>
+      </c>
+      <c r="AU337">
+        <v>6</v>
+      </c>
+      <c r="AV337">
         <v>3</v>
       </c>
-      <c r="V337">
-        <v>2.75</v>
-      </c>
-      <c r="W337">
-        <v>1.4</v>
-      </c>
-      <c r="X337">
-        <v>7</v>
-      </c>
-      <c r="Y337">
-        <v>1.1</v>
-      </c>
-      <c r="Z337">
-        <v>2.02</v>
-      </c>
-      <c r="AA337">
-        <v>3.21</v>
-      </c>
-      <c r="AB337">
-        <v>3.1</v>
-      </c>
-      <c r="AC337">
-        <v>1.06</v>
-      </c>
-      <c r="AD337">
-        <v>12.5</v>
-      </c>
-      <c r="AE337">
-        <v>1.31</v>
-      </c>
-      <c r="AF337">
-        <v>3.75</v>
-      </c>
-      <c r="AG337">
-        <v>1.9</v>
-      </c>
-      <c r="AH337">
-        <v>1.98</v>
-      </c>
-      <c r="AI337">
-        <v>1.75</v>
-      </c>
-      <c r="AJ337">
-        <v>2</v>
-      </c>
-      <c r="AK337">
-        <v>1.2</v>
-      </c>
-      <c r="AL337">
-        <v>1.23</v>
-      </c>
-      <c r="AM337">
-        <v>1.9</v>
-      </c>
-      <c r="AN337">
-        <v>1.44</v>
-      </c>
-      <c r="AO337">
-        <v>1.38</v>
-      </c>
-      <c r="AP337">
-        <v>1.41</v>
-      </c>
-      <c r="AQ337">
-        <v>1.35</v>
-      </c>
-      <c r="AR337">
-        <v>2</v>
-      </c>
-      <c r="AS337">
-        <v>1.24</v>
-      </c>
-      <c r="AT337">
-        <v>3.24</v>
-      </c>
-      <c r="AU337">
-        <v>10</v>
-      </c>
-      <c r="AV337">
-        <v>5</v>
-      </c>
       <c r="AW337">
+        <v>6</v>
+      </c>
+      <c r="AX337">
+        <v>6</v>
+      </c>
+      <c r="AY337">
         <v>12</v>
-      </c>
-      <c r="AX337">
-        <v>4</v>
-      </c>
-      <c r="AY337">
-        <v>22</v>
       </c>
       <c r="AZ337">
         <v>9</v>
       </c>
       <c r="BA337">
+        <v>8</v>
+      </c>
+      <c r="BB337">
+        <v>1</v>
+      </c>
+      <c r="BC337">
         <v>9</v>
       </c>
-      <c r="BB337">
-        <v>2</v>
-      </c>
-      <c r="BC337">
-        <v>11</v>
-      </c>
       <c r="BD337">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="BE337">
-        <v>9.800000000000001</v>
+        <v>11.75</v>
       </c>
       <c r="BF337">
-        <v>3.38</v>
+        <v>5.1</v>
       </c>
       <c r="BG337">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="BH337">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="BI337">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="BJ337">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="BK337">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="BL337">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="BM337">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="BN337">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="BO337">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BP337">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="338" spans="1:68">
@@ -71137,7 +71140,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>6745717</v>
+        <v>6745726</v>
       </c>
       <c r="C338" t="s">
         <v>68</v>
@@ -71152,190 +71155,190 @@
         <v>34</v>
       </c>
       <c r="G338" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H338" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J338">
         <v>0</v>
       </c>
       <c r="K338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L338">
         <v>2</v>
       </c>
       <c r="M338">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N338">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O338" t="s">
         <v>304</v>
       </c>
       <c r="P338" t="s">
-        <v>90</v>
+        <v>439</v>
       </c>
       <c r="Q338">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="R338">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S338">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="T338">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U338">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="V338">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="W338">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X338">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y338">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z338">
-        <v>1.32</v>
+        <v>2.02</v>
       </c>
       <c r="AA338">
-        <v>4.35</v>
+        <v>3.21</v>
       </c>
       <c r="AB338">
-        <v>6.9</v>
+        <v>3.1</v>
       </c>
       <c r="AC338">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AD338">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE338">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="AF338">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="AG338">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="AH338">
-        <v>2.13</v>
+        <v>1.98</v>
       </c>
       <c r="AI338">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AJ338">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AK338">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AL338">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AM338">
-        <v>2.66</v>
+        <v>1.9</v>
       </c>
       <c r="AN338">
-        <v>2.13</v>
+        <v>1.44</v>
       </c>
       <c r="AO338">
-        <v>0.9399999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="AP338">
-        <v>2.19</v>
+        <v>1.41</v>
       </c>
       <c r="AQ338">
-        <v>0.88</v>
+        <v>1.35</v>
       </c>
       <c r="AR338">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="AS338">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="AT338">
-        <v>2.92</v>
+        <v>3.24</v>
       </c>
       <c r="AU338">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV338">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW338">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AX338">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY338">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AZ338">
         <v>9</v>
       </c>
       <c r="BA338">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB338">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC338">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD338">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="BE338">
-        <v>11.75</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BF338">
-        <v>5.1</v>
+        <v>3.38</v>
       </c>
       <c r="BG338">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="BH338">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="BI338">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="BJ338">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="BK338">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="BL338">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="BM338">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="BN338">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="BO338">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="BP338">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="339" spans="1:68">
@@ -72290,7 +72293,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ343">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AR343">
         <v>1.38</v>
@@ -73808,6 +73811,212 @@
       </c>
       <c r="BP350">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="351" spans="1:68">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>6745739</v>
+      </c>
+      <c r="C351" t="s">
+        <v>68</v>
+      </c>
+      <c r="D351" t="s">
+        <v>69</v>
+      </c>
+      <c r="E351" s="2">
+        <v>45422.65625</v>
+      </c>
+      <c r="F351">
+        <v>36</v>
+      </c>
+      <c r="G351" t="s">
+        <v>71</v>
+      </c>
+      <c r="H351" t="s">
+        <v>73</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>1</v>
+      </c>
+      <c r="K351">
+        <v>1</v>
+      </c>
+      <c r="L351">
+        <v>0</v>
+      </c>
+      <c r="M351">
+        <v>5</v>
+      </c>
+      <c r="N351">
+        <v>5</v>
+      </c>
+      <c r="O351" t="s">
+        <v>90</v>
+      </c>
+      <c r="P351" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q351">
+        <v>5</v>
+      </c>
+      <c r="R351">
+        <v>2.5</v>
+      </c>
+      <c r="S351">
+        <v>2.1</v>
+      </c>
+      <c r="T351">
+        <v>1.29</v>
+      </c>
+      <c r="U351">
+        <v>3.5</v>
+      </c>
+      <c r="V351">
+        <v>2.25</v>
+      </c>
+      <c r="W351">
+        <v>1.57</v>
+      </c>
+      <c r="X351">
+        <v>5.5</v>
+      </c>
+      <c r="Y351">
+        <v>1.14</v>
+      </c>
+      <c r="Z351">
+        <v>5</v>
+      </c>
+      <c r="AA351">
+        <v>4.5</v>
+      </c>
+      <c r="AB351">
+        <v>1.55</v>
+      </c>
+      <c r="AC351">
+        <v>1.02</v>
+      </c>
+      <c r="AD351">
+        <v>20</v>
+      </c>
+      <c r="AE351">
+        <v>1.18</v>
+      </c>
+      <c r="AF351">
+        <v>5</v>
+      </c>
+      <c r="AG351">
+        <v>1.45</v>
+      </c>
+      <c r="AH351">
+        <v>2.49</v>
+      </c>
+      <c r="AI351">
+        <v>1.62</v>
+      </c>
+      <c r="AJ351">
+        <v>2.2</v>
+      </c>
+      <c r="AK351">
+        <v>2.3</v>
+      </c>
+      <c r="AL351">
+        <v>1.17</v>
+      </c>
+      <c r="AM351">
+        <v>1.17</v>
+      </c>
+      <c r="AN351">
+        <v>1.47</v>
+      </c>
+      <c r="AO351">
+        <v>2.59</v>
+      </c>
+      <c r="AP351">
+        <v>1.39</v>
+      </c>
+      <c r="AQ351">
+        <v>2.61</v>
+      </c>
+      <c r="AR351">
+        <v>1.39</v>
+      </c>
+      <c r="AS351">
+        <v>1.44</v>
+      </c>
+      <c r="AT351">
+        <v>2.83</v>
+      </c>
+      <c r="AU351">
+        <v>9</v>
+      </c>
+      <c r="AV351">
+        <v>6</v>
+      </c>
+      <c r="AW351">
+        <v>7</v>
+      </c>
+      <c r="AX351">
+        <v>6</v>
+      </c>
+      <c r="AY351">
+        <v>16</v>
+      </c>
+      <c r="AZ351">
+        <v>12</v>
+      </c>
+      <c r="BA351">
+        <v>8</v>
+      </c>
+      <c r="BB351">
+        <v>4</v>
+      </c>
+      <c r="BC351">
+        <v>12</v>
+      </c>
+      <c r="BD351">
+        <v>2.85</v>
+      </c>
+      <c r="BE351">
+        <v>8</v>
+      </c>
+      <c r="BF351">
+        <v>1.58</v>
+      </c>
+      <c r="BG351">
+        <v>1.25</v>
+      </c>
+      <c r="BH351">
+        <v>3.3</v>
+      </c>
+      <c r="BI351">
+        <v>1.47</v>
+      </c>
+      <c r="BJ351">
+        <v>2.4</v>
+      </c>
+      <c r="BK351">
+        <v>1.81</v>
+      </c>
+      <c r="BL351">
+        <v>1.88</v>
+      </c>
+      <c r="BM351">
+        <v>2.25</v>
+      </c>
+      <c r="BN351">
+        <v>1.53</v>
+      </c>
+      <c r="BO351">
+        <v>2.95</v>
+      </c>
+      <c r="BP351">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="446">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -955,6 +955,9 @@
     <t>['15']</t>
   </si>
   <si>
+    <t>['35', '59', '74', '83', '86']</t>
+  </si>
+  <si>
     <t>['24', '42', '79']</t>
   </si>
   <si>
@@ -1347,6 +1350,9 @@
   <si>
     <t>['19', '60', '77', '80', '84']</t>
   </si>
+  <si>
+    <t>['9', '12']</t>
+  </si>
 </sst>
 </file>
 
@@ -1707,7 +1713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP351"/>
+  <dimension ref="A1:BP353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2172,7 +2178,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q3">
         <v>7.5</v>
@@ -2378,7 +2384,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2790,7 +2796,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2996,7 +3002,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -3408,7 +3414,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3695,7 +3701,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ10">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3820,7 +3826,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q11">
         <v>4.33</v>
@@ -4438,7 +4444,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4516,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4850,7 +4856,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -5137,7 +5143,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ17">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5262,7 +5268,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q18">
         <v>2.1</v>
@@ -5546,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
         <v>0.53</v>
@@ -5880,7 +5886,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q21">
         <v>6.5</v>
@@ -6292,7 +6298,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6704,7 +6710,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6785,7 +6791,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ25">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR25">
         <v>1.53</v>
@@ -6910,7 +6916,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6988,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>1.44</v>
@@ -7940,7 +7946,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -8558,7 +8564,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -9176,7 +9182,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -9382,7 +9388,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9794,7 +9800,7 @@
         <v>90</v>
       </c>
       <c r="P40" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -10081,7 +10087,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ41">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>0.76</v>
@@ -10696,7 +10702,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ44">
         <v>0.61</v>
@@ -10824,7 +10830,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -11030,7 +11036,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -11523,7 +11529,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ48">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR48">
         <v>2.01</v>
@@ -11648,7 +11654,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -12060,7 +12066,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -12472,7 +12478,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12884,7 +12890,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13168,7 +13174,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -13296,7 +13302,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q57">
         <v>1.8</v>
@@ -13708,7 +13714,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13995,7 +14001,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
         <v>2.12</v>
@@ -14120,7 +14126,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14326,7 +14332,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q62">
         <v>4.5</v>
@@ -14610,7 +14616,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ63">
         <v>1.44</v>
@@ -14738,7 +14744,7 @@
         <v>90</v>
       </c>
       <c r="P64" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -15150,7 +15156,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15768,7 +15774,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -16261,7 +16267,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ71">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR71">
         <v>1.61</v>
@@ -16592,7 +16598,7 @@
         <v>139</v>
       </c>
       <c r="P73" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16798,7 +16804,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16879,7 +16885,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ74">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR74">
         <v>1.73</v>
@@ -17828,7 +17834,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -18034,7 +18040,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18240,7 +18246,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18318,7 +18324,7 @@
         <v>1.75</v>
       </c>
       <c r="AP81">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ81">
         <v>1.12</v>
@@ -18446,7 +18452,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18652,7 +18658,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18858,7 +18864,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -19270,7 +19276,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19351,7 +19357,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ86">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR86">
         <v>1.43</v>
@@ -19476,7 +19482,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q87">
         <v>2.3</v>
@@ -19888,7 +19894,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -19966,7 +19972,7 @@
         <v>1.75</v>
       </c>
       <c r="AP89">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ89">
         <v>1.67</v>
@@ -20300,7 +20306,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q91">
         <v>1.91</v>
@@ -20793,7 +20799,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ93">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR93">
         <v>1.43</v>
@@ -21330,7 +21336,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21536,7 +21542,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21948,7 +21954,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -22026,7 +22032,7 @@
         <v>2.4</v>
       </c>
       <c r="AP99">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ99">
         <v>1.94</v>
@@ -22154,7 +22160,7 @@
         <v>90</v>
       </c>
       <c r="P100" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -22772,7 +22778,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -22978,7 +22984,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -23184,7 +23190,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -23262,7 +23268,7 @@
         <v>0.8</v>
       </c>
       <c r="AP105">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -23390,7 +23396,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -24626,7 +24632,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q112">
         <v>2.2</v>
@@ -25038,7 +25044,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -25325,7 +25331,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ115">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR115">
         <v>1.75</v>
@@ -25734,7 +25740,7 @@
         <v>0.6</v>
       </c>
       <c r="AP117">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ117">
         <v>0.88</v>
@@ -26068,7 +26074,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -26149,7 +26155,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ119">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR119">
         <v>1.76</v>
@@ -26892,7 +26898,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -27176,7 +27182,7 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ124">
         <v>1.12</v>
@@ -27510,7 +27516,7 @@
         <v>178</v>
       </c>
       <c r="P126" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q126">
         <v>3.2</v>
@@ -27716,7 +27722,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q127">
         <v>3.2</v>
@@ -28128,7 +28134,7 @@
         <v>157</v>
       </c>
       <c r="P129" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -28334,7 +28340,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28746,7 +28752,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q132">
         <v>4.33</v>
@@ -28952,7 +28958,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q133">
         <v>2.63</v>
@@ -29239,7 +29245,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ134">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR134">
         <v>1.13</v>
@@ -29364,7 +29370,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q135">
         <v>1.91</v>
@@ -29442,7 +29448,7 @@
         <v>0.33</v>
       </c>
       <c r="AP135">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ135">
         <v>0.39</v>
@@ -29570,7 +29576,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29651,7 +29657,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ136">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR136">
         <v>1.61</v>
@@ -29982,7 +29988,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q138">
         <v>2.38</v>
@@ -30188,7 +30194,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -30394,7 +30400,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q140">
         <v>3.4</v>
@@ -30472,7 +30478,7 @@
         <v>2.67</v>
       </c>
       <c r="AP140">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ140">
         <v>2.61</v>
@@ -31218,7 +31224,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -32042,7 +32048,7 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32123,7 +32129,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ148">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR148">
         <v>1.34</v>
@@ -32248,7 +32254,7 @@
         <v>195</v>
       </c>
       <c r="P149" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -33072,7 +33078,7 @@
         <v>198</v>
       </c>
       <c r="P153" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33356,10 +33362,10 @@
         <v>0.29</v>
       </c>
       <c r="AP154">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ154">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR154">
         <v>1.86</v>
@@ -33768,7 +33774,7 @@
         <v>1.14</v>
       </c>
       <c r="AP156">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ156">
         <v>1.24</v>
@@ -33896,7 +33902,7 @@
         <v>201</v>
       </c>
       <c r="P157" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -34514,7 +34520,7 @@
         <v>90</v>
       </c>
       <c r="P160" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -34926,7 +34932,7 @@
         <v>90</v>
       </c>
       <c r="P162" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -35132,7 +35138,7 @@
         <v>205</v>
       </c>
       <c r="P163" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35544,7 +35550,7 @@
         <v>206</v>
       </c>
       <c r="P165" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q165">
         <v>6.5</v>
@@ -35750,7 +35756,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q166">
         <v>5.5</v>
@@ -36449,7 +36455,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ169">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR169">
         <v>1.29</v>
@@ -37270,7 +37276,7 @@
         <v>1</v>
       </c>
       <c r="AP173">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ173">
         <v>1.24</v>
@@ -38303,7 +38309,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ178">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR178">
         <v>1.43</v>
@@ -38712,7 +38718,7 @@
         <v>1</v>
       </c>
       <c r="AP180">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ180">
         <v>0.53</v>
@@ -39458,7 +39464,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q184">
         <v>3.25</v>
@@ -39664,7 +39670,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q185">
         <v>2.88</v>
@@ -39745,7 +39751,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ185">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR185">
         <v>1.6</v>
@@ -40076,7 +40082,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -40488,7 +40494,7 @@
         <v>214</v>
       </c>
       <c r="P189" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -40694,7 +40700,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q190">
         <v>7</v>
@@ -41390,7 +41396,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP193">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ193">
         <v>0.41</v>
@@ -41724,7 +41730,7 @@
         <v>224</v>
       </c>
       <c r="P195" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q195">
         <v>6.5</v>
@@ -42217,7 +42223,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ197">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR197">
         <v>1.49</v>
@@ -42342,7 +42348,7 @@
         <v>226</v>
       </c>
       <c r="P198" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q198">
         <v>2.3</v>
@@ -42626,7 +42632,7 @@
         <v>0.89</v>
       </c>
       <c r="AP199">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ199">
         <v>1.35</v>
@@ -43166,7 +43172,7 @@
         <v>230</v>
       </c>
       <c r="P202" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q202">
         <v>2.05</v>
@@ -43372,7 +43378,7 @@
         <v>231</v>
       </c>
       <c r="P203" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q203">
         <v>4.5</v>
@@ -43659,7 +43665,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ204">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR204">
         <v>1.29</v>
@@ -43990,7 +43996,7 @@
         <v>234</v>
       </c>
       <c r="P206" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q206">
         <v>4.33</v>
@@ -44196,7 +44202,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -44402,7 +44408,7 @@
         <v>235</v>
       </c>
       <c r="P208" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q208">
         <v>4.33</v>
@@ -45020,7 +45026,7 @@
         <v>238</v>
       </c>
       <c r="P211" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45098,10 +45104,10 @@
         <v>0.9</v>
       </c>
       <c r="AP211">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ211">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR211">
         <v>1.41</v>
@@ -46256,7 +46262,7 @@
         <v>132</v>
       </c>
       <c r="P217" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q217">
         <v>5.5</v>
@@ -46462,7 +46468,7 @@
         <v>241</v>
       </c>
       <c r="P218" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -47080,7 +47086,7 @@
         <v>242</v>
       </c>
       <c r="P221" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q221">
         <v>4.75</v>
@@ -47286,7 +47292,7 @@
         <v>243</v>
       </c>
       <c r="P222" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q222">
         <v>2.38</v>
@@ -47776,7 +47782,7 @@
         <v>0.45</v>
       </c>
       <c r="AP224">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ224">
         <v>0.61</v>
@@ -47904,7 +47910,7 @@
         <v>245</v>
       </c>
       <c r="P225" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q225">
         <v>2.75</v>
@@ -48397,7 +48403,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ227">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR227">
         <v>1.36</v>
@@ -48522,7 +48528,7 @@
         <v>224</v>
       </c>
       <c r="P228" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q228">
         <v>3.2</v>
@@ -48728,7 +48734,7 @@
         <v>191</v>
       </c>
       <c r="P229" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q229">
         <v>4.33</v>
@@ -48934,7 +48940,7 @@
         <v>247</v>
       </c>
       <c r="P230" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -49346,7 +49352,7 @@
         <v>248</v>
       </c>
       <c r="P232" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q232">
         <v>2.05</v>
@@ -49964,7 +49970,7 @@
         <v>191</v>
       </c>
       <c r="P235" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50248,7 +50254,7 @@
         <v>1.64</v>
       </c>
       <c r="AP236">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ236">
         <v>1.5</v>
@@ -51278,7 +51284,7 @@
         <v>1</v>
       </c>
       <c r="AP241">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ241">
         <v>1.06</v>
@@ -51406,7 +51412,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q242">
         <v>6</v>
@@ -51818,7 +51824,7 @@
         <v>255</v>
       </c>
       <c r="P244" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q244">
         <v>3</v>
@@ -51899,7 +51905,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ244">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR244">
         <v>1.19</v>
@@ -52105,7 +52111,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ245">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR245">
         <v>1.44</v>
@@ -52436,7 +52442,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q247">
         <v>4.33</v>
@@ -52642,7 +52648,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q248">
         <v>4.5</v>
@@ -52848,7 +52854,7 @@
         <v>90</v>
       </c>
       <c r="P249" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q249">
         <v>3.4</v>
@@ -53260,7 +53266,7 @@
         <v>260</v>
       </c>
       <c r="P251" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q251">
         <v>2.75</v>
@@ -53466,7 +53472,7 @@
         <v>90</v>
       </c>
       <c r="P252" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q252">
         <v>3.6</v>
@@ -53878,7 +53884,7 @@
         <v>262</v>
       </c>
       <c r="P254" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q254">
         <v>1.8</v>
@@ -54290,7 +54296,7 @@
         <v>90</v>
       </c>
       <c r="P256" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -54574,7 +54580,7 @@
         <v>1.27</v>
       </c>
       <c r="AP257">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ257">
         <v>1.39</v>
@@ -54702,7 +54708,7 @@
         <v>264</v>
       </c>
       <c r="P258" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q258">
         <v>2.63</v>
@@ -54908,7 +54914,7 @@
         <v>265</v>
       </c>
       <c r="P259" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -55114,7 +55120,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -55938,7 +55944,7 @@
         <v>145</v>
       </c>
       <c r="P264" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56843,7 +56849,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ268">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR268">
         <v>1.25</v>
@@ -56968,7 +56974,7 @@
         <v>205</v>
       </c>
       <c r="P269" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q269">
         <v>2.6</v>
@@ -57049,7 +57055,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ269">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR269">
         <v>1.88</v>
@@ -57252,7 +57258,7 @@
         <v>2.08</v>
       </c>
       <c r="AP270">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ270">
         <v>1.67</v>
@@ -57664,7 +57670,7 @@
         <v>1</v>
       </c>
       <c r="AP272">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ272">
         <v>1</v>
@@ -57998,7 +58004,7 @@
         <v>271</v>
       </c>
       <c r="P274" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q274">
         <v>2.5</v>
@@ -58410,7 +58416,7 @@
         <v>272</v>
       </c>
       <c r="P276" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q276">
         <v>3</v>
@@ -58900,7 +58906,7 @@
         <v>1.15</v>
       </c>
       <c r="AP278">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ278">
         <v>0.88</v>
@@ -59028,7 +59034,7 @@
         <v>169</v>
       </c>
       <c r="P279" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q279">
         <v>2.88</v>
@@ -59234,7 +59240,7 @@
         <v>274</v>
       </c>
       <c r="P280" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59440,7 +59446,7 @@
         <v>152</v>
       </c>
       <c r="P281" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q281">
         <v>2.6</v>
@@ -59727,7 +59733,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ282">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR282">
         <v>1.26</v>
@@ -59933,7 +59939,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ283">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR283">
         <v>1.3</v>
@@ -60058,7 +60064,7 @@
         <v>90</v>
       </c>
       <c r="P284" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q284">
         <v>3.6</v>
@@ -60470,7 +60476,7 @@
         <v>276</v>
       </c>
       <c r="P286" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q286">
         <v>3.75</v>
@@ -60882,7 +60888,7 @@
         <v>277</v>
       </c>
       <c r="P288" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q288">
         <v>5</v>
@@ -61500,7 +61506,7 @@
         <v>90</v>
       </c>
       <c r="P291" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q291">
         <v>2.63</v>
@@ -61578,7 +61584,7 @@
         <v>1.14</v>
       </c>
       <c r="AP291">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ291">
         <v>1.39</v>
@@ -61706,7 +61712,7 @@
         <v>279</v>
       </c>
       <c r="P292" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q292">
         <v>2.6</v>
@@ -62324,7 +62330,7 @@
         <v>237</v>
       </c>
       <c r="P295" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q295">
         <v>3.4</v>
@@ -63560,7 +63566,7 @@
         <v>285</v>
       </c>
       <c r="P301" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q301">
         <v>3.5</v>
@@ -63844,7 +63850,7 @@
         <v>0.6</v>
       </c>
       <c r="AP302">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ302">
         <v>0.72</v>
@@ -64178,7 +64184,7 @@
         <v>287</v>
       </c>
       <c r="P304" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q304">
         <v>4.33</v>
@@ -64465,7 +64471,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ305">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR305">
         <v>1.41</v>
@@ -64590,7 +64596,7 @@
         <v>288</v>
       </c>
       <c r="P306" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q306">
         <v>4.33</v>
@@ -64796,7 +64802,7 @@
         <v>121</v>
       </c>
       <c r="P307" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q307">
         <v>3.5</v>
@@ -65002,7 +65008,7 @@
         <v>269</v>
       </c>
       <c r="P308" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q308">
         <v>4.75</v>
@@ -65414,7 +65420,7 @@
         <v>273</v>
       </c>
       <c r="P310" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65620,7 +65626,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q311">
         <v>1.8</v>
@@ -66444,7 +66450,7 @@
         <v>292</v>
       </c>
       <c r="P315" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q315">
         <v>1.8</v>
@@ -66522,7 +66528,7 @@
         <v>0.27</v>
       </c>
       <c r="AP315">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ315">
         <v>0.39</v>
@@ -66650,7 +66656,7 @@
         <v>293</v>
       </c>
       <c r="P316" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q316">
         <v>4.75</v>
@@ -66856,7 +66862,7 @@
         <v>294</v>
       </c>
       <c r="P317" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q317">
         <v>1.57</v>
@@ -66937,7 +66943,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ317">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR317">
         <v>1.8</v>
@@ -67474,7 +67480,7 @@
         <v>90</v>
       </c>
       <c r="P320" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q320">
         <v>3.75</v>
@@ -67680,7 +67686,7 @@
         <v>297</v>
       </c>
       <c r="P321" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q321">
         <v>5.5</v>
@@ -68298,7 +68304,7 @@
         <v>90</v>
       </c>
       <c r="P324" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q324">
         <v>3</v>
@@ -68710,7 +68716,7 @@
         <v>90</v>
       </c>
       <c r="P326" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q326">
         <v>5</v>
@@ -68916,7 +68922,7 @@
         <v>291</v>
       </c>
       <c r="P327" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q327">
         <v>4.5</v>
@@ -69122,7 +69128,7 @@
         <v>299</v>
       </c>
       <c r="P328" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q328">
         <v>3.2</v>
@@ -69203,7 +69209,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ328">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR328">
         <v>1.31</v>
@@ -69328,7 +69334,7 @@
         <v>101</v>
       </c>
       <c r="P329" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q329">
         <v>4</v>
@@ -69406,7 +69412,7 @@
         <v>2.73</v>
       </c>
       <c r="AP329">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ329">
         <v>2.61</v>
@@ -69534,7 +69540,7 @@
         <v>300</v>
       </c>
       <c r="P330" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q330">
         <v>4</v>
@@ -71182,7 +71188,7 @@
         <v>304</v>
       </c>
       <c r="P338" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q338">
         <v>2.5</v>
@@ -71260,7 +71266,7 @@
         <v>1.38</v>
       </c>
       <c r="AP338">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ338">
         <v>1.35</v>
@@ -71675,7 +71681,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ340">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR340">
         <v>1.32</v>
@@ -71881,7 +71887,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ341">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR341">
         <v>1.32</v>
@@ -72006,7 +72012,7 @@
         <v>307</v>
       </c>
       <c r="P342" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q342">
         <v>4.75</v>
@@ -72418,7 +72424,7 @@
         <v>309</v>
       </c>
       <c r="P344" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q344">
         <v>2.9</v>
@@ -73036,7 +73042,7 @@
         <v>311</v>
       </c>
       <c r="P347" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q347">
         <v>2.11</v>
@@ -73114,7 +73120,7 @@
         <v>1.06</v>
       </c>
       <c r="AP347">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ347">
         <v>1.06</v>
@@ -73448,7 +73454,7 @@
         <v>255</v>
       </c>
       <c r="P349" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q349">
         <v>7</v>
@@ -73860,7 +73866,7 @@
         <v>90</v>
       </c>
       <c r="P351" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q351">
         <v>5</v>
@@ -74016,6 +74022,418 @@
         <v>2.95</v>
       </c>
       <c r="BP351">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:68">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>6745746</v>
+      </c>
+      <c r="C352" t="s">
+        <v>68</v>
+      </c>
+      <c r="D352" t="s">
+        <v>69</v>
+      </c>
+      <c r="E352" s="2">
+        <v>45423.54166666666</v>
+      </c>
+      <c r="F352">
+        <v>36</v>
+      </c>
+      <c r="G352" t="s">
+        <v>86</v>
+      </c>
+      <c r="H352" t="s">
+        <v>79</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>2</v>
+      </c>
+      <c r="K352">
+        <v>2</v>
+      </c>
+      <c r="L352">
+        <v>0</v>
+      </c>
+      <c r="M352">
+        <v>2</v>
+      </c>
+      <c r="N352">
+        <v>2</v>
+      </c>
+      <c r="O352" t="s">
+        <v>90</v>
+      </c>
+      <c r="P352" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q352">
+        <v>2.75</v>
+      </c>
+      <c r="R352">
+        <v>2.2</v>
+      </c>
+      <c r="S352">
+        <v>4</v>
+      </c>
+      <c r="T352">
+        <v>1.4</v>
+      </c>
+      <c r="U352">
+        <v>2.75</v>
+      </c>
+      <c r="V352">
+        <v>2.75</v>
+      </c>
+      <c r="W352">
+        <v>1.4</v>
+      </c>
+      <c r="X352">
+        <v>8</v>
+      </c>
+      <c r="Y352">
+        <v>1.08</v>
+      </c>
+      <c r="Z352">
+        <v>2.01</v>
+      </c>
+      <c r="AA352">
+        <v>3.55</v>
+      </c>
+      <c r="AB352">
+        <v>3.2</v>
+      </c>
+      <c r="AC352">
+        <v>1.07</v>
+      </c>
+      <c r="AD352">
+        <v>12.5</v>
+      </c>
+      <c r="AE352">
+        <v>1.3</v>
+      </c>
+      <c r="AF352">
+        <v>3.6</v>
+      </c>
+      <c r="AG352">
+        <v>1.83</v>
+      </c>
+      <c r="AH352">
+        <v>1.84</v>
+      </c>
+      <c r="AI352">
+        <v>1.75</v>
+      </c>
+      <c r="AJ352">
+        <v>2</v>
+      </c>
+      <c r="AK352">
+        <v>1.3</v>
+      </c>
+      <c r="AL352">
+        <v>1.25</v>
+      </c>
+      <c r="AM352">
+        <v>1.8</v>
+      </c>
+      <c r="AN352">
+        <v>1.41</v>
+      </c>
+      <c r="AO352">
+        <v>1.41</v>
+      </c>
+      <c r="AP352">
+        <v>1.33</v>
+      </c>
+      <c r="AQ352">
+        <v>1.5</v>
+      </c>
+      <c r="AR352">
+        <v>2.03</v>
+      </c>
+      <c r="AS352">
+        <v>1.26</v>
+      </c>
+      <c r="AT352">
+        <v>3.29</v>
+      </c>
+      <c r="AU352">
+        <v>7</v>
+      </c>
+      <c r="AV352">
+        <v>5</v>
+      </c>
+      <c r="AW352">
+        <v>7</v>
+      </c>
+      <c r="AX352">
+        <v>5</v>
+      </c>
+      <c r="AY352">
+        <v>14</v>
+      </c>
+      <c r="AZ352">
+        <v>10</v>
+      </c>
+      <c r="BA352">
+        <v>9</v>
+      </c>
+      <c r="BB352">
+        <v>3</v>
+      </c>
+      <c r="BC352">
+        <v>12</v>
+      </c>
+      <c r="BD352">
+        <v>1.67</v>
+      </c>
+      <c r="BE352">
+        <v>7.5</v>
+      </c>
+      <c r="BF352">
+        <v>2.6</v>
+      </c>
+      <c r="BG352">
+        <v>1.33</v>
+      </c>
+      <c r="BH352">
+        <v>2.85</v>
+      </c>
+      <c r="BI352">
+        <v>1.61</v>
+      </c>
+      <c r="BJ352">
+        <v>2.12</v>
+      </c>
+      <c r="BK352">
+        <v>2</v>
+      </c>
+      <c r="BL352">
+        <v>1.68</v>
+      </c>
+      <c r="BM352">
+        <v>2.55</v>
+      </c>
+      <c r="BN352">
+        <v>1.4</v>
+      </c>
+      <c r="BO352">
+        <v>3.5</v>
+      </c>
+      <c r="BP352">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="353" spans="1:68">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>6745745</v>
+      </c>
+      <c r="C353" t="s">
+        <v>68</v>
+      </c>
+      <c r="D353" t="s">
+        <v>69</v>
+      </c>
+      <c r="E353" s="2">
+        <v>45423.65625</v>
+      </c>
+      <c r="F353">
+        <v>36</v>
+      </c>
+      <c r="G353" t="s">
+        <v>81</v>
+      </c>
+      <c r="H353" t="s">
+        <v>88</v>
+      </c>
+      <c r="I353">
+        <v>1</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353">
+        <v>1</v>
+      </c>
+      <c r="L353">
+        <v>5</v>
+      </c>
+      <c r="M353">
+        <v>1</v>
+      </c>
+      <c r="N353">
+        <v>6</v>
+      </c>
+      <c r="O353" t="s">
+        <v>313</v>
+      </c>
+      <c r="P353" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q353">
+        <v>1.91</v>
+      </c>
+      <c r="R353">
+        <v>2.5</v>
+      </c>
+      <c r="S353">
+        <v>6</v>
+      </c>
+      <c r="T353">
+        <v>1.29</v>
+      </c>
+      <c r="U353">
+        <v>3.5</v>
+      </c>
+      <c r="V353">
+        <v>2.25</v>
+      </c>
+      <c r="W353">
+        <v>1.57</v>
+      </c>
+      <c r="X353">
+        <v>5.5</v>
+      </c>
+      <c r="Y353">
+        <v>1.14</v>
+      </c>
+      <c r="Z353">
+        <v>1.37</v>
+      </c>
+      <c r="AA353">
+        <v>4.7</v>
+      </c>
+      <c r="AB353">
+        <v>6.8</v>
+      </c>
+      <c r="AC353">
+        <v>1.04</v>
+      </c>
+      <c r="AD353">
+        <v>18</v>
+      </c>
+      <c r="AE353">
+        <v>1.18</v>
+      </c>
+      <c r="AF353">
+        <v>5</v>
+      </c>
+      <c r="AG353">
+        <v>1.53</v>
+      </c>
+      <c r="AH353">
+        <v>2.3</v>
+      </c>
+      <c r="AI353">
+        <v>1.75</v>
+      </c>
+      <c r="AJ353">
+        <v>2</v>
+      </c>
+      <c r="AK353">
+        <v>1.09</v>
+      </c>
+      <c r="AL353">
+        <v>1.14</v>
+      </c>
+      <c r="AM353">
+        <v>2.95</v>
+      </c>
+      <c r="AN353">
+        <v>2.12</v>
+      </c>
+      <c r="AO353">
+        <v>0.47</v>
+      </c>
+      <c r="AP353">
+        <v>2.17</v>
+      </c>
+      <c r="AQ353">
+        <v>0.44</v>
+      </c>
+      <c r="AR353">
+        <v>1.57</v>
+      </c>
+      <c r="AS353">
+        <v>1.1</v>
+      </c>
+      <c r="AT353">
+        <v>2.67</v>
+      </c>
+      <c r="AU353">
+        <v>11</v>
+      </c>
+      <c r="AV353">
+        <v>8</v>
+      </c>
+      <c r="AW353">
+        <v>4</v>
+      </c>
+      <c r="AX353">
+        <v>1</v>
+      </c>
+      <c r="AY353">
+        <v>15</v>
+      </c>
+      <c r="AZ353">
+        <v>9</v>
+      </c>
+      <c r="BA353">
+        <v>6</v>
+      </c>
+      <c r="BB353">
+        <v>3</v>
+      </c>
+      <c r="BC353">
+        <v>9</v>
+      </c>
+      <c r="BD353">
+        <v>1.35</v>
+      </c>
+      <c r="BE353">
+        <v>9</v>
+      </c>
+      <c r="BF353">
+        <v>4</v>
+      </c>
+      <c r="BG353">
+        <v>1.25</v>
+      </c>
+      <c r="BH353">
+        <v>3.25</v>
+      </c>
+      <c r="BI353">
+        <v>1.47</v>
+      </c>
+      <c r="BJ353">
+        <v>2.4</v>
+      </c>
+      <c r="BK353">
+        <v>1.81</v>
+      </c>
+      <c r="BL353">
+        <v>1.88</v>
+      </c>
+      <c r="BM353">
+        <v>2.25</v>
+      </c>
+      <c r="BN353">
+        <v>1.53</v>
+      </c>
+      <c r="BO353">
+        <v>2.95</v>
+      </c>
+      <c r="BP353">
         <v>1.3</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="451">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -958,6 +958,18 @@
     <t>['35', '59', '74', '83', '86']</t>
   </si>
   <si>
+    <t>['45+3', '89']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['56', '63']</t>
+  </si>
+  <si>
+    <t>['18', '20']</t>
+  </si>
+  <si>
     <t>['24', '42', '79']</t>
   </si>
   <si>
@@ -1115,9 +1127,6 @@
   </si>
   <si>
     <t>['12', '90+4']</t>
-  </si>
-  <si>
-    <t>['67']</t>
   </si>
   <si>
     <t>['82']</t>
@@ -1352,6 +1361,12 @@
   </si>
   <si>
     <t>['9', '12']</t>
+  </si>
+  <si>
+    <t>['77', '83']</t>
+  </si>
+  <si>
+    <t>['36', '85']</t>
   </si>
 </sst>
 </file>
@@ -1713,7 +1728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP353"/>
+  <dimension ref="A1:BP359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2178,7 +2193,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q3">
         <v>7.5</v>
@@ -2384,7 +2399,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2462,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>1.12</v>
@@ -2796,7 +2811,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2877,7 +2892,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ6">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3002,7 +3017,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -3286,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
         <v>1.44</v>
@@ -3414,7 +3429,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3826,7 +3841,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q11">
         <v>4.33</v>
@@ -4113,7 +4128,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4444,7 +4459,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4525,7 +4540,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4728,10 +4743,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ15">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4856,7 +4871,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -5140,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ17">
         <v>1.5</v>
@@ -5268,7 +5283,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q18">
         <v>2.1</v>
@@ -5346,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ18">
         <v>1.06</v>
@@ -5555,7 +5570,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5761,7 +5776,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5886,7 +5901,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q21">
         <v>6.5</v>
@@ -6298,7 +6313,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6710,7 +6725,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6916,7 +6931,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -7200,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ27">
         <v>1.24</v>
@@ -7818,10 +7833,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AR30">
         <v>2.13</v>
@@ -7946,7 +7961,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -8230,7 +8245,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ32">
         <v>1.44</v>
@@ -8564,7 +8579,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8642,7 +8657,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34">
         <v>1.5</v>
@@ -8851,7 +8866,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR35">
         <v>0.99</v>
@@ -9182,7 +9197,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -9263,7 +9278,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ37">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR37">
         <v>0.92</v>
@@ -9388,7 +9403,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9675,7 +9690,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ39">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR39">
         <v>1.24</v>
@@ -9800,7 +9815,7 @@
         <v>90</v>
       </c>
       <c r="P40" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9881,7 +9896,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR40">
         <v>1.19</v>
@@ -10084,7 +10099,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ41">
         <v>1.5</v>
@@ -10496,7 +10511,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ43">
         <v>1.06</v>
@@ -10830,7 +10845,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -11036,7 +11051,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -11114,7 +11129,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ46">
         <v>1.24</v>
@@ -11526,7 +11541,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ48">
         <v>0.44</v>
@@ -11654,7 +11669,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -12066,7 +12081,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -12147,7 +12162,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ51">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR51">
         <v>1.2</v>
@@ -12350,7 +12365,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ52">
         <v>0.72</v>
@@ -12478,7 +12493,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12765,7 +12780,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ54">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AR54">
         <v>0.87</v>
@@ -12890,7 +12905,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12968,7 +12983,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ55">
         <v>1.39</v>
@@ -13177,7 +13192,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR56">
         <v>1.98</v>
@@ -13302,7 +13317,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q57">
         <v>1.8</v>
@@ -13383,7 +13398,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ57">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR57">
         <v>1.84</v>
@@ -13586,10 +13601,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR58">
         <v>1.39</v>
@@ -13714,7 +13729,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -14126,7 +14141,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14204,10 +14219,10 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR61">
         <v>0.9</v>
@@ -14332,7 +14347,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q62">
         <v>4.5</v>
@@ -14410,7 +14425,7 @@
         <v>1.67</v>
       </c>
       <c r="AP62">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ62">
         <v>1.5</v>
@@ -14744,7 +14759,7 @@
         <v>90</v>
       </c>
       <c r="P64" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -15031,7 +15046,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ65">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -15156,7 +15171,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15440,7 +15455,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ67">
         <v>1.67</v>
@@ -15774,7 +15789,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -16473,7 +16488,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR72">
         <v>1.06</v>
@@ -16598,7 +16613,7 @@
         <v>139</v>
       </c>
       <c r="P73" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16676,10 +16691,10 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ73">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR73">
         <v>1.66</v>
@@ -16804,7 +16819,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -17088,10 +17103,10 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR75">
         <v>1.62</v>
@@ -17294,7 +17309,7 @@
         <v>2.25</v>
       </c>
       <c r="AP76">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ76">
         <v>1.94</v>
@@ -17503,7 +17518,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ77">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AR77">
         <v>1.81</v>
@@ -17834,7 +17849,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17912,7 +17927,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ79">
         <v>1.39</v>
@@ -18040,7 +18055,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18121,7 +18136,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ80">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR80">
         <v>1.16</v>
@@ -18246,7 +18261,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18452,7 +18467,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18530,7 +18545,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ82">
         <v>1.5</v>
@@ -18658,7 +18673,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18864,7 +18879,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -19276,7 +19291,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19482,7 +19497,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q87">
         <v>2.3</v>
@@ -19766,7 +19781,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ88">
         <v>1.06</v>
@@ -19894,7 +19909,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -20306,7 +20321,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q91">
         <v>1.91</v>
@@ -20387,7 +20402,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ91">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR91">
         <v>1.44</v>
@@ -20590,10 +20605,10 @@
         <v>0.25</v>
       </c>
       <c r="AP92">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ92">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AR92">
         <v>0.86</v>
@@ -21002,10 +21017,10 @@
         <v>0.75</v>
       </c>
       <c r="AP94">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR94">
         <v>1.62</v>
@@ -21208,7 +21223,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ95">
         <v>0.61</v>
@@ -21336,7 +21351,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21542,7 +21557,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21623,7 +21638,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR97">
         <v>1.74</v>
@@ -21829,7 +21844,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ98">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR98">
         <v>1.68</v>
@@ -21954,7 +21969,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -22160,7 +22175,7 @@
         <v>90</v>
       </c>
       <c r="P100" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -22444,7 +22459,7 @@
         <v>2</v>
       </c>
       <c r="AP101">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ101">
         <v>1.12</v>
@@ -22778,7 +22793,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -22984,7 +22999,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -23062,7 +23077,7 @@
         <v>3</v>
       </c>
       <c r="AP104">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ104">
         <v>2.61</v>
@@ -23190,7 +23205,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -23271,7 +23286,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR105">
         <v>1.31</v>
@@ -23396,7 +23411,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -23474,7 +23489,7 @@
         <v>0.8</v>
       </c>
       <c r="AP106">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ106">
         <v>1.24</v>
@@ -24301,7 +24316,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ110">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR110">
         <v>1.23</v>
@@ -24507,7 +24522,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ111">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR111">
         <v>1.18</v>
@@ -24632,7 +24647,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q112">
         <v>2.2</v>
@@ -24713,7 +24728,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ112">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AR112">
         <v>1.5</v>
@@ -24916,7 +24931,7 @@
         <v>0.67</v>
       </c>
       <c r="AP113">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113">
         <v>0.61</v>
@@ -25044,7 +25059,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -25122,7 +25137,7 @@
         <v>2.17</v>
       </c>
       <c r="AP114">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ114">
         <v>1.94</v>
@@ -25328,7 +25343,7 @@
         <v>0.4</v>
       </c>
       <c r="AP115">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ115">
         <v>0.44</v>
@@ -25537,7 +25552,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR116">
         <v>1.63</v>
@@ -25743,7 +25758,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ117">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR117">
         <v>1.87</v>
@@ -26074,7 +26089,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -26358,10 +26373,10 @@
         <v>0.8</v>
       </c>
       <c r="AP120">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ120">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR120">
         <v>1.2</v>
@@ -26898,7 +26913,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -26976,7 +26991,7 @@
         <v>2.33</v>
       </c>
       <c r="AP123">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ123">
         <v>1.5</v>
@@ -27516,7 +27531,7 @@
         <v>178</v>
       </c>
       <c r="P126" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q126">
         <v>3.2</v>
@@ -27597,7 +27612,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ126">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR126">
         <v>1.13</v>
@@ -27722,7 +27737,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q127">
         <v>3.2</v>
@@ -28009,7 +28024,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ128">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR128">
         <v>1.45</v>
@@ -28134,7 +28149,7 @@
         <v>157</v>
       </c>
       <c r="P129" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -28212,7 +28227,7 @@
         <v>3</v>
       </c>
       <c r="AP129">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ129">
         <v>2.61</v>
@@ -28340,7 +28355,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28418,7 +28433,7 @@
         <v>0.6</v>
       </c>
       <c r="AP130">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ130">
         <v>0.72</v>
@@ -28627,7 +28642,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR131">
         <v>1.45</v>
@@ -28752,7 +28767,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q132">
         <v>4.33</v>
@@ -28958,7 +28973,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>367</v>
+        <v>315</v>
       </c>
       <c r="Q133">
         <v>2.63</v>
@@ -29036,10 +29051,10 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ133">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR133">
         <v>1.02</v>
@@ -29242,7 +29257,7 @@
         <v>0.33</v>
       </c>
       <c r="AP134">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ134">
         <v>0.44</v>
@@ -29370,7 +29385,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q135">
         <v>1.91</v>
@@ -29576,7 +29591,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29654,7 +29669,7 @@
         <v>0.83</v>
       </c>
       <c r="AP136">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ136">
         <v>1.5</v>
@@ -29863,7 +29878,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ137">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AR137">
         <v>1.63</v>
@@ -29988,7 +30003,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q138">
         <v>2.38</v>
@@ -30194,7 +30209,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -30275,7 +30290,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ139">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR139">
         <v>1.66</v>
@@ -30400,7 +30415,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q140">
         <v>3.4</v>
@@ -30890,7 +30905,7 @@
         <v>2.43</v>
       </c>
       <c r="AP142">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ142">
         <v>1.5</v>
@@ -31096,7 +31111,7 @@
         <v>0.86</v>
       </c>
       <c r="AP143">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ143">
         <v>1.44</v>
@@ -31224,7 +31239,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31302,7 +31317,7 @@
         <v>2</v>
       </c>
       <c r="AP144">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ144">
         <v>1.94</v>
@@ -31511,7 +31526,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ145">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR145">
         <v>1.71</v>
@@ -31717,7 +31732,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ146">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR146">
         <v>1.3</v>
@@ -32048,7 +32063,7 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32254,7 +32269,7 @@
         <v>195</v>
       </c>
       <c r="P149" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -32747,7 +32762,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ151">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR151">
         <v>1.41</v>
@@ -32950,7 +32965,7 @@
         <v>2.29</v>
       </c>
       <c r="AP152">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ152">
         <v>1.67</v>
@@ -33078,7 +33093,7 @@
         <v>198</v>
       </c>
       <c r="P153" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33156,7 +33171,7 @@
         <v>0.29</v>
       </c>
       <c r="AP153">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ153">
         <v>0.39</v>
@@ -33571,7 +33586,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ155">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR155">
         <v>1.35</v>
@@ -33902,7 +33917,7 @@
         <v>201</v>
       </c>
       <c r="P157" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33983,7 +33998,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ157">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR157">
         <v>1.45</v>
@@ -34395,7 +34410,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ159">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR159">
         <v>1.41</v>
@@ -34520,7 +34535,7 @@
         <v>90</v>
       </c>
       <c r="P160" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -34598,7 +34613,7 @@
         <v>2.71</v>
       </c>
       <c r="AP160">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ160">
         <v>2.61</v>
@@ -34804,10 +34819,10 @@
         <v>0.29</v>
       </c>
       <c r="AP161">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ161">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AR161">
         <v>1.6</v>
@@ -34932,7 +34947,7 @@
         <v>90</v>
       </c>
       <c r="P162" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -35138,7 +35153,7 @@
         <v>205</v>
       </c>
       <c r="P163" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35550,7 +35565,7 @@
         <v>206</v>
       </c>
       <c r="P165" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q165">
         <v>6.5</v>
@@ -35756,7 +35771,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q166">
         <v>5.5</v>
@@ -36249,7 +36264,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ168">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR168">
         <v>1.34</v>
@@ -36452,7 +36467,7 @@
         <v>0.25</v>
       </c>
       <c r="AP169">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ169">
         <v>0.44</v>
@@ -37073,7 +37088,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ172">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR172">
         <v>1.63</v>
@@ -37482,7 +37497,7 @@
         <v>2.75</v>
       </c>
       <c r="AP174">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ174">
         <v>2.61</v>
@@ -37688,7 +37703,7 @@
         <v>0.25</v>
       </c>
       <c r="AP175">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ175">
         <v>0.39</v>
@@ -37894,7 +37909,7 @@
         <v>0.63</v>
       </c>
       <c r="AP176">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ176">
         <v>0.72</v>
@@ -38103,7 +38118,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ177">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR177">
         <v>1.48</v>
@@ -38512,10 +38527,10 @@
         <v>0.25</v>
       </c>
       <c r="AP179">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ179">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AR179">
         <v>1.32</v>
@@ -38721,7 +38736,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ180">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR180">
         <v>1.38</v>
@@ -38924,10 +38939,10 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ181">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR181">
         <v>1.52</v>
@@ -39464,7 +39479,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q184">
         <v>3.25</v>
@@ -39670,7 +39685,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q185">
         <v>2.88</v>
@@ -39748,7 +39763,7 @@
         <v>0.22</v>
       </c>
       <c r="AP185">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ185">
         <v>0.44</v>
@@ -40082,7 +40097,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -40494,7 +40509,7 @@
         <v>214</v>
       </c>
       <c r="P189" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -40700,7 +40715,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q190">
         <v>7</v>
@@ -41190,10 +41205,10 @@
         <v>0.89</v>
       </c>
       <c r="AP192">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ192">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR192">
         <v>1.16</v>
@@ -41399,7 +41414,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ193">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AR193">
         <v>1.94</v>
@@ -41602,10 +41617,10 @@
         <v>0.89</v>
       </c>
       <c r="AP194">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ194">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR194">
         <v>1.27</v>
@@ -41730,7 +41745,7 @@
         <v>224</v>
       </c>
       <c r="P195" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q195">
         <v>6.5</v>
@@ -42014,7 +42029,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP196">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ196">
         <v>0.72</v>
@@ -42348,7 +42363,7 @@
         <v>226</v>
       </c>
       <c r="P198" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q198">
         <v>2.3</v>
@@ -42429,7 +42444,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ198">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR198">
         <v>1.58</v>
@@ -42635,7 +42650,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ199">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR199">
         <v>1.39</v>
@@ -42838,7 +42853,7 @@
         <v>0.22</v>
       </c>
       <c r="AP200">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ200">
         <v>0.39</v>
@@ -43044,10 +43059,10 @@
         <v>0.89</v>
       </c>
       <c r="AP201">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ201">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR201">
         <v>1.51</v>
@@ -43172,7 +43187,7 @@
         <v>230</v>
       </c>
       <c r="P202" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q202">
         <v>2.05</v>
@@ -43378,7 +43393,7 @@
         <v>231</v>
       </c>
       <c r="P203" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q203">
         <v>4.5</v>
@@ -43996,7 +44011,7 @@
         <v>234</v>
       </c>
       <c r="P206" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q206">
         <v>4.33</v>
@@ -44202,7 +44217,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -44280,7 +44295,7 @@
         <v>2.3</v>
       </c>
       <c r="AP207">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ207">
         <v>1.67</v>
@@ -44408,7 +44423,7 @@
         <v>235</v>
       </c>
       <c r="P208" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q208">
         <v>4.33</v>
@@ -44489,7 +44504,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ208">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR208">
         <v>1.41</v>
@@ -44692,10 +44707,10 @@
         <v>0.9</v>
       </c>
       <c r="AP209">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ209">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR209">
         <v>1.75</v>
@@ -44898,10 +44913,10 @@
         <v>0.8</v>
       </c>
       <c r="AP210">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ210">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR210">
         <v>1.49</v>
@@ -45026,7 +45041,7 @@
         <v>238</v>
       </c>
       <c r="P211" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45310,7 +45325,7 @@
         <v>0.5</v>
       </c>
       <c r="AP212">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ212">
         <v>0.72</v>
@@ -45519,7 +45534,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ213">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR213">
         <v>1.35</v>
@@ -45722,7 +45737,7 @@
         <v>0.2</v>
       </c>
       <c r="AP214">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ214">
         <v>0.39</v>
@@ -45928,7 +45943,7 @@
         <v>1.7</v>
       </c>
       <c r="AP215">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ215">
         <v>1.5</v>
@@ -46262,7 +46277,7 @@
         <v>132</v>
       </c>
       <c r="P217" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q217">
         <v>5.5</v>
@@ -46343,7 +46358,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ217">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR217">
         <v>1.25</v>
@@ -46468,7 +46483,7 @@
         <v>241</v>
       </c>
       <c r="P218" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -46546,7 +46561,7 @@
         <v>1.4</v>
       </c>
       <c r="AP218">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ218">
         <v>1.12</v>
@@ -47086,7 +47101,7 @@
         <v>242</v>
       </c>
       <c r="P221" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q221">
         <v>4.75</v>
@@ -47292,7 +47307,7 @@
         <v>243</v>
       </c>
       <c r="P222" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q222">
         <v>2.38</v>
@@ -47373,7 +47388,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ222">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR222">
         <v>1.36</v>
@@ -47579,7 +47594,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ223">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AR223">
         <v>1.36</v>
@@ -47910,7 +47925,7 @@
         <v>245</v>
       </c>
       <c r="P225" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q225">
         <v>2.75</v>
@@ -47988,7 +48003,7 @@
         <v>1.3</v>
       </c>
       <c r="AP225">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ225">
         <v>1.44</v>
@@ -48528,7 +48543,7 @@
         <v>224</v>
       </c>
       <c r="P228" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q228">
         <v>3.2</v>
@@ -48609,7 +48624,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ228">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR228">
         <v>1.28</v>
@@ -48734,7 +48749,7 @@
         <v>191</v>
       </c>
       <c r="P229" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q229">
         <v>4.33</v>
@@ -48940,7 +48955,7 @@
         <v>247</v>
       </c>
       <c r="P230" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -49227,7 +49242,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ231">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR231">
         <v>1.45</v>
@@ -49352,7 +49367,7 @@
         <v>248</v>
       </c>
       <c r="P232" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q232">
         <v>2.05</v>
@@ -49970,7 +49985,7 @@
         <v>191</v>
       </c>
       <c r="P235" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50048,7 +50063,7 @@
         <v>1.1</v>
       </c>
       <c r="AP235">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ235">
         <v>1.39</v>
@@ -50460,10 +50475,10 @@
         <v>0.82</v>
       </c>
       <c r="AP237">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ237">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR237">
         <v>1.44</v>
@@ -51081,7 +51096,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ240">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AR240">
         <v>1.78</v>
@@ -51412,7 +51427,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q242">
         <v>6</v>
@@ -51490,7 +51505,7 @@
         <v>2.17</v>
       </c>
       <c r="AP242">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ242">
         <v>1.67</v>
@@ -51696,10 +51711,10 @@
         <v>0.67</v>
       </c>
       <c r="AP243">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ243">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR243">
         <v>1.79</v>
@@ -51824,7 +51839,7 @@
         <v>255</v>
       </c>
       <c r="P244" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q244">
         <v>3</v>
@@ -51902,7 +51917,7 @@
         <v>0.91</v>
       </c>
       <c r="AP244">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ244">
         <v>1.5</v>
@@ -52442,7 +52457,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q247">
         <v>4.33</v>
@@ -52523,7 +52538,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ247">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR247">
         <v>1.32</v>
@@ -52648,7 +52663,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q248">
         <v>4.5</v>
@@ -52854,7 +52869,7 @@
         <v>90</v>
       </c>
       <c r="P249" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q249">
         <v>3.4</v>
@@ -53266,7 +53281,7 @@
         <v>260</v>
       </c>
       <c r="P251" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q251">
         <v>2.75</v>
@@ -53347,7 +53362,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ251">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR251">
         <v>1.44</v>
@@ -53472,7 +53487,7 @@
         <v>90</v>
       </c>
       <c r="P252" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q252">
         <v>3.6</v>
@@ -53756,10 +53771,10 @@
         <v>1</v>
       </c>
       <c r="AP253">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ253">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR253">
         <v>1.3</v>
@@ -53884,7 +53899,7 @@
         <v>262</v>
       </c>
       <c r="P254" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q254">
         <v>1.8</v>
@@ -53962,7 +53977,7 @@
         <v>0.25</v>
       </c>
       <c r="AP254">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ254">
         <v>0.39</v>
@@ -54296,7 +54311,7 @@
         <v>90</v>
       </c>
       <c r="P256" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -54374,7 +54389,7 @@
         <v>2.67</v>
       </c>
       <c r="AP256">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ256">
         <v>2.61</v>
@@ -54708,7 +54723,7 @@
         <v>264</v>
       </c>
       <c r="P258" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q258">
         <v>2.63</v>
@@ -54789,7 +54804,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ258">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR258">
         <v>1.36</v>
@@ -54914,7 +54929,7 @@
         <v>265</v>
       </c>
       <c r="P259" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -55120,7 +55135,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -55610,7 +55625,7 @@
         <v>1.85</v>
       </c>
       <c r="AP262">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ262">
         <v>1.94</v>
@@ -55819,7 +55834,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ263">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AR263">
         <v>1.43</v>
@@ -55944,7 +55959,7 @@
         <v>145</v>
       </c>
       <c r="P264" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56025,7 +56040,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ264">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR264">
         <v>1.28</v>
@@ -56434,10 +56449,10 @@
         <v>0.62</v>
       </c>
       <c r="AP266">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ266">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR266">
         <v>1.36</v>
@@ -56974,7 +56989,7 @@
         <v>205</v>
       </c>
       <c r="P269" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q269">
         <v>2.6</v>
@@ -57052,7 +57067,7 @@
         <v>1.08</v>
       </c>
       <c r="AP269">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ269">
         <v>1.5</v>
@@ -57673,7 +57688,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ272">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR272">
         <v>2</v>
@@ -58004,7 +58019,7 @@
         <v>271</v>
       </c>
       <c r="P274" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q274">
         <v>2.5</v>
@@ -58085,7 +58100,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ274">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AR274">
         <v>1.47</v>
@@ -58416,7 +58431,7 @@
         <v>272</v>
       </c>
       <c r="P276" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q276">
         <v>3</v>
@@ -58494,7 +58509,7 @@
         <v>1.23</v>
       </c>
       <c r="AP276">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ276">
         <v>1.24</v>
@@ -58700,7 +58715,7 @@
         <v>0.43</v>
       </c>
       <c r="AP277">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ277">
         <v>0.61</v>
@@ -58909,7 +58924,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ278">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR278">
         <v>1.47</v>
@@ -59034,7 +59049,7 @@
         <v>169</v>
       </c>
       <c r="P279" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q279">
         <v>2.88</v>
@@ -59112,7 +59127,7 @@
         <v>1.15</v>
       </c>
       <c r="AP279">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ279">
         <v>1.39</v>
@@ -59240,7 +59255,7 @@
         <v>274</v>
       </c>
       <c r="P280" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59321,7 +59336,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ280">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR280">
         <v>1.62</v>
@@ -59446,7 +59461,7 @@
         <v>152</v>
       </c>
       <c r="P281" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Q281">
         <v>2.6</v>
@@ -59524,10 +59539,10 @@
         <v>0.92</v>
       </c>
       <c r="AP281">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ281">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR281">
         <v>1.2</v>
@@ -60064,7 +60079,7 @@
         <v>90</v>
       </c>
       <c r="P284" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q284">
         <v>3.6</v>
@@ -60145,7 +60160,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ284">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR284">
         <v>1.45</v>
@@ -60476,7 +60491,7 @@
         <v>276</v>
       </c>
       <c r="P286" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Q286">
         <v>3.75</v>
@@ -60760,7 +60775,7 @@
         <v>0.93</v>
       </c>
       <c r="AP287">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ287">
         <v>1.06</v>
@@ -60888,7 +60903,7 @@
         <v>277</v>
       </c>
       <c r="P288" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q288">
         <v>5</v>
@@ -60966,7 +60981,7 @@
         <v>1.93</v>
       </c>
       <c r="AP288">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ288">
         <v>1.94</v>
@@ -61175,7 +61190,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ289">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR289">
         <v>1.32</v>
@@ -61506,7 +61521,7 @@
         <v>90</v>
       </c>
       <c r="P291" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="Q291">
         <v>2.63</v>
@@ -61712,7 +61727,7 @@
         <v>279</v>
       </c>
       <c r="P292" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q292">
         <v>2.6</v>
@@ -61790,7 +61805,7 @@
         <v>0.21</v>
       </c>
       <c r="AP292">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ292">
         <v>0.39</v>
@@ -62202,7 +62217,7 @@
         <v>1.93</v>
       </c>
       <c r="AP294">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ294">
         <v>1.67</v>
@@ -62330,7 +62345,7 @@
         <v>237</v>
       </c>
       <c r="P295" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="Q295">
         <v>3.4</v>
@@ -62617,7 +62632,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ296">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AR296">
         <v>1.41</v>
@@ -63029,7 +63044,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ298">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR298">
         <v>1.39</v>
@@ -63232,10 +63247,10 @@
         <v>1.29</v>
       </c>
       <c r="AP299">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ299">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR299">
         <v>1.5</v>
@@ -63441,7 +63456,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ300">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR300">
         <v>1.8</v>
@@ -63566,7 +63581,7 @@
         <v>285</v>
       </c>
       <c r="P301" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q301">
         <v>3.5</v>
@@ -63647,7 +63662,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ301">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR301">
         <v>1.3</v>
@@ -64184,7 +64199,7 @@
         <v>287</v>
       </c>
       <c r="P304" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="Q304">
         <v>4.33</v>
@@ -64265,7 +64280,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ304">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR304">
         <v>1.23</v>
@@ -64596,7 +64611,7 @@
         <v>288</v>
       </c>
       <c r="P306" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="Q306">
         <v>4.33</v>
@@ -64802,7 +64817,7 @@
         <v>121</v>
       </c>
       <c r="P307" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="Q307">
         <v>3.5</v>
@@ -64880,7 +64895,7 @@
         <v>0.93</v>
       </c>
       <c r="AP307">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ307">
         <v>1.06</v>
@@ -65008,7 +65023,7 @@
         <v>269</v>
       </c>
       <c r="P308" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q308">
         <v>4.75</v>
@@ -65292,7 +65307,7 @@
         <v>1.14</v>
       </c>
       <c r="AP309">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ309">
         <v>1.12</v>
@@ -65420,7 +65435,7 @@
         <v>273</v>
       </c>
       <c r="P310" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65626,7 +65641,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q311">
         <v>1.8</v>
@@ -65704,10 +65719,10 @@
         <v>0.47</v>
       </c>
       <c r="AP311">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ311">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AR311">
         <v>1.29</v>
@@ -65910,10 +65925,10 @@
         <v>1</v>
       </c>
       <c r="AP312">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ312">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR312">
         <v>1.53</v>
@@ -66450,7 +66465,7 @@
         <v>292</v>
       </c>
       <c r="P315" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q315">
         <v>1.8</v>
@@ -66656,7 +66671,7 @@
         <v>293</v>
       </c>
       <c r="P316" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="Q316">
         <v>4.75</v>
@@ -66862,7 +66877,7 @@
         <v>294</v>
       </c>
       <c r="P317" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Q317">
         <v>1.57</v>
@@ -67352,7 +67367,7 @@
         <v>0.63</v>
       </c>
       <c r="AP319">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ319">
         <v>0.61</v>
@@ -67480,7 +67495,7 @@
         <v>90</v>
       </c>
       <c r="P320" t="s">
-        <v>367</v>
+        <v>315</v>
       </c>
       <c r="Q320">
         <v>3.75</v>
@@ -67558,7 +67573,7 @@
         <v>1.38</v>
       </c>
       <c r="AP320">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ320">
         <v>1.44</v>
@@ -67686,7 +67701,7 @@
         <v>297</v>
       </c>
       <c r="P321" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q321">
         <v>5.5</v>
@@ -68176,10 +68191,10 @@
         <v>1.07</v>
       </c>
       <c r="AP323">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ323">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR323">
         <v>1.35</v>
@@ -68304,7 +68319,7 @@
         <v>90</v>
       </c>
       <c r="P324" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q324">
         <v>3</v>
@@ -68716,7 +68731,7 @@
         <v>90</v>
       </c>
       <c r="P326" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="Q326">
         <v>5</v>
@@ -68922,7 +68937,7 @@
         <v>291</v>
       </c>
       <c r="P327" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="Q327">
         <v>4.5</v>
@@ -69128,7 +69143,7 @@
         <v>299</v>
       </c>
       <c r="P328" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="Q328">
         <v>3.2</v>
@@ -69334,7 +69349,7 @@
         <v>101</v>
       </c>
       <c r="P329" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="Q329">
         <v>4</v>
@@ -69540,7 +69555,7 @@
         <v>300</v>
       </c>
       <c r="P330" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="Q330">
         <v>4</v>
@@ -69621,7 +69636,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ330">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR330">
         <v>1.35</v>
@@ -69827,7 +69842,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ331">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AR331">
         <v>1.4</v>
@@ -70030,7 +70045,7 @@
         <v>1.25</v>
       </c>
       <c r="AP332">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ332">
         <v>1.24</v>
@@ -70236,7 +70251,7 @@
         <v>2</v>
       </c>
       <c r="AP333">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ333">
         <v>1.94</v>
@@ -70442,7 +70457,7 @@
         <v>0.65</v>
       </c>
       <c r="AP334">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ334">
         <v>0.61</v>
@@ -70651,7 +70666,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ335">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR335">
         <v>1.81</v>
@@ -70857,7 +70872,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ336">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR336">
         <v>1.44</v>
@@ -71060,10 +71075,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP337">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ337">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR337">
         <v>1.84</v>
@@ -71188,7 +71203,7 @@
         <v>304</v>
       </c>
       <c r="P338" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="Q338">
         <v>2.5</v>
@@ -71269,7 +71284,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ338">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR338">
         <v>2</v>
@@ -71475,7 +71490,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ339">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR339">
         <v>1.59</v>
@@ -71678,7 +71693,7 @@
         <v>0.5</v>
       </c>
       <c r="AP340">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ340">
         <v>0.44</v>
@@ -72012,7 +72027,7 @@
         <v>307</v>
       </c>
       <c r="P342" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q342">
         <v>4.75</v>
@@ -72424,7 +72439,7 @@
         <v>309</v>
       </c>
       <c r="P344" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q344">
         <v>2.9</v>
@@ -72914,7 +72929,7 @@
         <v>1.19</v>
       </c>
       <c r="AP346">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ346">
         <v>1.12</v>
@@ -73042,7 +73057,7 @@
         <v>311</v>
       </c>
       <c r="P347" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q347">
         <v>2.11</v>
@@ -73454,7 +73469,7 @@
         <v>255</v>
       </c>
       <c r="P349" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="Q349">
         <v>7</v>
@@ -73866,7 +73881,7 @@
         <v>90</v>
       </c>
       <c r="P351" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="Q351">
         <v>5</v>
@@ -74072,7 +74087,7 @@
         <v>90</v>
       </c>
       <c r="P352" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Q352">
         <v>2.75</v>
@@ -74278,7 +74293,7 @@
         <v>313</v>
       </c>
       <c r="P353" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q353">
         <v>1.91</v>
@@ -74435,6 +74450,1242 @@
       </c>
       <c r="BP353">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:68">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>6745743</v>
+      </c>
+      <c r="C354" t="s">
+        <v>68</v>
+      </c>
+      <c r="D354" t="s">
+        <v>69</v>
+      </c>
+      <c r="E354" s="2">
+        <v>45424.3125</v>
+      </c>
+      <c r="F354">
+        <v>36</v>
+      </c>
+      <c r="G354" t="s">
+        <v>85</v>
+      </c>
+      <c r="H354" t="s">
+        <v>70</v>
+      </c>
+      <c r="I354">
+        <v>1</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>1</v>
+      </c>
+      <c r="L354">
+        <v>2</v>
+      </c>
+      <c r="M354">
+        <v>0</v>
+      </c>
+      <c r="N354">
+        <v>2</v>
+      </c>
+      <c r="O354" t="s">
+        <v>314</v>
+      </c>
+      <c r="P354" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q354">
+        <v>2.2</v>
+      </c>
+      <c r="R354">
+        <v>2.25</v>
+      </c>
+      <c r="S354">
+        <v>6</v>
+      </c>
+      <c r="T354">
+        <v>1.4</v>
+      </c>
+      <c r="U354">
+        <v>2.75</v>
+      </c>
+      <c r="V354">
+        <v>2.75</v>
+      </c>
+      <c r="W354">
+        <v>1.4</v>
+      </c>
+      <c r="X354">
+        <v>8</v>
+      </c>
+      <c r="Y354">
+        <v>1.08</v>
+      </c>
+      <c r="Z354">
+        <v>1.6</v>
+      </c>
+      <c r="AA354">
+        <v>3.9</v>
+      </c>
+      <c r="AB354">
+        <v>5.6</v>
+      </c>
+      <c r="AC354">
+        <v>1.05</v>
+      </c>
+      <c r="AD354">
+        <v>9.5</v>
+      </c>
+      <c r="AE354">
+        <v>1.28</v>
+      </c>
+      <c r="AF354">
+        <v>3.5</v>
+      </c>
+      <c r="AG354">
+        <v>1.91</v>
+      </c>
+      <c r="AH354">
+        <v>1.83</v>
+      </c>
+      <c r="AI354">
+        <v>1.95</v>
+      </c>
+      <c r="AJ354">
+        <v>1.8</v>
+      </c>
+      <c r="AK354">
+        <v>1.08</v>
+      </c>
+      <c r="AL354">
+        <v>1.27</v>
+      </c>
+      <c r="AM354">
+        <v>2.4</v>
+      </c>
+      <c r="AN354">
+        <v>1.76</v>
+      </c>
+      <c r="AO354">
+        <v>0.88</v>
+      </c>
+      <c r="AP354">
+        <v>1.83</v>
+      </c>
+      <c r="AQ354">
+        <v>0.83</v>
+      </c>
+      <c r="AR354">
+        <v>1.33</v>
+      </c>
+      <c r="AS354">
+        <v>1.07</v>
+      </c>
+      <c r="AT354">
+        <v>2.4</v>
+      </c>
+      <c r="AU354">
+        <v>6</v>
+      </c>
+      <c r="AV354">
+        <v>4</v>
+      </c>
+      <c r="AW354">
+        <v>1</v>
+      </c>
+      <c r="AX354">
+        <v>9</v>
+      </c>
+      <c r="AY354">
+        <v>7</v>
+      </c>
+      <c r="AZ354">
+        <v>13</v>
+      </c>
+      <c r="BA354">
+        <v>7</v>
+      </c>
+      <c r="BB354">
+        <v>7</v>
+      </c>
+      <c r="BC354">
+        <v>14</v>
+      </c>
+      <c r="BD354">
+        <v>1.36</v>
+      </c>
+      <c r="BE354">
+        <v>10.25</v>
+      </c>
+      <c r="BF354">
+        <v>3.92</v>
+      </c>
+      <c r="BG354">
+        <v>1.24</v>
+      </c>
+      <c r="BH354">
+        <v>3.48</v>
+      </c>
+      <c r="BI354">
+        <v>1.49</v>
+      </c>
+      <c r="BJ354">
+        <v>2.49</v>
+      </c>
+      <c r="BK354">
+        <v>1.89</v>
+      </c>
+      <c r="BL354">
+        <v>1.91</v>
+      </c>
+      <c r="BM354">
+        <v>2.38</v>
+      </c>
+      <c r="BN354">
+        <v>1.54</v>
+      </c>
+      <c r="BO354">
+        <v>3.04</v>
+      </c>
+      <c r="BP354">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="355" spans="1:68">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>6745741</v>
+      </c>
+      <c r="C355" t="s">
+        <v>68</v>
+      </c>
+      <c r="D355" t="s">
+        <v>69</v>
+      </c>
+      <c r="E355" s="2">
+        <v>45424.41666666666</v>
+      </c>
+      <c r="F355">
+        <v>36</v>
+      </c>
+      <c r="G355" t="s">
+        <v>82</v>
+      </c>
+      <c r="H355" t="s">
+        <v>78</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>0</v>
+      </c>
+      <c r="L355">
+        <v>1</v>
+      </c>
+      <c r="M355">
+        <v>2</v>
+      </c>
+      <c r="N355">
+        <v>3</v>
+      </c>
+      <c r="O355" t="s">
+        <v>315</v>
+      </c>
+      <c r="P355" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q355">
+        <v>3.6</v>
+      </c>
+      <c r="R355">
+        <v>1.95</v>
+      </c>
+      <c r="S355">
+        <v>3.4</v>
+      </c>
+      <c r="T355">
+        <v>1.53</v>
+      </c>
+      <c r="U355">
+        <v>2.38</v>
+      </c>
+      <c r="V355">
+        <v>3.5</v>
+      </c>
+      <c r="W355">
+        <v>1.29</v>
+      </c>
+      <c r="X355">
+        <v>11</v>
+      </c>
+      <c r="Y355">
+        <v>1.05</v>
+      </c>
+      <c r="Z355">
+        <v>3</v>
+      </c>
+      <c r="AA355">
+        <v>2.9</v>
+      </c>
+      <c r="AB355">
+        <v>2.55</v>
+      </c>
+      <c r="AC355">
+        <v>1.13</v>
+      </c>
+      <c r="AD355">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE355">
+        <v>1.48</v>
+      </c>
+      <c r="AF355">
+        <v>2.7</v>
+      </c>
+      <c r="AG355">
+        <v>2.37</v>
+      </c>
+      <c r="AH355">
+        <v>1.53</v>
+      </c>
+      <c r="AI355">
+        <v>1.8</v>
+      </c>
+      <c r="AJ355">
+        <v>1.95</v>
+      </c>
+      <c r="AK355">
+        <v>1.49</v>
+      </c>
+      <c r="AL355">
+        <v>1.4</v>
+      </c>
+      <c r="AM355">
+        <v>1.41</v>
+      </c>
+      <c r="AN355">
+        <v>1.35</v>
+      </c>
+      <c r="AO355">
+        <v>1</v>
+      </c>
+      <c r="AP355">
+        <v>1.28</v>
+      </c>
+      <c r="AQ355">
+        <v>1.11</v>
+      </c>
+      <c r="AR355">
+        <v>1.35</v>
+      </c>
+      <c r="AS355">
+        <v>1.2</v>
+      </c>
+      <c r="AT355">
+        <v>2.55</v>
+      </c>
+      <c r="AU355">
+        <v>6</v>
+      </c>
+      <c r="AV355">
+        <v>3</v>
+      </c>
+      <c r="AW355">
+        <v>4</v>
+      </c>
+      <c r="AX355">
+        <v>4</v>
+      </c>
+      <c r="AY355">
+        <v>10</v>
+      </c>
+      <c r="AZ355">
+        <v>7</v>
+      </c>
+      <c r="BA355">
+        <v>7</v>
+      </c>
+      <c r="BB355">
+        <v>4</v>
+      </c>
+      <c r="BC355">
+        <v>11</v>
+      </c>
+      <c r="BD355">
+        <v>2.31</v>
+      </c>
+      <c r="BE355">
+        <v>8.6</v>
+      </c>
+      <c r="BF355">
+        <v>1.86</v>
+      </c>
+      <c r="BG355">
+        <v>1.36</v>
+      </c>
+      <c r="BH355">
+        <v>2.92</v>
+      </c>
+      <c r="BI355">
+        <v>1.67</v>
+      </c>
+      <c r="BJ355">
+        <v>2.14</v>
+      </c>
+      <c r="BK355">
+        <v>2.1</v>
+      </c>
+      <c r="BL355">
+        <v>1.7</v>
+      </c>
+      <c r="BM355">
+        <v>2.79</v>
+      </c>
+      <c r="BN355">
+        <v>1.36</v>
+      </c>
+      <c r="BO355">
+        <v>3.95</v>
+      </c>
+      <c r="BP355">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="356" spans="1:68">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>6745740</v>
+      </c>
+      <c r="C356" t="s">
+        <v>68</v>
+      </c>
+      <c r="D356" t="s">
+        <v>69</v>
+      </c>
+      <c r="E356" s="2">
+        <v>45424.41666666666</v>
+      </c>
+      <c r="F356">
+        <v>36</v>
+      </c>
+      <c r="G356" t="s">
+        <v>72</v>
+      </c>
+      <c r="H356" t="s">
+        <v>75</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <v>1</v>
+      </c>
+      <c r="K356">
+        <v>1</v>
+      </c>
+      <c r="L356">
+        <v>2</v>
+      </c>
+      <c r="M356">
+        <v>1</v>
+      </c>
+      <c r="N356">
+        <v>3</v>
+      </c>
+      <c r="O356" t="s">
+        <v>316</v>
+      </c>
+      <c r="P356" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q356">
+        <v>2.88</v>
+      </c>
+      <c r="R356">
+        <v>2.2</v>
+      </c>
+      <c r="S356">
+        <v>3.75</v>
+      </c>
+      <c r="T356">
+        <v>1.4</v>
+      </c>
+      <c r="U356">
+        <v>2.75</v>
+      </c>
+      <c r="V356">
+        <v>2.75</v>
+      </c>
+      <c r="W356">
+        <v>1.4</v>
+      </c>
+      <c r="X356">
+        <v>8</v>
+      </c>
+      <c r="Y356">
+        <v>1.08</v>
+      </c>
+      <c r="Z356">
+        <v>2.15</v>
+      </c>
+      <c r="AA356">
+        <v>3.4</v>
+      </c>
+      <c r="AB356">
+        <v>3.3</v>
+      </c>
+      <c r="AC356">
+        <v>1.02</v>
+      </c>
+      <c r="AD356">
+        <v>10.5</v>
+      </c>
+      <c r="AE356">
+        <v>1.25</v>
+      </c>
+      <c r="AF356">
+        <v>3.6</v>
+      </c>
+      <c r="AG356">
+        <v>1.9</v>
+      </c>
+      <c r="AH356">
+        <v>1.9</v>
+      </c>
+      <c r="AI356">
+        <v>1.75</v>
+      </c>
+      <c r="AJ356">
+        <v>2</v>
+      </c>
+      <c r="AK356">
+        <v>1.37</v>
+      </c>
+      <c r="AL356">
+        <v>1.34</v>
+      </c>
+      <c r="AM356">
+        <v>1.62</v>
+      </c>
+      <c r="AN356">
+        <v>1.41</v>
+      </c>
+      <c r="AO356">
+        <v>0.53</v>
+      </c>
+      <c r="AP356">
+        <v>1.5</v>
+      </c>
+      <c r="AQ356">
+        <v>0.5</v>
+      </c>
+      <c r="AR356">
+        <v>1.33</v>
+      </c>
+      <c r="AS356">
+        <v>1.24</v>
+      </c>
+      <c r="AT356">
+        <v>2.57</v>
+      </c>
+      <c r="AU356">
+        <v>3</v>
+      </c>
+      <c r="AV356">
+        <v>5</v>
+      </c>
+      <c r="AW356">
+        <v>3</v>
+      </c>
+      <c r="AX356">
+        <v>5</v>
+      </c>
+      <c r="AY356">
+        <v>6</v>
+      </c>
+      <c r="AZ356">
+        <v>10</v>
+      </c>
+      <c r="BA356">
+        <v>3</v>
+      </c>
+      <c r="BB356">
+        <v>7</v>
+      </c>
+      <c r="BC356">
+        <v>10</v>
+      </c>
+      <c r="BD356">
+        <v>1.9</v>
+      </c>
+      <c r="BE356">
+        <v>9.4</v>
+      </c>
+      <c r="BF356">
+        <v>2.2</v>
+      </c>
+      <c r="BG356">
+        <v>1.17</v>
+      </c>
+      <c r="BH356">
+        <v>4.2</v>
+      </c>
+      <c r="BI356">
+        <v>1.35</v>
+      </c>
+      <c r="BJ356">
+        <v>2.84</v>
+      </c>
+      <c r="BK356">
+        <v>1.7</v>
+      </c>
+      <c r="BL356">
+        <v>2.1</v>
+      </c>
+      <c r="BM356">
+        <v>2.12</v>
+      </c>
+      <c r="BN356">
+        <v>1.68</v>
+      </c>
+      <c r="BO356">
+        <v>2.69</v>
+      </c>
+      <c r="BP356">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="357" spans="1:68">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>6745742</v>
+      </c>
+      <c r="C357" t="s">
+        <v>68</v>
+      </c>
+      <c r="D357" t="s">
+        <v>69</v>
+      </c>
+      <c r="E357" s="2">
+        <v>45424.54166666666</v>
+      </c>
+      <c r="F357">
+        <v>36</v>
+      </c>
+      <c r="G357" t="s">
+        <v>84</v>
+      </c>
+      <c r="H357" t="s">
+        <v>87</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <v>1</v>
+      </c>
+      <c r="K357">
+        <v>1</v>
+      </c>
+      <c r="L357">
+        <v>1</v>
+      </c>
+      <c r="M357">
+        <v>1</v>
+      </c>
+      <c r="N357">
+        <v>2</v>
+      </c>
+      <c r="O357" t="s">
+        <v>183</v>
+      </c>
+      <c r="P357" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q357">
+        <v>1.5</v>
+      </c>
+      <c r="R357">
+        <v>3</v>
+      </c>
+      <c r="S357">
+        <v>13</v>
+      </c>
+      <c r="T357">
+        <v>1.25</v>
+      </c>
+      <c r="U357">
+        <v>3.75</v>
+      </c>
+      <c r="V357">
+        <v>2.1</v>
+      </c>
+      <c r="W357">
+        <v>1.67</v>
+      </c>
+      <c r="X357">
+        <v>5</v>
+      </c>
+      <c r="Y357">
+        <v>1.17</v>
+      </c>
+      <c r="Z357">
+        <v>1.14</v>
+      </c>
+      <c r="AA357">
+        <v>8</v>
+      </c>
+      <c r="AB357">
+        <v>17</v>
+      </c>
+      <c r="AC357">
+        <v>1.01</v>
+      </c>
+      <c r="AD357">
+        <v>15</v>
+      </c>
+      <c r="AE357">
+        <v>1.11</v>
+      </c>
+      <c r="AF357">
+        <v>5.7</v>
+      </c>
+      <c r="AG357">
+        <v>1.45</v>
+      </c>
+      <c r="AH357">
+        <v>2.63</v>
+      </c>
+      <c r="AI357">
+        <v>2.38</v>
+      </c>
+      <c r="AJ357">
+        <v>1.53</v>
+      </c>
+      <c r="AK357">
+        <v>1.03</v>
+      </c>
+      <c r="AL357">
+        <v>1.08</v>
+      </c>
+      <c r="AM357">
+        <v>6.18</v>
+      </c>
+      <c r="AN357">
+        <v>2.12</v>
+      </c>
+      <c r="AO357">
+        <v>0.41</v>
+      </c>
+      <c r="AP357">
+        <v>2.06</v>
+      </c>
+      <c r="AQ357">
+        <v>0.44</v>
+      </c>
+      <c r="AR357">
+        <v>1.52</v>
+      </c>
+      <c r="AS357">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT357">
+        <v>2.46</v>
+      </c>
+      <c r="AU357">
+        <v>5</v>
+      </c>
+      <c r="AV357">
+        <v>3</v>
+      </c>
+      <c r="AW357">
+        <v>12</v>
+      </c>
+      <c r="AX357">
+        <v>5</v>
+      </c>
+      <c r="AY357">
+        <v>17</v>
+      </c>
+      <c r="AZ357">
+        <v>8</v>
+      </c>
+      <c r="BA357">
+        <v>9</v>
+      </c>
+      <c r="BB357">
+        <v>4</v>
+      </c>
+      <c r="BC357">
+        <v>13</v>
+      </c>
+      <c r="BD357">
+        <v>1.06</v>
+      </c>
+      <c r="BE357">
+        <v>17.5</v>
+      </c>
+      <c r="BF357">
+        <v>11.25</v>
+      </c>
+      <c r="BG357">
+        <v>1.16</v>
+      </c>
+      <c r="BH357">
+        <v>4.33</v>
+      </c>
+      <c r="BI357">
+        <v>1.32</v>
+      </c>
+      <c r="BJ357">
+        <v>2.98</v>
+      </c>
+      <c r="BK357">
+        <v>1.59</v>
+      </c>
+      <c r="BL357">
+        <v>2.27</v>
+      </c>
+      <c r="BM357">
+        <v>2</v>
+      </c>
+      <c r="BN357">
+        <v>1.8</v>
+      </c>
+      <c r="BO357">
+        <v>2.58</v>
+      </c>
+      <c r="BP357">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="358" spans="1:68">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>6745737</v>
+      </c>
+      <c r="C358" t="s">
+        <v>68</v>
+      </c>
+      <c r="D358" t="s">
+        <v>69</v>
+      </c>
+      <c r="E358" s="2">
+        <v>45424.65625</v>
+      </c>
+      <c r="F358">
+        <v>36</v>
+      </c>
+      <c r="G358" t="s">
+        <v>89</v>
+      </c>
+      <c r="H358" t="s">
+        <v>74</v>
+      </c>
+      <c r="I358">
+        <v>2</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>2</v>
+      </c>
+      <c r="L358">
+        <v>2</v>
+      </c>
+      <c r="M358">
+        <v>1</v>
+      </c>
+      <c r="N358">
+        <v>3</v>
+      </c>
+      <c r="O358" t="s">
+        <v>317</v>
+      </c>
+      <c r="P358" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q358">
+        <v>2.63</v>
+      </c>
+      <c r="R358">
+        <v>2.2</v>
+      </c>
+      <c r="S358">
+        <v>4</v>
+      </c>
+      <c r="T358">
+        <v>1.36</v>
+      </c>
+      <c r="U358">
+        <v>3</v>
+      </c>
+      <c r="V358">
+        <v>2.75</v>
+      </c>
+      <c r="W358">
+        <v>1.4</v>
+      </c>
+      <c r="X358">
+        <v>7</v>
+      </c>
+      <c r="Y358">
+        <v>1.1</v>
+      </c>
+      <c r="Z358">
+        <v>2.06</v>
+      </c>
+      <c r="AA358">
+        <v>3.52</v>
+      </c>
+      <c r="AB358">
+        <v>3.5</v>
+      </c>
+      <c r="AC358">
+        <v>1.07</v>
+      </c>
+      <c r="AD358">
+        <v>13</v>
+      </c>
+      <c r="AE358">
+        <v>1.31</v>
+      </c>
+      <c r="AF358">
+        <v>3.95</v>
+      </c>
+      <c r="AG358">
+        <v>1.83</v>
+      </c>
+      <c r="AH358">
+        <v>1.97</v>
+      </c>
+      <c r="AI358">
+        <v>1.75</v>
+      </c>
+      <c r="AJ358">
+        <v>2</v>
+      </c>
+      <c r="AK358">
+        <v>1.25</v>
+      </c>
+      <c r="AL358">
+        <v>1.24</v>
+      </c>
+      <c r="AM358">
+        <v>1.76</v>
+      </c>
+      <c r="AN358">
+        <v>2.19</v>
+      </c>
+      <c r="AO358">
+        <v>1.35</v>
+      </c>
+      <c r="AP358">
+        <v>2.24</v>
+      </c>
+      <c r="AQ358">
+        <v>1.28</v>
+      </c>
+      <c r="AR358">
+        <v>1.82</v>
+      </c>
+      <c r="AS358">
+        <v>1.23</v>
+      </c>
+      <c r="AT358">
+        <v>3.05</v>
+      </c>
+      <c r="AU358">
+        <v>7</v>
+      </c>
+      <c r="AV358">
+        <v>5</v>
+      </c>
+      <c r="AW358">
+        <v>12</v>
+      </c>
+      <c r="AX358">
+        <v>1</v>
+      </c>
+      <c r="AY358">
+        <v>19</v>
+      </c>
+      <c r="AZ358">
+        <v>6</v>
+      </c>
+      <c r="BA358">
+        <v>6</v>
+      </c>
+      <c r="BB358">
+        <v>1</v>
+      </c>
+      <c r="BC358">
+        <v>7</v>
+      </c>
+      <c r="BD358">
+        <v>1.52</v>
+      </c>
+      <c r="BE358">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF358">
+        <v>3.1</v>
+      </c>
+      <c r="BG358">
+        <v>1.3</v>
+      </c>
+      <c r="BH358">
+        <v>3.08</v>
+      </c>
+      <c r="BI358">
+        <v>1.61</v>
+      </c>
+      <c r="BJ358">
+        <v>2.25</v>
+      </c>
+      <c r="BK358">
+        <v>2.01</v>
+      </c>
+      <c r="BL358">
+        <v>1.77</v>
+      </c>
+      <c r="BM358">
+        <v>2.6</v>
+      </c>
+      <c r="BN358">
+        <v>1.46</v>
+      </c>
+      <c r="BO358">
+        <v>3.56</v>
+      </c>
+      <c r="BP358">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="359" spans="1:68">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>6745744</v>
+      </c>
+      <c r="C359" t="s">
+        <v>68</v>
+      </c>
+      <c r="D359" t="s">
+        <v>69</v>
+      </c>
+      <c r="E359" s="2">
+        <v>45425.5625</v>
+      </c>
+      <c r="F359">
+        <v>36</v>
+      </c>
+      <c r="G359" t="s">
+        <v>76</v>
+      </c>
+      <c r="H359" t="s">
+        <v>77</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <v>1</v>
+      </c>
+      <c r="K359">
+        <v>1</v>
+      </c>
+      <c r="L359">
+        <v>0</v>
+      </c>
+      <c r="M359">
+        <v>2</v>
+      </c>
+      <c r="N359">
+        <v>2</v>
+      </c>
+      <c r="O359" t="s">
+        <v>90</v>
+      </c>
+      <c r="P359" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q359">
+        <v>3.4</v>
+      </c>
+      <c r="R359">
+        <v>2</v>
+      </c>
+      <c r="S359">
+        <v>3.5</v>
+      </c>
+      <c r="T359">
+        <v>1.5</v>
+      </c>
+      <c r="U359">
+        <v>2.5</v>
+      </c>
+      <c r="V359">
+        <v>3.4</v>
+      </c>
+      <c r="W359">
+        <v>1.3</v>
+      </c>
+      <c r="X359">
+        <v>10</v>
+      </c>
+      <c r="Y359">
+        <v>1.06</v>
+      </c>
+      <c r="Z359">
+        <v>2.3</v>
+      </c>
+      <c r="AA359">
+        <v>3</v>
+      </c>
+      <c r="AB359">
+        <v>3</v>
+      </c>
+      <c r="AC359">
+        <v>1.11</v>
+      </c>
+      <c r="AD359">
+        <v>9</v>
+      </c>
+      <c r="AE359">
+        <v>1.45</v>
+      </c>
+      <c r="AF359">
+        <v>3.05</v>
+      </c>
+      <c r="AG359">
+        <v>2.23</v>
+      </c>
+      <c r="AH359">
+        <v>1.66</v>
+      </c>
+      <c r="AI359">
+        <v>1.95</v>
+      </c>
+      <c r="AJ359">
+        <v>1.8</v>
+      </c>
+      <c r="AK359">
+        <v>1.38</v>
+      </c>
+      <c r="AL359">
+        <v>1.32</v>
+      </c>
+      <c r="AM359">
+        <v>1.46</v>
+      </c>
+      <c r="AN359">
+        <v>1.41</v>
+      </c>
+      <c r="AO359">
+        <v>1</v>
+      </c>
+      <c r="AP359">
+        <v>1.33</v>
+      </c>
+      <c r="AQ359">
+        <v>1.11</v>
+      </c>
+      <c r="AR359">
+        <v>1.52</v>
+      </c>
+      <c r="AS359">
+        <v>1.1</v>
+      </c>
+      <c r="AT359">
+        <v>2.62</v>
+      </c>
+      <c r="AU359">
+        <v>0</v>
+      </c>
+      <c r="AV359">
+        <v>0</v>
+      </c>
+      <c r="AW359">
+        <v>2</v>
+      </c>
+      <c r="AX359">
+        <v>7</v>
+      </c>
+      <c r="AY359">
+        <v>2</v>
+      </c>
+      <c r="AZ359">
+        <v>7</v>
+      </c>
+      <c r="BA359">
+        <v>6</v>
+      </c>
+      <c r="BB359">
+        <v>2</v>
+      </c>
+      <c r="BC359">
+        <v>8</v>
+      </c>
+      <c r="BD359">
+        <v>1.6</v>
+      </c>
+      <c r="BE359">
+        <v>9.5</v>
+      </c>
+      <c r="BF359">
+        <v>2.8</v>
+      </c>
+      <c r="BG359">
+        <v>1.18</v>
+      </c>
+      <c r="BH359">
+        <v>4</v>
+      </c>
+      <c r="BI359">
+        <v>1.39</v>
+      </c>
+      <c r="BJ359">
+        <v>2.81</v>
+      </c>
+      <c r="BK359">
+        <v>1.74</v>
+      </c>
+      <c r="BL359">
+        <v>2.05</v>
+      </c>
+      <c r="BM359">
+        <v>2.18</v>
+      </c>
+      <c r="BN359">
+        <v>1.65</v>
+      </c>
+      <c r="BO359">
+        <v>2.75</v>
+      </c>
+      <c r="BP359">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="452">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -970,6 +970,9 @@
     <t>['18', '20']</t>
   </si>
   <si>
+    <t>['32', '78']</t>
+  </si>
+  <si>
     <t>['24', '42', '79']</t>
   </si>
   <si>
@@ -1728,7 +1731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP359"/>
+  <dimension ref="A1:BP360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2193,7 +2196,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q3">
         <v>7.5</v>
@@ -2399,7 +2402,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2686,7 +2689,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ5">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2811,7 +2814,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -3017,7 +3020,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -3429,7 +3432,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3841,7 +3844,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q11">
         <v>4.33</v>
@@ -4459,7 +4462,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4871,7 +4874,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -4949,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ16">
         <v>0.72</v>
@@ -5283,7 +5286,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q18">
         <v>2.1</v>
@@ -5901,7 +5904,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q21">
         <v>6.5</v>
@@ -6313,7 +6316,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6725,7 +6728,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6931,7 +6934,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -7218,7 +7221,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ27">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -7961,7 +7964,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -8579,7 +8582,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -9197,7 +9200,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -9403,7 +9406,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9481,7 +9484,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ38">
         <v>1.39</v>
@@ -9815,7 +9818,7 @@
         <v>90</v>
       </c>
       <c r="P40" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -10845,7 +10848,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -11051,7 +11054,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -11132,7 +11135,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ46">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR46">
         <v>1.78</v>
@@ -11669,7 +11672,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -12081,7 +12084,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -12493,7 +12496,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12905,7 +12908,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13317,7 +13320,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q57">
         <v>1.8</v>
@@ -13729,7 +13732,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -14141,7 +14144,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14347,7 +14350,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q62">
         <v>4.5</v>
@@ -14759,7 +14762,7 @@
         <v>90</v>
       </c>
       <c r="P64" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -15171,7 +15174,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15789,7 +15792,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15870,7 +15873,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ69">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR69">
         <v>1.49</v>
@@ -16279,7 +16282,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ71">
         <v>0.44</v>
@@ -16613,7 +16616,7 @@
         <v>139</v>
       </c>
       <c r="P73" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16819,7 +16822,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -17849,7 +17852,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -18055,7 +18058,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18261,7 +18264,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18467,7 +18470,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18673,7 +18676,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18879,7 +18882,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -19166,7 +19169,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ85">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR85">
         <v>1.41</v>
@@ -19291,7 +19294,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19497,7 +19500,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q87">
         <v>2.3</v>
@@ -19909,7 +19912,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -20321,7 +20324,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q91">
         <v>1.91</v>
@@ -20399,7 +20402,7 @@
         <v>0</v>
       </c>
       <c r="AP91">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ91">
         <v>0.83</v>
@@ -21351,7 +21354,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21557,7 +21560,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21969,7 +21972,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -22175,7 +22178,7 @@
         <v>90</v>
       </c>
       <c r="P100" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -22793,7 +22796,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -22999,7 +23002,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -23205,7 +23208,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -23411,7 +23414,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -23492,7 +23495,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ106">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR106">
         <v>1.15</v>
@@ -24107,7 +24110,7 @@
         <v>2</v>
       </c>
       <c r="AP109">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ109">
         <v>1.67</v>
@@ -24647,7 +24650,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q112">
         <v>2.2</v>
@@ -25059,7 +25062,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -26089,7 +26092,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -26167,7 +26170,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ119">
         <v>1.5</v>
@@ -26913,7 +26916,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -27406,7 +27409,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ125">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR125">
         <v>1.37</v>
@@ -27531,7 +27534,7 @@
         <v>178</v>
       </c>
       <c r="P126" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q126">
         <v>3.2</v>
@@ -27737,7 +27740,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q127">
         <v>3.2</v>
@@ -28149,7 +28152,7 @@
         <v>157</v>
       </c>
       <c r="P129" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -28355,7 +28358,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28767,7 +28770,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q132">
         <v>4.33</v>
@@ -29385,7 +29388,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q135">
         <v>1.91</v>
@@ -29591,7 +29594,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29875,7 +29878,7 @@
         <v>0.33</v>
       </c>
       <c r="AP137">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ137">
         <v>0.44</v>
@@ -30003,7 +30006,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q138">
         <v>2.38</v>
@@ -30209,7 +30212,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -30415,7 +30418,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q140">
         <v>3.4</v>
@@ -31239,7 +31242,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -32063,7 +32066,7 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32269,7 +32272,7 @@
         <v>195</v>
       </c>
       <c r="P149" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -33093,7 +33096,7 @@
         <v>198</v>
       </c>
       <c r="P153" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33792,7 +33795,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ156">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR156">
         <v>1.31</v>
@@ -33917,7 +33920,7 @@
         <v>201</v>
       </c>
       <c r="P157" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -34201,7 +34204,7 @@
         <v>0.63</v>
       </c>
       <c r="AP158">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ158">
         <v>0.61</v>
@@ -34535,7 +34538,7 @@
         <v>90</v>
       </c>
       <c r="P160" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -34947,7 +34950,7 @@
         <v>90</v>
       </c>
       <c r="P162" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -35153,7 +35156,7 @@
         <v>205</v>
       </c>
       <c r="P163" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35565,7 +35568,7 @@
         <v>206</v>
       </c>
       <c r="P165" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q165">
         <v>6.5</v>
@@ -35771,7 +35774,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q166">
         <v>5.5</v>
@@ -37085,7 +37088,7 @@
         <v>1</v>
       </c>
       <c r="AP172">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ172">
         <v>1.11</v>
@@ -37294,7 +37297,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ173">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR173">
         <v>1.88</v>
@@ -39479,7 +39482,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q184">
         <v>3.25</v>
@@ -39560,7 +39563,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ184">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR184">
         <v>1.26</v>
@@ -39685,7 +39688,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q185">
         <v>2.88</v>
@@ -40097,7 +40100,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -40509,7 +40512,7 @@
         <v>214</v>
       </c>
       <c r="P189" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -40715,7 +40718,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q190">
         <v>7</v>
@@ -41745,7 +41748,7 @@
         <v>224</v>
       </c>
       <c r="P195" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q195">
         <v>6.5</v>
@@ -42363,7 +42366,7 @@
         <v>226</v>
       </c>
       <c r="P198" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q198">
         <v>2.3</v>
@@ -42441,7 +42444,7 @@
         <v>0.89</v>
       </c>
       <c r="AP198">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ198">
         <v>1.11</v>
@@ -43187,7 +43190,7 @@
         <v>230</v>
       </c>
       <c r="P202" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q202">
         <v>2.05</v>
@@ -43393,7 +43396,7 @@
         <v>231</v>
       </c>
       <c r="P203" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q203">
         <v>4.5</v>
@@ -43886,7 +43889,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ205">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR205">
         <v>1.3</v>
@@ -44011,7 +44014,7 @@
         <v>234</v>
       </c>
       <c r="P206" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q206">
         <v>4.33</v>
@@ -44217,7 +44220,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -44423,7 +44426,7 @@
         <v>235</v>
       </c>
       <c r="P208" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q208">
         <v>4.33</v>
@@ -45041,7 +45044,7 @@
         <v>238</v>
       </c>
       <c r="P211" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -46149,7 +46152,7 @@
         <v>2.6</v>
       </c>
       <c r="AP216">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ216">
         <v>2.61</v>
@@ -46277,7 +46280,7 @@
         <v>132</v>
       </c>
       <c r="P217" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q217">
         <v>5.5</v>
@@ -46483,7 +46486,7 @@
         <v>241</v>
       </c>
       <c r="P218" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -46770,7 +46773,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ219">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR219">
         <v>1.41</v>
@@ -47101,7 +47104,7 @@
         <v>242</v>
       </c>
       <c r="P221" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q221">
         <v>4.75</v>
@@ -47307,7 +47310,7 @@
         <v>243</v>
       </c>
       <c r="P222" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q222">
         <v>2.38</v>
@@ -47925,7 +47928,7 @@
         <v>245</v>
       </c>
       <c r="P225" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q225">
         <v>2.75</v>
@@ -48543,7 +48546,7 @@
         <v>224</v>
       </c>
       <c r="P228" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q228">
         <v>3.2</v>
@@ -48749,7 +48752,7 @@
         <v>191</v>
       </c>
       <c r="P229" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q229">
         <v>4.33</v>
@@ -48955,7 +48958,7 @@
         <v>247</v>
       </c>
       <c r="P230" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -49367,7 +49370,7 @@
         <v>248</v>
       </c>
       <c r="P232" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q232">
         <v>2.05</v>
@@ -49445,7 +49448,7 @@
         <v>0.27</v>
       </c>
       <c r="AP232">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ232">
         <v>0.39</v>
@@ -49985,7 +49988,7 @@
         <v>191</v>
       </c>
       <c r="P235" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -51427,7 +51430,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q242">
         <v>6</v>
@@ -51839,7 +51842,7 @@
         <v>255</v>
       </c>
       <c r="P244" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q244">
         <v>3</v>
@@ -52457,7 +52460,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q247">
         <v>4.33</v>
@@ -52663,7 +52666,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q248">
         <v>4.5</v>
@@ -52869,7 +52872,7 @@
         <v>90</v>
       </c>
       <c r="P249" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q249">
         <v>3.4</v>
@@ -53281,7 +53284,7 @@
         <v>260</v>
       </c>
       <c r="P251" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q251">
         <v>2.75</v>
@@ -53487,7 +53490,7 @@
         <v>90</v>
       </c>
       <c r="P252" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q252">
         <v>3.6</v>
@@ -53568,7 +53571,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ252">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR252">
         <v>1.29</v>
@@ -53899,7 +53902,7 @@
         <v>262</v>
       </c>
       <c r="P254" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q254">
         <v>1.8</v>
@@ -54311,7 +54314,7 @@
         <v>90</v>
       </c>
       <c r="P256" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -54723,7 +54726,7 @@
         <v>264</v>
       </c>
       <c r="P258" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q258">
         <v>2.63</v>
@@ -54929,7 +54932,7 @@
         <v>265</v>
       </c>
       <c r="P259" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -55007,7 +55010,7 @@
         <v>1.46</v>
       </c>
       <c r="AP259">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ259">
         <v>1.44</v>
@@ -55135,7 +55138,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -55959,7 +55962,7 @@
         <v>145</v>
       </c>
       <c r="P264" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56989,7 +56992,7 @@
         <v>205</v>
       </c>
       <c r="P269" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q269">
         <v>2.6</v>
@@ -58019,7 +58022,7 @@
         <v>271</v>
       </c>
       <c r="P274" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q274">
         <v>2.5</v>
@@ -58431,7 +58434,7 @@
         <v>272</v>
       </c>
       <c r="P276" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q276">
         <v>3</v>
@@ -58512,7 +58515,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ276">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR276">
         <v>1.32</v>
@@ -59049,7 +59052,7 @@
         <v>169</v>
       </c>
       <c r="P279" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q279">
         <v>2.88</v>
@@ -59255,7 +59258,7 @@
         <v>274</v>
       </c>
       <c r="P280" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59333,7 +59336,7 @@
         <v>1.31</v>
       </c>
       <c r="AP280">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ280">
         <v>1.28</v>
@@ -59461,7 +59464,7 @@
         <v>152</v>
       </c>
       <c r="P281" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q281">
         <v>2.6</v>
@@ -60079,7 +60082,7 @@
         <v>90</v>
       </c>
       <c r="P284" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q284">
         <v>3.6</v>
@@ -60491,7 +60494,7 @@
         <v>276</v>
       </c>
       <c r="P286" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q286">
         <v>3.75</v>
@@ -60903,7 +60906,7 @@
         <v>277</v>
       </c>
       <c r="P288" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q288">
         <v>5</v>
@@ -61521,7 +61524,7 @@
         <v>90</v>
       </c>
       <c r="P291" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q291">
         <v>2.63</v>
@@ -61727,7 +61730,7 @@
         <v>279</v>
       </c>
       <c r="P292" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q292">
         <v>2.6</v>
@@ -62014,7 +62017,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ293">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR293">
         <v>1.34</v>
@@ -62345,7 +62348,7 @@
         <v>237</v>
       </c>
       <c r="P295" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q295">
         <v>3.4</v>
@@ -62423,7 +62426,7 @@
         <v>2</v>
       </c>
       <c r="AP295">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ295">
         <v>1.94</v>
@@ -63581,7 +63584,7 @@
         <v>285</v>
       </c>
       <c r="P301" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q301">
         <v>3.5</v>
@@ -64199,7 +64202,7 @@
         <v>287</v>
       </c>
       <c r="P304" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q304">
         <v>4.33</v>
@@ -64611,7 +64614,7 @@
         <v>288</v>
       </c>
       <c r="P306" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q306">
         <v>4.33</v>
@@ -64817,7 +64820,7 @@
         <v>121</v>
       </c>
       <c r="P307" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q307">
         <v>3.5</v>
@@ -65023,7 +65026,7 @@
         <v>269</v>
       </c>
       <c r="P308" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q308">
         <v>4.75</v>
@@ -65435,7 +65438,7 @@
         <v>273</v>
       </c>
       <c r="P310" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65641,7 +65644,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q311">
         <v>1.8</v>
@@ -66340,7 +66343,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ314">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR314">
         <v>1.41</v>
@@ -66465,7 +66468,7 @@
         <v>292</v>
       </c>
       <c r="P315" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q315">
         <v>1.8</v>
@@ -66671,7 +66674,7 @@
         <v>293</v>
       </c>
       <c r="P316" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q316">
         <v>4.75</v>
@@ -66877,7 +66880,7 @@
         <v>294</v>
       </c>
       <c r="P317" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q317">
         <v>1.57</v>
@@ -67161,7 +67164,7 @@
         <v>1.06</v>
       </c>
       <c r="AP318">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ318">
         <v>1.06</v>
@@ -67701,7 +67704,7 @@
         <v>297</v>
       </c>
       <c r="P321" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q321">
         <v>5.5</v>
@@ -68319,7 +68322,7 @@
         <v>90</v>
       </c>
       <c r="P324" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q324">
         <v>3</v>
@@ -68731,7 +68734,7 @@
         <v>90</v>
       </c>
       <c r="P326" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q326">
         <v>5</v>
@@ -68937,7 +68940,7 @@
         <v>291</v>
       </c>
       <c r="P327" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q327">
         <v>4.5</v>
@@ -69143,7 +69146,7 @@
         <v>299</v>
       </c>
       <c r="P328" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q328">
         <v>3.2</v>
@@ -69349,7 +69352,7 @@
         <v>101</v>
       </c>
       <c r="P329" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q329">
         <v>4</v>
@@ -69555,7 +69558,7 @@
         <v>300</v>
       </c>
       <c r="P330" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q330">
         <v>4</v>
@@ -70048,7 +70051,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ332">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR332">
         <v>1.53</v>
@@ -71203,7 +71206,7 @@
         <v>304</v>
       </c>
       <c r="P338" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q338">
         <v>2.5</v>
@@ -71487,7 +71490,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP339">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ339">
         <v>0.5</v>
@@ -72027,7 +72030,7 @@
         <v>307</v>
       </c>
       <c r="P342" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q342">
         <v>4.75</v>
@@ -72439,7 +72442,7 @@
         <v>309</v>
       </c>
       <c r="P344" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q344">
         <v>2.9</v>
@@ -73057,7 +73060,7 @@
         <v>311</v>
       </c>
       <c r="P347" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q347">
         <v>2.11</v>
@@ -73469,7 +73472,7 @@
         <v>255</v>
       </c>
       <c r="P349" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q349">
         <v>7</v>
@@ -73881,7 +73884,7 @@
         <v>90</v>
       </c>
       <c r="P351" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q351">
         <v>5</v>
@@ -74087,7 +74090,7 @@
         <v>90</v>
       </c>
       <c r="P352" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q352">
         <v>2.75</v>
@@ -74293,7 +74296,7 @@
         <v>313</v>
       </c>
       <c r="P353" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q353">
         <v>1.91</v>
@@ -74705,7 +74708,7 @@
         <v>315</v>
       </c>
       <c r="P355" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q355">
         <v>3.6</v>
@@ -75210,10 +75213,10 @@
         <v>2.46</v>
       </c>
       <c r="AU357">
+        <v>7</v>
+      </c>
+      <c r="AV357">
         <v>5</v>
-      </c>
-      <c r="AV357">
-        <v>3</v>
       </c>
       <c r="AW357">
         <v>12</v>
@@ -75222,10 +75225,10 @@
         <v>5</v>
       </c>
       <c r="AY357">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ357">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA357">
         <v>9</v>
@@ -75323,7 +75326,7 @@
         <v>317</v>
       </c>
       <c r="P358" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q358">
         <v>2.63</v>
@@ -75416,22 +75419,22 @@
         <v>3.05</v>
       </c>
       <c r="AU358">
+        <v>8</v>
+      </c>
+      <c r="AV358">
         <v>7</v>
       </c>
-      <c r="AV358">
-        <v>5</v>
-      </c>
       <c r="AW358">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX358">
         <v>1</v>
       </c>
       <c r="AY358">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ358">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA358">
         <v>6</v>
@@ -75529,7 +75532,7 @@
         <v>90</v>
       </c>
       <c r="P359" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q359">
         <v>3.4</v>
@@ -75622,31 +75625,31 @@
         <v>2.62</v>
       </c>
       <c r="AU359">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV359">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW359">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX359">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY359">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AZ359">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BA359">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB359">
         <v>2</v>
       </c>
       <c r="BC359">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD359">
         <v>1.6</v>
@@ -75686,6 +75689,212 @@
       </c>
       <c r="BP359">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="360" spans="1:68">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>6745738</v>
+      </c>
+      <c r="C360" t="s">
+        <v>68</v>
+      </c>
+      <c r="D360" t="s">
+        <v>69</v>
+      </c>
+      <c r="E360" s="2">
+        <v>45425.65625</v>
+      </c>
+      <c r="F360">
+        <v>36</v>
+      </c>
+      <c r="G360" t="s">
+        <v>83</v>
+      </c>
+      <c r="H360" t="s">
+        <v>80</v>
+      </c>
+      <c r="I360">
+        <v>1</v>
+      </c>
+      <c r="J360">
+        <v>1</v>
+      </c>
+      <c r="K360">
+        <v>2</v>
+      </c>
+      <c r="L360">
+        <v>2</v>
+      </c>
+      <c r="M360">
+        <v>1</v>
+      </c>
+      <c r="N360">
+        <v>3</v>
+      </c>
+      <c r="O360" t="s">
+        <v>318</v>
+      </c>
+      <c r="P360" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q360">
+        <v>2.1</v>
+      </c>
+      <c r="R360">
+        <v>2.38</v>
+      </c>
+      <c r="S360">
+        <v>5.5</v>
+      </c>
+      <c r="T360">
+        <v>1.33</v>
+      </c>
+      <c r="U360">
+        <v>3.25</v>
+      </c>
+      <c r="V360">
+        <v>2.5</v>
+      </c>
+      <c r="W360">
+        <v>1.5</v>
+      </c>
+      <c r="X360">
+        <v>6.5</v>
+      </c>
+      <c r="Y360">
+        <v>1.11</v>
+      </c>
+      <c r="Z360">
+        <v>1.54</v>
+      </c>
+      <c r="AA360">
+        <v>3.8</v>
+      </c>
+      <c r="AB360">
+        <v>5.1</v>
+      </c>
+      <c r="AC360">
+        <v>1.05</v>
+      </c>
+      <c r="AD360">
+        <v>13.5</v>
+      </c>
+      <c r="AE360">
+        <v>1.23</v>
+      </c>
+      <c r="AF360">
+        <v>4.6</v>
+      </c>
+      <c r="AG360">
+        <v>1.71</v>
+      </c>
+      <c r="AH360">
+        <v>2.14</v>
+      </c>
+      <c r="AI360">
+        <v>1.8</v>
+      </c>
+      <c r="AJ360">
+        <v>1.95</v>
+      </c>
+      <c r="AK360">
+        <v>1.16</v>
+      </c>
+      <c r="AL360">
+        <v>1.23</v>
+      </c>
+      <c r="AM360">
+        <v>2.44</v>
+      </c>
+      <c r="AN360">
+        <v>1.82</v>
+      </c>
+      <c r="AO360">
+        <v>1.24</v>
+      </c>
+      <c r="AP360">
+        <v>1.89</v>
+      </c>
+      <c r="AQ360">
+        <v>1.17</v>
+      </c>
+      <c r="AR360">
+        <v>1.65</v>
+      </c>
+      <c r="AS360">
+        <v>1.14</v>
+      </c>
+      <c r="AT360">
+        <v>2.79</v>
+      </c>
+      <c r="AU360">
+        <v>9</v>
+      </c>
+      <c r="AV360">
+        <v>3</v>
+      </c>
+      <c r="AW360">
+        <v>2</v>
+      </c>
+      <c r="AX360">
+        <v>3</v>
+      </c>
+      <c r="AY360">
+        <v>11</v>
+      </c>
+      <c r="AZ360">
+        <v>6</v>
+      </c>
+      <c r="BA360">
+        <v>6</v>
+      </c>
+      <c r="BB360">
+        <v>1</v>
+      </c>
+      <c r="BC360">
+        <v>7</v>
+      </c>
+      <c r="BD360">
+        <v>1.31</v>
+      </c>
+      <c r="BE360">
+        <v>10.5</v>
+      </c>
+      <c r="BF360">
+        <v>4.4</v>
+      </c>
+      <c r="BG360">
+        <v>1.28</v>
+      </c>
+      <c r="BH360">
+        <v>3.2</v>
+      </c>
+      <c r="BI360">
+        <v>1.56</v>
+      </c>
+      <c r="BJ360">
+        <v>2.33</v>
+      </c>
+      <c r="BK360">
+        <v>1.95</v>
+      </c>
+      <c r="BL360">
+        <v>1.85</v>
+      </c>
+      <c r="BM360">
+        <v>2.5</v>
+      </c>
+      <c r="BN360">
+        <v>1.49</v>
+      </c>
+      <c r="BO360">
+        <v>3.34</v>
+      </c>
+      <c r="BP360">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="455">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1377,6 +1377,9 @@
   <si>
     <t>['8', '57']</t>
   </si>
+  <si>
+    <t>['48', '53']</t>
+  </si>
 </sst>
 </file>
 
@@ -1737,7 +1740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP361"/>
+  <dimension ref="A1:BP362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3107,7 +3110,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ7">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3310,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ8">
         <v>1.44</v>
@@ -4343,7 +4346,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ13">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR13">
         <v>0.55</v>
@@ -7842,7 +7845,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ30">
         <v>0.44</v>
@@ -9493,7 +9496,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ38">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR38">
         <v>1.32</v>
@@ -10520,7 +10523,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ43">
         <v>1.06</v>
@@ -12995,7 +12998,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ55">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR55">
         <v>0.8</v>
@@ -14434,7 +14437,7 @@
         <v>1.67</v>
       </c>
       <c r="AP62">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ62">
         <v>1.47</v>
@@ -16700,7 +16703,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ73">
         <v>0.5</v>
@@ -17939,7 +17942,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ79">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR79">
         <v>1.24</v>
@@ -21026,7 +21029,7 @@
         <v>0.75</v>
       </c>
       <c r="AP94">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ94">
         <v>1.11</v>
@@ -22265,7 +22268,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ100">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR100">
         <v>1.14</v>
@@ -25146,7 +25149,7 @@
         <v>2.17</v>
       </c>
       <c r="AP114">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ114">
         <v>1.94</v>
@@ -25973,7 +25976,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ118">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR118">
         <v>1.5</v>
@@ -29678,7 +29681,7 @@
         <v>0.83</v>
       </c>
       <c r="AP136">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ136">
         <v>1.5</v>
@@ -30711,7 +30714,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ141">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR141">
         <v>1.34</v>
@@ -33180,7 +33183,7 @@
         <v>0.29</v>
       </c>
       <c r="AP153">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ153">
         <v>0.39</v>
@@ -36067,7 +36070,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ167">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR167">
         <v>1.33</v>
@@ -39772,7 +39775,7 @@
         <v>0.22</v>
       </c>
       <c r="AP185">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ185">
         <v>0.44</v>
@@ -41011,7 +41014,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ191">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR191">
         <v>1.38</v>
@@ -44304,7 +44307,7 @@
         <v>2.3</v>
       </c>
       <c r="AP207">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ207">
         <v>1.67</v>
@@ -46570,7 +46573,7 @@
         <v>1.4</v>
       </c>
       <c r="AP218">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ218">
         <v>1.12</v>
@@ -50075,7 +50078,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ235">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR235">
         <v>1.26</v>
@@ -54398,7 +54401,7 @@
         <v>2.67</v>
       </c>
       <c r="AP256">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ256">
         <v>2.61</v>
@@ -54607,7 +54610,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ257">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR257">
         <v>1.42</v>
@@ -55431,7 +55434,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ261">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR261">
         <v>1.86</v>
@@ -58724,7 +58727,7 @@
         <v>0.43</v>
       </c>
       <c r="AP277">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ277">
         <v>0.61</v>
@@ -59139,7 +59142,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ279">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR279">
         <v>1.53</v>
@@ -61611,7 +61614,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ291">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR291">
         <v>2.01</v>
@@ -63256,7 +63259,7 @@
         <v>1.29</v>
       </c>
       <c r="AP299">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ299">
         <v>1.28</v>
@@ -65113,7 +65116,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ308">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR308">
         <v>1.44</v>
@@ -65934,7 +65937,7 @@
         <v>1</v>
       </c>
       <c r="AP312">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ312">
         <v>0.83</v>
@@ -69027,7 +69030,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ327">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR327">
         <v>1.27</v>
@@ -70054,7 +70057,7 @@
         <v>1.25</v>
       </c>
       <c r="AP332">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ332">
         <v>1.17</v>
@@ -73559,7 +73562,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ349">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR349">
         <v>1.23</v>
@@ -75616,7 +75619,7 @@
         <v>1</v>
       </c>
       <c r="AP359">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ359">
         <v>1.11</v>
@@ -76107,6 +76110,212 @@
       </c>
       <c r="BP361">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:68">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>6745750</v>
+      </c>
+      <c r="C362" t="s">
+        <v>68</v>
+      </c>
+      <c r="D362" t="s">
+        <v>69</v>
+      </c>
+      <c r="E362" s="2">
+        <v>45430.54166666666</v>
+      </c>
+      <c r="F362">
+        <v>37</v>
+      </c>
+      <c r="G362" t="s">
+        <v>76</v>
+      </c>
+      <c r="H362" t="s">
+        <v>89</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>0</v>
+      </c>
+      <c r="L362">
+        <v>0</v>
+      </c>
+      <c r="M362">
+        <v>2</v>
+      </c>
+      <c r="N362">
+        <v>2</v>
+      </c>
+      <c r="O362" t="s">
+        <v>90</v>
+      </c>
+      <c r="P362" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q362">
+        <v>4.75</v>
+      </c>
+      <c r="R362">
+        <v>2.2</v>
+      </c>
+      <c r="S362">
+        <v>2.4</v>
+      </c>
+      <c r="T362">
+        <v>1.42</v>
+      </c>
+      <c r="U362">
+        <v>2.95</v>
+      </c>
+      <c r="V362">
+        <v>2.9</v>
+      </c>
+      <c r="W362">
+        <v>1.4</v>
+      </c>
+      <c r="X362">
+        <v>7.5</v>
+      </c>
+      <c r="Y362">
+        <v>1.08</v>
+      </c>
+      <c r="Z362">
+        <v>4.1</v>
+      </c>
+      <c r="AA362">
+        <v>3.6</v>
+      </c>
+      <c r="AB362">
+        <v>1.89</v>
+      </c>
+      <c r="AC362">
+        <v>1.05</v>
+      </c>
+      <c r="AD362">
+        <v>11</v>
+      </c>
+      <c r="AE362">
+        <v>1.32</v>
+      </c>
+      <c r="AF362">
+        <v>3.4</v>
+      </c>
+      <c r="AG362">
+        <v>1.97</v>
+      </c>
+      <c r="AH362">
+        <v>1.85</v>
+      </c>
+      <c r="AI362">
+        <v>1.85</v>
+      </c>
+      <c r="AJ362">
+        <v>1.92</v>
+      </c>
+      <c r="AK362">
+        <v>2.05</v>
+      </c>
+      <c r="AL362">
+        <v>1.24</v>
+      </c>
+      <c r="AM362">
+        <v>1.22</v>
+      </c>
+      <c r="AN362">
+        <v>1.33</v>
+      </c>
+      <c r="AO362">
+        <v>1.39</v>
+      </c>
+      <c r="AP362">
+        <v>1.26</v>
+      </c>
+      <c r="AQ362">
+        <v>1.47</v>
+      </c>
+      <c r="AR362">
+        <v>1.48</v>
+      </c>
+      <c r="AS362">
+        <v>1.32</v>
+      </c>
+      <c r="AT362">
+        <v>2.8</v>
+      </c>
+      <c r="AU362">
+        <v>4</v>
+      </c>
+      <c r="AV362">
+        <v>7</v>
+      </c>
+      <c r="AW362">
+        <v>4</v>
+      </c>
+      <c r="AX362">
+        <v>4</v>
+      </c>
+      <c r="AY362">
+        <v>8</v>
+      </c>
+      <c r="AZ362">
+        <v>11</v>
+      </c>
+      <c r="BA362">
+        <v>1</v>
+      </c>
+      <c r="BB362">
+        <v>3</v>
+      </c>
+      <c r="BC362">
+        <v>4</v>
+      </c>
+      <c r="BD362">
+        <v>2.77</v>
+      </c>
+      <c r="BE362">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF362">
+        <v>1.62</v>
+      </c>
+      <c r="BG362">
+        <v>1.29</v>
+      </c>
+      <c r="BH362">
+        <v>3.3</v>
+      </c>
+      <c r="BI362">
+        <v>1.52</v>
+      </c>
+      <c r="BJ362">
+        <v>2.42</v>
+      </c>
+      <c r="BK362">
+        <v>1.88</v>
+      </c>
+      <c r="BL362">
+        <v>1.92</v>
+      </c>
+      <c r="BM362">
+        <v>2.33</v>
+      </c>
+      <c r="BN362">
+        <v>1.56</v>
+      </c>
+      <c r="BO362">
+        <v>2.9</v>
+      </c>
+      <c r="BP362">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="456">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -976,6 +976,9 @@
     <t>['40', '42']</t>
   </si>
   <si>
+    <t>['26', '40', '46']</t>
+  </si>
+  <si>
     <t>['24', '42', '79']</t>
   </si>
   <si>
@@ -1740,7 +1743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP362"/>
+  <dimension ref="A1:BP363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2205,7 +2208,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q3">
         <v>7.5</v>
@@ -2411,7 +2414,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2823,7 +2826,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -3029,7 +3032,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -3441,7 +3444,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3725,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ10">
         <v>0.44</v>
@@ -3853,7 +3856,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q11">
         <v>4.33</v>
@@ -3934,7 +3937,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ11">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4471,7 +4474,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4883,7 +4886,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -5295,7 +5298,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q18">
         <v>2.1</v>
@@ -5913,7 +5916,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q21">
         <v>6.5</v>
@@ -6325,7 +6328,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6406,7 +6409,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ23">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AR23">
         <v>1.42</v>
@@ -6737,7 +6740,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6943,7 +6946,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -7433,7 +7436,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ28">
         <v>1.06</v>
@@ -7973,7 +7976,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -8466,7 +8469,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ33">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AR33">
         <v>2.02</v>
@@ -8591,7 +8594,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -9209,7 +9212,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -9415,7 +9418,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9827,7 +9830,7 @@
         <v>90</v>
       </c>
       <c r="P40" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -10857,7 +10860,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -11063,7 +11066,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -11681,7 +11684,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -12093,7 +12096,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -12171,7 +12174,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ51">
         <v>1.28</v>
@@ -12505,7 +12508,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12586,7 +12589,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ53">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AR53">
         <v>1</v>
@@ -12917,7 +12920,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13329,7 +13332,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q57">
         <v>1.8</v>
@@ -13741,7 +13744,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -14153,7 +14156,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14359,7 +14362,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q62">
         <v>4.5</v>
@@ -14771,7 +14774,7 @@
         <v>90</v>
       </c>
       <c r="P64" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -15183,7 +15186,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15801,7 +15804,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -16085,7 +16088,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ70">
         <v>0.61</v>
@@ -16625,7 +16628,7 @@
         <v>139</v>
       </c>
       <c r="P73" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16831,7 +16834,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -17324,7 +17327,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ76">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AR76">
         <v>0.92</v>
@@ -17861,7 +17864,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -18067,7 +18070,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18273,7 +18276,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18479,7 +18482,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18685,7 +18688,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18763,7 +18766,7 @@
         <v>3</v>
       </c>
       <c r="AP83">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ83">
         <v>2.61</v>
@@ -18891,7 +18894,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -19303,7 +19306,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19509,7 +19512,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q87">
         <v>2.3</v>
@@ -19921,7 +19924,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -20333,7 +20336,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q91">
         <v>1.91</v>
@@ -21363,7 +21366,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21569,7 +21572,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21981,7 +21984,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -22062,7 +22065,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ99">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AR99">
         <v>1.96</v>
@@ -22187,7 +22190,7 @@
         <v>90</v>
       </c>
       <c r="P100" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -22805,7 +22808,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -23011,7 +23014,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -23217,7 +23220,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -23423,7 +23426,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -24531,7 +24534,7 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ111">
         <v>0.5</v>
@@ -24659,7 +24662,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q112">
         <v>2.2</v>
@@ -25071,7 +25074,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -25152,7 +25155,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ114">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AR114">
         <v>1.58</v>
@@ -26101,7 +26104,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -26925,7 +26928,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -27543,7 +27546,7 @@
         <v>178</v>
       </c>
       <c r="P126" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q126">
         <v>3.2</v>
@@ -27749,7 +27752,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q127">
         <v>3.2</v>
@@ -28161,7 +28164,7 @@
         <v>157</v>
       </c>
       <c r="P129" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -28367,7 +28370,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28779,7 +28782,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q132">
         <v>4.33</v>
@@ -29397,7 +29400,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q135">
         <v>1.91</v>
@@ -29603,7 +29606,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -30015,7 +30018,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q138">
         <v>2.38</v>
@@ -30221,7 +30224,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -30427,7 +30430,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q140">
         <v>3.4</v>
@@ -30711,7 +30714,7 @@
         <v>1.43</v>
       </c>
       <c r="AP141">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ141">
         <v>1.47</v>
@@ -31251,7 +31254,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31332,7 +31335,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ144">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AR144">
         <v>1.59</v>
@@ -32075,7 +32078,7 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32281,7 +32284,7 @@
         <v>195</v>
       </c>
       <c r="P149" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -33105,7 +33108,7 @@
         <v>198</v>
       </c>
       <c r="P153" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33595,7 +33598,7 @@
         <v>1</v>
       </c>
       <c r="AP155">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ155">
         <v>0.83</v>
@@ -33929,7 +33932,7 @@
         <v>201</v>
       </c>
       <c r="P157" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -34547,7 +34550,7 @@
         <v>90</v>
       </c>
       <c r="P160" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -34959,7 +34962,7 @@
         <v>90</v>
       </c>
       <c r="P162" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -35165,7 +35168,7 @@
         <v>205</v>
       </c>
       <c r="P163" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35577,7 +35580,7 @@
         <v>206</v>
       </c>
       <c r="P165" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q165">
         <v>6.5</v>
@@ -35658,7 +35661,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ165">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AR165">
         <v>1.28</v>
@@ -35783,7 +35786,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q166">
         <v>5.5</v>
@@ -36273,7 +36276,7 @@
         <v>0.88</v>
       </c>
       <c r="AP168">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ168">
         <v>1.11</v>
@@ -39491,7 +39494,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q184">
         <v>3.25</v>
@@ -39697,7 +39700,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q185">
         <v>2.88</v>
@@ -40109,7 +40112,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -40190,7 +40193,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ187">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AR187">
         <v>1.34</v>
@@ -40393,7 +40396,7 @@
         <v>1.89</v>
       </c>
       <c r="AP188">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ188">
         <v>1.47</v>
@@ -40521,7 +40524,7 @@
         <v>214</v>
       </c>
       <c r="P189" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -40727,7 +40730,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q190">
         <v>7</v>
@@ -41757,7 +41760,7 @@
         <v>224</v>
       </c>
       <c r="P195" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q195">
         <v>6.5</v>
@@ -42375,7 +42378,7 @@
         <v>226</v>
       </c>
       <c r="P198" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q198">
         <v>2.3</v>
@@ -43199,7 +43202,7 @@
         <v>230</v>
       </c>
       <c r="P202" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q202">
         <v>2.05</v>
@@ -43405,7 +43408,7 @@
         <v>231</v>
       </c>
       <c r="P203" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q203">
         <v>4.5</v>
@@ -43486,7 +43489,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ203">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AR203">
         <v>1.41</v>
@@ -44023,7 +44026,7 @@
         <v>234</v>
       </c>
       <c r="P206" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q206">
         <v>4.33</v>
@@ -44229,7 +44232,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -44435,7 +44438,7 @@
         <v>235</v>
       </c>
       <c r="P208" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q208">
         <v>4.33</v>
@@ -45053,7 +45056,7 @@
         <v>238</v>
       </c>
       <c r="P211" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -46289,7 +46292,7 @@
         <v>132</v>
       </c>
       <c r="P217" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q217">
         <v>5.5</v>
@@ -46495,7 +46498,7 @@
         <v>241</v>
       </c>
       <c r="P218" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -47113,7 +47116,7 @@
         <v>242</v>
       </c>
       <c r="P221" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q221">
         <v>4.75</v>
@@ -47194,7 +47197,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ221">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AR221">
         <v>1.34</v>
@@ -47319,7 +47322,7 @@
         <v>243</v>
       </c>
       <c r="P222" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q222">
         <v>2.38</v>
@@ -47603,7 +47606,7 @@
         <v>0.5</v>
       </c>
       <c r="AP223">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ223">
         <v>0.44</v>
@@ -47937,7 +47940,7 @@
         <v>245</v>
       </c>
       <c r="P225" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q225">
         <v>2.75</v>
@@ -48555,7 +48558,7 @@
         <v>224</v>
       </c>
       <c r="P228" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q228">
         <v>3.2</v>
@@ -48761,7 +48764,7 @@
         <v>191</v>
       </c>
       <c r="P229" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q229">
         <v>4.33</v>
@@ -48967,7 +48970,7 @@
         <v>247</v>
       </c>
       <c r="P230" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -49379,7 +49382,7 @@
         <v>248</v>
       </c>
       <c r="P232" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q232">
         <v>2.05</v>
@@ -49997,7 +50000,7 @@
         <v>191</v>
       </c>
       <c r="P235" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50899,7 +50902,7 @@
         <v>0.42</v>
       </c>
       <c r="AP239">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ239">
         <v>0.72</v>
@@ -51439,7 +51442,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q242">
         <v>6</v>
@@ -51851,7 +51854,7 @@
         <v>255</v>
       </c>
       <c r="P244" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q244">
         <v>3</v>
@@ -52469,7 +52472,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q247">
         <v>4.33</v>
@@ -52675,7 +52678,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q248">
         <v>4.5</v>
@@ -52756,7 +52759,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ248">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AR248">
         <v>1.28</v>
@@ -52881,7 +52884,7 @@
         <v>90</v>
       </c>
       <c r="P249" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q249">
         <v>3.4</v>
@@ -52959,7 +52962,7 @@
         <v>1.33</v>
       </c>
       <c r="AP249">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ249">
         <v>1.44</v>
@@ -53293,7 +53296,7 @@
         <v>260</v>
       </c>
       <c r="P251" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q251">
         <v>2.75</v>
@@ -53499,7 +53502,7 @@
         <v>90</v>
       </c>
       <c r="P252" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q252">
         <v>3.6</v>
@@ -53911,7 +53914,7 @@
         <v>262</v>
       </c>
       <c r="P254" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q254">
         <v>1.8</v>
@@ -54323,7 +54326,7 @@
         <v>90</v>
       </c>
       <c r="P256" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -54735,7 +54738,7 @@
         <v>264</v>
       </c>
       <c r="P258" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q258">
         <v>2.63</v>
@@ -54941,7 +54944,7 @@
         <v>265</v>
       </c>
       <c r="P259" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -55147,7 +55150,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -55640,7 +55643,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ262">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AR262">
         <v>1.21</v>
@@ -55971,7 +55974,7 @@
         <v>145</v>
       </c>
       <c r="P264" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56255,7 +56258,7 @@
         <v>1.15</v>
       </c>
       <c r="AP265">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ265">
         <v>1.12</v>
@@ -57001,7 +57004,7 @@
         <v>205</v>
       </c>
       <c r="P269" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q269">
         <v>2.6</v>
@@ -58031,7 +58034,7 @@
         <v>271</v>
       </c>
       <c r="P274" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q274">
         <v>2.5</v>
@@ -58443,7 +58446,7 @@
         <v>272</v>
       </c>
       <c r="P276" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q276">
         <v>3</v>
@@ -59061,7 +59064,7 @@
         <v>169</v>
       </c>
       <c r="P279" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q279">
         <v>2.88</v>
@@ -59267,7 +59270,7 @@
         <v>274</v>
       </c>
       <c r="P280" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59473,7 +59476,7 @@
         <v>152</v>
       </c>
       <c r="P281" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q281">
         <v>2.6</v>
@@ -60091,7 +60094,7 @@
         <v>90</v>
       </c>
       <c r="P284" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q284">
         <v>3.6</v>
@@ -60503,7 +60506,7 @@
         <v>276</v>
       </c>
       <c r="P286" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q286">
         <v>3.75</v>
@@ -60915,7 +60918,7 @@
         <v>277</v>
       </c>
       <c r="P288" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q288">
         <v>5</v>
@@ -60996,7 +60999,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ288">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AR288">
         <v>1.34</v>
@@ -61533,7 +61536,7 @@
         <v>90</v>
       </c>
       <c r="P291" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q291">
         <v>2.63</v>
@@ -61739,7 +61742,7 @@
         <v>279</v>
       </c>
       <c r="P292" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q292">
         <v>2.6</v>
@@ -62023,7 +62026,7 @@
         <v>1.36</v>
       </c>
       <c r="AP293">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ293">
         <v>1.17</v>
@@ -62357,7 +62360,7 @@
         <v>237</v>
       </c>
       <c r="P295" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q295">
         <v>3.4</v>
@@ -62438,7 +62441,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ295">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AR295">
         <v>1.6</v>
@@ -63593,7 +63596,7 @@
         <v>285</v>
       </c>
       <c r="P301" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q301">
         <v>3.5</v>
@@ -64211,7 +64214,7 @@
         <v>287</v>
       </c>
       <c r="P304" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q304">
         <v>4.33</v>
@@ -64623,7 +64626,7 @@
         <v>288</v>
       </c>
       <c r="P306" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q306">
         <v>4.33</v>
@@ -64829,7 +64832,7 @@
         <v>121</v>
       </c>
       <c r="P307" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q307">
         <v>3.5</v>
@@ -65035,7 +65038,7 @@
         <v>269</v>
       </c>
       <c r="P308" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q308">
         <v>4.75</v>
@@ -65447,7 +65450,7 @@
         <v>273</v>
       </c>
       <c r="P310" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65653,7 +65656,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q311">
         <v>1.8</v>
@@ -66143,7 +66146,7 @@
         <v>1.8</v>
       </c>
       <c r="AP313">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ313">
         <v>1.67</v>
@@ -66477,7 +66480,7 @@
         <v>292</v>
       </c>
       <c r="P315" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q315">
         <v>1.8</v>
@@ -66683,7 +66686,7 @@
         <v>293</v>
       </c>
       <c r="P316" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q316">
         <v>4.75</v>
@@ -66764,7 +66767,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ316">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AR316">
         <v>1.41</v>
@@ -66889,7 +66892,7 @@
         <v>294</v>
       </c>
       <c r="P317" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q317">
         <v>1.57</v>
@@ -67713,7 +67716,7 @@
         <v>297</v>
       </c>
       <c r="P321" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q321">
         <v>5.5</v>
@@ -68331,7 +68334,7 @@
         <v>90</v>
       </c>
       <c r="P324" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q324">
         <v>3</v>
@@ -68615,7 +68618,7 @@
         <v>0.31</v>
       </c>
       <c r="AP325">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ325">
         <v>0.39</v>
@@ -68743,7 +68746,7 @@
         <v>90</v>
       </c>
       <c r="P326" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q326">
         <v>5</v>
@@ -68949,7 +68952,7 @@
         <v>291</v>
       </c>
       <c r="P327" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q327">
         <v>4.5</v>
@@ -69155,7 +69158,7 @@
         <v>299</v>
       </c>
       <c r="P328" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q328">
         <v>3.2</v>
@@ -69361,7 +69364,7 @@
         <v>101</v>
       </c>
       <c r="P329" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q329">
         <v>4</v>
@@ -69567,7 +69570,7 @@
         <v>300</v>
       </c>
       <c r="P330" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q330">
         <v>4</v>
@@ -70266,7 +70269,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ333">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AR333">
         <v>1.48</v>
@@ -71215,7 +71218,7 @@
         <v>304</v>
       </c>
       <c r="P338" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q338">
         <v>2.5</v>
@@ -71911,7 +71914,7 @@
         <v>1.44</v>
       </c>
       <c r="AP341">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ341">
         <v>1.5</v>
@@ -72039,7 +72042,7 @@
         <v>307</v>
       </c>
       <c r="P342" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q342">
         <v>4.75</v>
@@ -72451,7 +72454,7 @@
         <v>309</v>
       </c>
       <c r="P344" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q344">
         <v>2.9</v>
@@ -73069,7 +73072,7 @@
         <v>311</v>
       </c>
       <c r="P347" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q347">
         <v>2.11</v>
@@ -73481,7 +73484,7 @@
         <v>255</v>
       </c>
       <c r="P349" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q349">
         <v>7</v>
@@ -73893,7 +73896,7 @@
         <v>90</v>
       </c>
       <c r="P351" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q351">
         <v>5</v>
@@ -74099,7 +74102,7 @@
         <v>90</v>
       </c>
       <c r="P352" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q352">
         <v>2.75</v>
@@ -74305,7 +74308,7 @@
         <v>313</v>
       </c>
       <c r="P353" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q353">
         <v>1.91</v>
@@ -74717,7 +74720,7 @@
         <v>315</v>
       </c>
       <c r="P355" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q355">
         <v>3.6</v>
@@ -75335,7 +75338,7 @@
         <v>317</v>
       </c>
       <c r="P358" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q358">
         <v>2.63</v>
@@ -75541,7 +75544,7 @@
         <v>90</v>
       </c>
       <c r="P359" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q359">
         <v>3.4</v>
@@ -75953,7 +75956,7 @@
         <v>319</v>
       </c>
       <c r="P361" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q361">
         <v>3</v>
@@ -76159,7 +76162,7 @@
         <v>90</v>
       </c>
       <c r="P362" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q362">
         <v>4.75</v>
@@ -76255,28 +76258,28 @@
         <v>4</v>
       </c>
       <c r="AV362">
+        <v>10</v>
+      </c>
+      <c r="AW362">
+        <v>8</v>
+      </c>
+      <c r="AX362">
+        <v>10</v>
+      </c>
+      <c r="AY362">
+        <v>12</v>
+      </c>
+      <c r="AZ362">
+        <v>20</v>
+      </c>
+      <c r="BA362">
+        <v>2</v>
+      </c>
+      <c r="BB362">
+        <v>5</v>
+      </c>
+      <c r="BC362">
         <v>7</v>
-      </c>
-      <c r="AW362">
-        <v>4</v>
-      </c>
-      <c r="AX362">
-        <v>4</v>
-      </c>
-      <c r="AY362">
-        <v>8</v>
-      </c>
-      <c r="AZ362">
-        <v>11</v>
-      </c>
-      <c r="BA362">
-        <v>1</v>
-      </c>
-      <c r="BB362">
-        <v>3</v>
-      </c>
-      <c r="BC362">
-        <v>4</v>
       </c>
       <c r="BD362">
         <v>2.77</v>
@@ -76316,6 +76319,212 @@
       </c>
       <c r="BP362">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="363" spans="1:68">
+      <c r="A363" s="1">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>6745755</v>
+      </c>
+      <c r="C363" t="s">
+        <v>68</v>
+      </c>
+      <c r="D363" t="s">
+        <v>69</v>
+      </c>
+      <c r="E363" s="2">
+        <v>45430.65625</v>
+      </c>
+      <c r="F363">
+        <v>37</v>
+      </c>
+      <c r="G363" t="s">
+        <v>78</v>
+      </c>
+      <c r="H363" t="s">
+        <v>81</v>
+      </c>
+      <c r="I363">
+        <v>2</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>2</v>
+      </c>
+      <c r="L363">
+        <v>3</v>
+      </c>
+      <c r="M363">
+        <v>1</v>
+      </c>
+      <c r="N363">
+        <v>4</v>
+      </c>
+      <c r="O363" t="s">
+        <v>320</v>
+      </c>
+      <c r="P363" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q363">
+        <v>3.6</v>
+      </c>
+      <c r="R363">
+        <v>2.05</v>
+      </c>
+      <c r="S363">
+        <v>3.2</v>
+      </c>
+      <c r="T363">
+        <v>1.47</v>
+      </c>
+      <c r="U363">
+        <v>2.75</v>
+      </c>
+      <c r="V363">
+        <v>3.1</v>
+      </c>
+      <c r="W363">
+        <v>1.36</v>
+      </c>
+      <c r="X363">
+        <v>8</v>
+      </c>
+      <c r="Y363">
+        <v>1.07</v>
+      </c>
+      <c r="Z363">
+        <v>2.75</v>
+      </c>
+      <c r="AA363">
+        <v>3.4</v>
+      </c>
+      <c r="AB363">
+        <v>2.84</v>
+      </c>
+      <c r="AC363">
+        <v>1.07</v>
+      </c>
+      <c r="AD363">
+        <v>9.5</v>
+      </c>
+      <c r="AE363">
+        <v>1.38</v>
+      </c>
+      <c r="AF363">
+        <v>3.1</v>
+      </c>
+      <c r="AG363">
+        <v>2</v>
+      </c>
+      <c r="AH363">
+        <v>1.73</v>
+      </c>
+      <c r="AI363">
+        <v>1.85</v>
+      </c>
+      <c r="AJ363">
+        <v>1.95</v>
+      </c>
+      <c r="AK363">
+        <v>1.55</v>
+      </c>
+      <c r="AL363">
+        <v>1.3</v>
+      </c>
+      <c r="AM363">
+        <v>1.44</v>
+      </c>
+      <c r="AN363">
+        <v>1.67</v>
+      </c>
+      <c r="AO363">
+        <v>1.94</v>
+      </c>
+      <c r="AP363">
+        <v>1.74</v>
+      </c>
+      <c r="AQ363">
+        <v>1.84</v>
+      </c>
+      <c r="AR363">
+        <v>1.29</v>
+      </c>
+      <c r="AS363">
+        <v>1.49</v>
+      </c>
+      <c r="AT363">
+        <v>2.78</v>
+      </c>
+      <c r="AU363">
+        <v>6</v>
+      </c>
+      <c r="AV363">
+        <v>5</v>
+      </c>
+      <c r="AW363">
+        <v>6</v>
+      </c>
+      <c r="AX363">
+        <v>12</v>
+      </c>
+      <c r="AY363">
+        <v>12</v>
+      </c>
+      <c r="AZ363">
+        <v>17</v>
+      </c>
+      <c r="BA363">
+        <v>3</v>
+      </c>
+      <c r="BB363">
+        <v>8</v>
+      </c>
+      <c r="BC363">
+        <v>11</v>
+      </c>
+      <c r="BD363">
+        <v>2.01</v>
+      </c>
+      <c r="BE363">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF363">
+        <v>2.13</v>
+      </c>
+      <c r="BG363">
+        <v>1.48</v>
+      </c>
+      <c r="BH363">
+        <v>2.54</v>
+      </c>
+      <c r="BI363">
+        <v>1.85</v>
+      </c>
+      <c r="BJ363">
+        <v>1.94</v>
+      </c>
+      <c r="BK363">
+        <v>2.34</v>
+      </c>
+      <c r="BL363">
+        <v>1.56</v>
+      </c>
+      <c r="BM363">
+        <v>3</v>
+      </c>
+      <c r="BN363">
+        <v>1.33</v>
+      </c>
+      <c r="BO363">
+        <v>4</v>
+      </c>
+      <c r="BP363">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="457">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1383,6 +1383,9 @@
   <si>
     <t>['48', '53']</t>
   </si>
+  <si>
+    <t>['71', '90+1']</t>
+  </si>
 </sst>
 </file>
 
@@ -1743,7 +1746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP363"/>
+  <dimension ref="A1:BP364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3110,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ7">
         <v>1.47</v>
@@ -3731,7 +3734,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ10">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -6200,7 +6203,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ22">
         <v>0.61</v>
@@ -6821,7 +6824,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ25">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR25">
         <v>1.53</v>
@@ -10938,7 +10941,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ45">
         <v>1.67</v>
@@ -11559,7 +11562,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ48">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR48">
         <v>2.01</v>
@@ -15882,7 +15885,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ69">
         <v>1.17</v>
@@ -16297,7 +16300,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ71">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR71">
         <v>1.61</v>
@@ -18972,7 +18975,7 @@
         <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ84">
         <v>1.44</v>
@@ -19387,7 +19390,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ86">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR86">
         <v>1.43</v>
@@ -20826,7 +20829,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ93">
         <v>1.5</v>
@@ -24740,7 +24743,7 @@
         <v>0.2</v>
       </c>
       <c r="AP112">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ112">
         <v>0.44</v>
@@ -25361,7 +25364,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ115">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR115">
         <v>1.75</v>
@@ -29275,7 +29278,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ134">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR134">
         <v>1.13</v>
@@ -30302,7 +30305,7 @@
         <v>0.83</v>
       </c>
       <c r="AP139">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ139">
         <v>1.28</v>
@@ -33395,7 +33398,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ154">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR154">
         <v>1.86</v>
@@ -35246,7 +35249,7 @@
         <v>0.5</v>
       </c>
       <c r="AP163">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ163">
         <v>1.06</v>
@@ -36485,7 +36488,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ169">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR169">
         <v>1.29</v>
@@ -39781,7 +39784,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ185">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR185">
         <v>1.6</v>
@@ -39984,7 +39987,7 @@
         <v>1.56</v>
       </c>
       <c r="AP186">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ186">
         <v>1.12</v>
@@ -43695,7 +43698,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ204">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR204">
         <v>1.29</v>
@@ -48433,7 +48436,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ227">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR227">
         <v>1.36</v>
@@ -49254,7 +49257,7 @@
         <v>1.09</v>
       </c>
       <c r="AP231">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ231">
         <v>1.11</v>
@@ -52141,7 +52144,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ245">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR245">
         <v>1.44</v>
@@ -53374,7 +53377,7 @@
         <v>1</v>
       </c>
       <c r="AP251">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ251">
         <v>0.83</v>
@@ -55228,7 +55231,7 @@
         <v>1.46</v>
       </c>
       <c r="AP260">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ260">
         <v>1.47</v>
@@ -56879,7 +56882,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ268">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR268">
         <v>1.25</v>
@@ -57906,7 +57909,7 @@
         <v>0.23</v>
       </c>
       <c r="AP273">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ273">
         <v>0.39</v>
@@ -59969,7 +59972,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ283">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR283">
         <v>1.3</v>
@@ -63056,7 +63059,7 @@
         <v>1.07</v>
       </c>
       <c r="AP298">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ298">
         <v>1.11</v>
@@ -66764,7 +66767,7 @@
         <v>2.06</v>
       </c>
       <c r="AP316">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ316">
         <v>1.84</v>
@@ -66973,7 +66976,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ317">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR317">
         <v>1.8</v>
@@ -68412,7 +68415,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP324">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ324">
         <v>0.72</v>
@@ -71711,7 +71714,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ340">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR340">
         <v>1.32</v>
@@ -72326,7 +72329,7 @@
         <v>2.75</v>
       </c>
       <c r="AP343">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ343">
         <v>2.61</v>
@@ -74389,7 +74392,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ353">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="AR353">
         <v>1.57</v>
@@ -76525,6 +76528,212 @@
       </c>
       <c r="BP363">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:68">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>6745754</v>
+      </c>
+      <c r="C364" t="s">
+        <v>68</v>
+      </c>
+      <c r="D364" t="s">
+        <v>69</v>
+      </c>
+      <c r="E364" s="2">
+        <v>45431.3125</v>
+      </c>
+      <c r="F364">
+        <v>37</v>
+      </c>
+      <c r="G364" t="s">
+        <v>75</v>
+      </c>
+      <c r="H364" t="s">
+        <v>88</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>0</v>
+      </c>
+      <c r="L364">
+        <v>0</v>
+      </c>
+      <c r="M364">
+        <v>2</v>
+      </c>
+      <c r="N364">
+        <v>2</v>
+      </c>
+      <c r="O364" t="s">
+        <v>90</v>
+      </c>
+      <c r="P364" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q364">
+        <v>2.59</v>
+      </c>
+      <c r="R364">
+        <v>2.13</v>
+      </c>
+      <c r="S364">
+        <v>3.37</v>
+      </c>
+      <c r="T364">
+        <v>1.38</v>
+      </c>
+      <c r="U364">
+        <v>3</v>
+      </c>
+      <c r="V364">
+        <v>2.75</v>
+      </c>
+      <c r="W364">
+        <v>1.44</v>
+      </c>
+      <c r="X364">
+        <v>6.5</v>
+      </c>
+      <c r="Y364">
+        <v>1.1</v>
+      </c>
+      <c r="Z364">
+        <v>2.2</v>
+      </c>
+      <c r="AA364">
+        <v>3.5</v>
+      </c>
+      <c r="AB364">
+        <v>3.2</v>
+      </c>
+      <c r="AC364">
+        <v>1.06</v>
+      </c>
+      <c r="AD364">
+        <v>12.5</v>
+      </c>
+      <c r="AE364">
+        <v>1.28</v>
+      </c>
+      <c r="AF364">
+        <v>3.75</v>
+      </c>
+      <c r="AG364">
+        <v>1.83</v>
+      </c>
+      <c r="AH364">
+        <v>1.93</v>
+      </c>
+      <c r="AI364">
+        <v>1.68</v>
+      </c>
+      <c r="AJ364">
+        <v>2.15</v>
+      </c>
+      <c r="AK364">
+        <v>1.31</v>
+      </c>
+      <c r="AL364">
+        <v>1.25</v>
+      </c>
+      <c r="AM364">
+        <v>1.64</v>
+      </c>
+      <c r="AN364">
+        <v>1.11</v>
+      </c>
+      <c r="AO364">
+        <v>0.44</v>
+      </c>
+      <c r="AP364">
+        <v>1.05</v>
+      </c>
+      <c r="AQ364">
+        <v>0.58</v>
+      </c>
+      <c r="AR364">
+        <v>1.35</v>
+      </c>
+      <c r="AS364">
+        <v>1.11</v>
+      </c>
+      <c r="AT364">
+        <v>2.46</v>
+      </c>
+      <c r="AU364">
+        <v>0</v>
+      </c>
+      <c r="AV364">
+        <v>3</v>
+      </c>
+      <c r="AW364">
+        <v>4</v>
+      </c>
+      <c r="AX364">
+        <v>5</v>
+      </c>
+      <c r="AY364">
+        <v>4</v>
+      </c>
+      <c r="AZ364">
+        <v>8</v>
+      </c>
+      <c r="BA364">
+        <v>5</v>
+      </c>
+      <c r="BB364">
+        <v>6</v>
+      </c>
+      <c r="BC364">
+        <v>11</v>
+      </c>
+      <c r="BD364">
+        <v>1.73</v>
+      </c>
+      <c r="BE364">
+        <v>9.5</v>
+      </c>
+      <c r="BF364">
+        <v>2.48</v>
+      </c>
+      <c r="BG364">
+        <v>1.22</v>
+      </c>
+      <c r="BH364">
+        <v>3.8</v>
+      </c>
+      <c r="BI364">
+        <v>1.36</v>
+      </c>
+      <c r="BJ364">
+        <v>2.88</v>
+      </c>
+      <c r="BK364">
+        <v>1.62</v>
+      </c>
+      <c r="BL364">
+        <v>2.25</v>
+      </c>
+      <c r="BM364">
+        <v>2</v>
+      </c>
+      <c r="BN364">
+        <v>1.79</v>
+      </c>
+      <c r="BO364">
+        <v>2.54</v>
+      </c>
+      <c r="BP364">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="459">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1389,6 +1389,9 @@
   <si>
     <t>['71', '90+1']</t>
   </si>
+  <si>
+    <t>['22', '45+3']</t>
+  </si>
 </sst>
 </file>
 
@@ -1749,7 +1752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP368"/>
+  <dimension ref="A1:BP369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2089,7 +2092,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ2">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -5794,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ20">
         <v>1.11</v>
@@ -6209,7 +6212,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ22">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR22">
         <v>1</v>
@@ -9914,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ40">
         <v>1.11</v>
@@ -10326,7 +10329,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ42">
         <v>0.53</v>
@@ -10741,7 +10744,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ44">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR44">
         <v>1.8</v>
@@ -14858,7 +14861,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ64">
         <v>2.61</v>
@@ -16097,7 +16100,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ70">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR70">
         <v>1.28</v>
@@ -17745,7 +17748,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ78">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR78">
         <v>1.17</v>
@@ -19390,7 +19393,7 @@
         <v>0.25</v>
       </c>
       <c r="AP86">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ86">
         <v>0.58</v>
@@ -21247,7 +21250,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ95">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR95">
         <v>1.57</v>
@@ -22892,7 +22895,7 @@
         <v>2.2</v>
       </c>
       <c r="AP103">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ103">
         <v>1.47</v>
@@ -24955,7 +24958,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ113">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR113">
         <v>0.91</v>
@@ -26806,7 +26809,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ122">
         <v>1.42</v>
@@ -30105,7 +30108,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ138">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR138">
         <v>1.46</v>
@@ -32162,7 +32165,7 @@
         <v>0.86</v>
       </c>
       <c r="AP148">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ148">
         <v>1.5</v>
@@ -34225,7 +34228,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ158">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR158">
         <v>1.72</v>
@@ -35664,7 +35667,7 @@
         <v>1.75</v>
       </c>
       <c r="AP165">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ165">
         <v>1.84</v>
@@ -39375,7 +39378,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ183">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR183">
         <v>1.81</v>
@@ -40814,7 +40817,7 @@
         <v>2.22</v>
       </c>
       <c r="AP190">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ190">
         <v>1.67</v>
@@ -43289,7 +43292,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ202">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR202">
         <v>1.41</v>
@@ -44110,7 +44113,7 @@
         <v>0.8</v>
       </c>
       <c r="AP206">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ206">
         <v>1</v>
@@ -46376,7 +46379,7 @@
         <v>0.8</v>
       </c>
       <c r="AP217">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ217">
         <v>1.28</v>
@@ -47821,7 +47824,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ224">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR224">
         <v>1.96</v>
@@ -48642,7 +48645,7 @@
         <v>0.82</v>
       </c>
       <c r="AP228">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ228">
         <v>0.84</v>
@@ -49675,7 +49678,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ233">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR233">
         <v>1.31</v>
@@ -53177,7 +53180,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ250">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR250">
         <v>1.44</v>
@@ -53586,7 +53589,7 @@
         <v>1.08</v>
       </c>
       <c r="AP252">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ252">
         <v>1.17</v>
@@ -58739,7 +58742,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ277">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR277">
         <v>1.52</v>
@@ -60384,7 +60387,7 @@
         <v>0.43</v>
       </c>
       <c r="AP285">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ285">
         <v>0.72</v>
@@ -62859,7 +62862,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ297">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR297">
         <v>1.47</v>
@@ -63680,7 +63683,7 @@
         <v>0.53</v>
       </c>
       <c r="AP301">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ301">
         <v>0.5</v>
@@ -67391,7 +67394,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ319">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR319">
         <v>1.82</v>
@@ -68830,7 +68833,7 @@
         <v>1.07</v>
       </c>
       <c r="AP326">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ326">
         <v>1.12</v>
@@ -70481,7 +70484,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ334">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR334">
         <v>1.31</v>
@@ -73568,7 +73571,7 @@
         <v>1.29</v>
       </c>
       <c r="AP349">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AQ349">
         <v>1.47</v>
@@ -76676,19 +76679,19 @@
         <v>0</v>
       </c>
       <c r="AV364">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW364">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX364">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AY364">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AZ364">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BA364">
         <v>5</v>
@@ -77291,22 +77294,22 @@
         <v>2.99</v>
       </c>
       <c r="AU367">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV367">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW367">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AX367">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY367">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AZ367">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA367">
         <v>8</v>
@@ -77561,6 +77564,212 @@
       </c>
       <c r="BP368">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:68">
+      <c r="A369" s="1">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>6745753</v>
+      </c>
+      <c r="C369" t="s">
+        <v>68</v>
+      </c>
+      <c r="D369" t="s">
+        <v>69</v>
+      </c>
+      <c r="E369" s="2">
+        <v>45432.5625</v>
+      </c>
+      <c r="F369">
+        <v>37</v>
+      </c>
+      <c r="G369" t="s">
+        <v>87</v>
+      </c>
+      <c r="H369" t="s">
+        <v>82</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="J369">
+        <v>2</v>
+      </c>
+      <c r="K369">
+        <v>2</v>
+      </c>
+      <c r="L369">
+        <v>1</v>
+      </c>
+      <c r="M369">
+        <v>2</v>
+      </c>
+      <c r="N369">
+        <v>3</v>
+      </c>
+      <c r="O369" t="s">
+        <v>148</v>
+      </c>
+      <c r="P369" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q369">
+        <v>5</v>
+      </c>
+      <c r="R369">
+        <v>2.25</v>
+      </c>
+      <c r="S369">
+        <v>2.3</v>
+      </c>
+      <c r="T369">
+        <v>1.36</v>
+      </c>
+      <c r="U369">
+        <v>3</v>
+      </c>
+      <c r="V369">
+        <v>2.75</v>
+      </c>
+      <c r="W369">
+        <v>1.4</v>
+      </c>
+      <c r="X369">
+        <v>7</v>
+      </c>
+      <c r="Y369">
+        <v>1.1</v>
+      </c>
+      <c r="Z369">
+        <v>4.5</v>
+      </c>
+      <c r="AA369">
+        <v>3.6</v>
+      </c>
+      <c r="AB369">
+        <v>1.75</v>
+      </c>
+      <c r="AC369">
+        <v>1.05</v>
+      </c>
+      <c r="AD369">
+        <v>12</v>
+      </c>
+      <c r="AE369">
+        <v>1.29</v>
+      </c>
+      <c r="AF369">
+        <v>3.63</v>
+      </c>
+      <c r="AG369">
+        <v>1.92</v>
+      </c>
+      <c r="AH369">
+        <v>1.76</v>
+      </c>
+      <c r="AI369">
+        <v>1.8</v>
+      </c>
+      <c r="AJ369">
+        <v>1.95</v>
+      </c>
+      <c r="AK369">
+        <v>2.05</v>
+      </c>
+      <c r="AL369">
+        <v>1.28</v>
+      </c>
+      <c r="AM369">
+        <v>1.2</v>
+      </c>
+      <c r="AN369">
+        <v>0.44</v>
+      </c>
+      <c r="AO369">
+        <v>0.61</v>
+      </c>
+      <c r="AP369">
+        <v>0.42</v>
+      </c>
+      <c r="AQ369">
+        <v>0.74</v>
+      </c>
+      <c r="AR369">
+        <v>1.21</v>
+      </c>
+      <c r="AS369">
+        <v>1.15</v>
+      </c>
+      <c r="AT369">
+        <v>2.36</v>
+      </c>
+      <c r="AU369">
+        <v>0</v>
+      </c>
+      <c r="AV369">
+        <v>4</v>
+      </c>
+      <c r="AW369">
+        <v>0</v>
+      </c>
+      <c r="AX369">
+        <v>5</v>
+      </c>
+      <c r="AY369">
+        <v>0</v>
+      </c>
+      <c r="AZ369">
+        <v>9</v>
+      </c>
+      <c r="BA369">
+        <v>1</v>
+      </c>
+      <c r="BB369">
+        <v>6</v>
+      </c>
+      <c r="BC369">
+        <v>7</v>
+      </c>
+      <c r="BD369">
+        <v>2.35</v>
+      </c>
+      <c r="BE369">
+        <v>8</v>
+      </c>
+      <c r="BF369">
+        <v>1.77</v>
+      </c>
+      <c r="BG369">
+        <v>1.22</v>
+      </c>
+      <c r="BH369">
+        <v>3.45</v>
+      </c>
+      <c r="BI369">
+        <v>1.43</v>
+      </c>
+      <c r="BJ369">
+        <v>2.5</v>
+      </c>
+      <c r="BK369">
+        <v>1.75</v>
+      </c>
+      <c r="BL369">
+        <v>1.94</v>
+      </c>
+      <c r="BM369">
+        <v>2.18</v>
+      </c>
+      <c r="BN369">
+        <v>1.58</v>
+      </c>
+      <c r="BO369">
+        <v>2.8</v>
+      </c>
+      <c r="BP369">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="461">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -982,6 +982,9 @@
     <t>['90+14']</t>
   </si>
   <si>
+    <t>['2', '11', '53']</t>
+  </si>
+  <si>
     <t>['24', '42', '79']</t>
   </si>
   <si>
@@ -1392,6 +1395,9 @@
   <si>
     <t>['22', '45+3']</t>
   </si>
+  <si>
+    <t>['76', '83', '84']</t>
+  </si>
 </sst>
 </file>
 
@@ -1752,7 +1758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP369"/>
+  <dimension ref="A1:BP370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2217,7 +2223,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q3">
         <v>7.5</v>
@@ -2423,7 +2429,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2835,7 +2841,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -3041,7 +3047,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -3453,7 +3459,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3534,7 +3540,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ9">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3865,7 +3871,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q11">
         <v>4.33</v>
@@ -3943,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AQ11">
         <v>1.84</v>
@@ -4483,7 +4489,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4895,7 +4901,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -5307,7 +5313,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q18">
         <v>2.1</v>
@@ -5925,7 +5931,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q21">
         <v>6.5</v>
@@ -6337,7 +6343,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6749,7 +6755,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6827,7 +6833,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AQ25">
         <v>0.58</v>
@@ -6955,7 +6961,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -7985,7 +7991,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -8066,7 +8072,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ31">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR31">
         <v>1.21</v>
@@ -8603,7 +8609,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -9221,7 +9227,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -9427,7 +9433,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9839,7 +9845,7 @@
         <v>90</v>
       </c>
       <c r="P40" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -10869,7 +10875,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10950,7 +10956,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ45">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR45">
         <v>1.32</v>
@@ -11075,7 +11081,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -11693,7 +11699,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -11977,7 +11983,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AQ50">
         <v>1.47</v>
@@ -12105,7 +12111,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -12517,7 +12523,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12929,7 +12935,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13341,7 +13347,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q57">
         <v>1.8</v>
@@ -13753,7 +13759,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -14165,7 +14171,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14371,7 +14377,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q62">
         <v>4.5</v>
@@ -14783,7 +14789,7 @@
         <v>90</v>
       </c>
       <c r="P64" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -15067,7 +15073,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AQ65">
         <v>0.84</v>
@@ -15195,7 +15201,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15482,7 +15488,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ67">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR67">
         <v>1.81</v>
@@ -15813,7 +15819,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -16637,7 +16643,7 @@
         <v>139</v>
       </c>
       <c r="P73" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16843,7 +16849,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -17873,7 +17879,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -18079,7 +18085,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18285,7 +18291,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18491,7 +18497,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18697,7 +18703,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18903,7 +18909,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -19315,7 +19321,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19521,7 +19527,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q87">
         <v>2.3</v>
@@ -19599,7 +19605,7 @@
         <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AQ87">
         <v>0.53</v>
@@ -19933,7 +19939,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -20014,7 +20020,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ89">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR89">
         <v>1.49</v>
@@ -20345,7 +20351,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q91">
         <v>1.91</v>
@@ -21375,7 +21381,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21581,7 +21587,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21993,7 +21999,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -22199,7 +22205,7 @@
         <v>90</v>
       </c>
       <c r="P100" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -22689,7 +22695,7 @@
         <v>1.2</v>
       </c>
       <c r="AP102">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AQ102">
         <v>1.42</v>
@@ -22817,7 +22823,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -23023,7 +23029,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -23229,7 +23235,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -23435,7 +23441,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -24134,7 +24140,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ109">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR109">
         <v>1.66</v>
@@ -24671,7 +24677,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q112">
         <v>2.2</v>
@@ -25083,7 +25089,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -26113,7 +26119,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -26937,7 +26943,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -27555,7 +27561,7 @@
         <v>178</v>
       </c>
       <c r="P126" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q126">
         <v>3.2</v>
@@ -27761,7 +27767,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q127">
         <v>3.2</v>
@@ -28173,7 +28179,7 @@
         <v>157</v>
       </c>
       <c r="P129" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -28379,7 +28385,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28663,7 +28669,7 @@
         <v>1.17</v>
       </c>
       <c r="AP131">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AQ131">
         <v>1.11</v>
@@ -28791,7 +28797,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q132">
         <v>4.33</v>
@@ -28872,7 +28878,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ132">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR132">
         <v>1.58</v>
@@ -29409,7 +29415,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q135">
         <v>1.91</v>
@@ -29615,7 +29621,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -30027,7 +30033,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q138">
         <v>2.38</v>
@@ -30233,7 +30239,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -30439,7 +30445,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q140">
         <v>3.4</v>
@@ -31263,7 +31269,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -32087,7 +32093,7 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32293,7 +32299,7 @@
         <v>195</v>
       </c>
       <c r="P149" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -32992,7 +32998,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ152">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR152">
         <v>1.1</v>
@@ -33117,7 +33123,7 @@
         <v>198</v>
       </c>
       <c r="P153" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33941,7 +33947,7 @@
         <v>201</v>
       </c>
       <c r="P157" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -34431,7 +34437,7 @@
         <v>1.14</v>
       </c>
       <c r="AP159">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AQ159">
         <v>1.28</v>
@@ -34559,7 +34565,7 @@
         <v>90</v>
       </c>
       <c r="P160" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -34971,7 +34977,7 @@
         <v>90</v>
       </c>
       <c r="P162" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -35177,7 +35183,7 @@
         <v>205</v>
       </c>
       <c r="P163" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35589,7 +35595,7 @@
         <v>206</v>
       </c>
       <c r="P165" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q165">
         <v>6.5</v>
@@ -35795,7 +35801,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q166">
         <v>5.5</v>
@@ -35876,7 +35882,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ166">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR166">
         <v>1.29</v>
@@ -36079,7 +36085,7 @@
         <v>1.25</v>
       </c>
       <c r="AP167">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AQ167">
         <v>1.47</v>
@@ -39169,7 +39175,7 @@
         <v>0.78</v>
       </c>
       <c r="AP182">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AQ182">
         <v>1</v>
@@ -39503,7 +39509,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q184">
         <v>3.25</v>
@@ -39709,7 +39715,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q185">
         <v>2.88</v>
@@ -40121,7 +40127,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -40533,7 +40539,7 @@
         <v>214</v>
       </c>
       <c r="P189" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -40739,7 +40745,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q190">
         <v>7</v>
@@ -40820,7 +40826,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ190">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR190">
         <v>1.32</v>
@@ -41769,7 +41775,7 @@
         <v>224</v>
       </c>
       <c r="P195" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q195">
         <v>6.5</v>
@@ -42387,7 +42393,7 @@
         <v>226</v>
       </c>
       <c r="P198" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q198">
         <v>2.3</v>
@@ -43211,7 +43217,7 @@
         <v>230</v>
       </c>
       <c r="P202" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q202">
         <v>2.05</v>
@@ -43417,7 +43423,7 @@
         <v>231</v>
       </c>
       <c r="P203" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q203">
         <v>4.5</v>
@@ -44035,7 +44041,7 @@
         <v>234</v>
       </c>
       <c r="P206" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q206">
         <v>4.33</v>
@@ -44241,7 +44247,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -44322,7 +44328,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ207">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR207">
         <v>1.57</v>
@@ -44447,7 +44453,7 @@
         <v>235</v>
       </c>
       <c r="P208" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q208">
         <v>4.33</v>
@@ -45065,7 +45071,7 @@
         <v>238</v>
       </c>
       <c r="P211" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -46301,7 +46307,7 @@
         <v>132</v>
       </c>
       <c r="P217" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q217">
         <v>5.5</v>
@@ -46507,7 +46513,7 @@
         <v>241</v>
       </c>
       <c r="P218" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -47125,7 +47131,7 @@
         <v>242</v>
       </c>
       <c r="P221" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q221">
         <v>4.75</v>
@@ -47331,7 +47337,7 @@
         <v>243</v>
       </c>
       <c r="P222" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q222">
         <v>2.38</v>
@@ -47409,7 +47415,7 @@
         <v>0.73</v>
       </c>
       <c r="AP222">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AQ222">
         <v>0.5</v>
@@ -47949,7 +47955,7 @@
         <v>245</v>
       </c>
       <c r="P225" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q225">
         <v>2.75</v>
@@ -48236,7 +48242,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ226">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR226">
         <v>1.81</v>
@@ -48567,7 +48573,7 @@
         <v>224</v>
       </c>
       <c r="P228" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q228">
         <v>3.2</v>
@@ -48773,7 +48779,7 @@
         <v>191</v>
       </c>
       <c r="P229" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q229">
         <v>4.33</v>
@@ -48979,7 +48985,7 @@
         <v>247</v>
       </c>
       <c r="P230" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -49391,7 +49397,7 @@
         <v>248</v>
       </c>
       <c r="P232" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q232">
         <v>2.05</v>
@@ -49881,7 +49887,7 @@
         <v>0.45</v>
       </c>
       <c r="AP234">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AQ234">
         <v>0.72</v>
@@ -50009,7 +50015,7 @@
         <v>191</v>
       </c>
       <c r="P235" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50705,7 +50711,7 @@
         <v>1.27</v>
       </c>
       <c r="AP238">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AQ238">
         <v>1.12</v>
@@ -51451,7 +51457,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q242">
         <v>6</v>
@@ -51532,7 +51538,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ242">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR242">
         <v>1.31</v>
@@ -51863,7 +51869,7 @@
         <v>255</v>
       </c>
       <c r="P244" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q244">
         <v>3</v>
@@ -52481,7 +52487,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q247">
         <v>4.33</v>
@@ -52687,7 +52693,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q248">
         <v>4.5</v>
@@ -52893,7 +52899,7 @@
         <v>90</v>
       </c>
       <c r="P249" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q249">
         <v>3.4</v>
@@ -53177,7 +53183,7 @@
         <v>0.46</v>
       </c>
       <c r="AP250">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AQ250">
         <v>0.74</v>
@@ -53305,7 +53311,7 @@
         <v>260</v>
       </c>
       <c r="P251" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q251">
         <v>2.75</v>
@@ -53511,7 +53517,7 @@
         <v>90</v>
       </c>
       <c r="P252" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q252">
         <v>3.6</v>
@@ -53923,7 +53929,7 @@
         <v>262</v>
       </c>
       <c r="P254" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q254">
         <v>1.8</v>
@@ -54335,7 +54341,7 @@
         <v>90</v>
       </c>
       <c r="P256" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -54747,7 +54753,7 @@
         <v>264</v>
       </c>
       <c r="P258" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q258">
         <v>2.63</v>
@@ -54953,7 +54959,7 @@
         <v>265</v>
       </c>
       <c r="P259" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -55159,7 +55165,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -55983,7 +55989,7 @@
         <v>145</v>
       </c>
       <c r="P264" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -57013,7 +57019,7 @@
         <v>205</v>
       </c>
       <c r="P269" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q269">
         <v>2.6</v>
@@ -57300,7 +57306,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ270">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR270">
         <v>2.03</v>
@@ -58043,7 +58049,7 @@
         <v>271</v>
       </c>
       <c r="P274" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q274">
         <v>2.5</v>
@@ -58327,7 +58333,7 @@
         <v>2.69</v>
       </c>
       <c r="AP275">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AQ275">
         <v>2.61</v>
@@ -58455,7 +58461,7 @@
         <v>272</v>
       </c>
       <c r="P276" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q276">
         <v>3</v>
@@ -59073,7 +59079,7 @@
         <v>169</v>
       </c>
       <c r="P279" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q279">
         <v>2.88</v>
@@ -59279,7 +59285,7 @@
         <v>274</v>
       </c>
       <c r="P280" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59485,7 +59491,7 @@
         <v>152</v>
       </c>
       <c r="P281" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q281">
         <v>2.6</v>
@@ -60103,7 +60109,7 @@
         <v>90</v>
       </c>
       <c r="P284" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q284">
         <v>3.6</v>
@@ -60515,7 +60521,7 @@
         <v>276</v>
       </c>
       <c r="P286" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q286">
         <v>3.75</v>
@@ -60927,7 +60933,7 @@
         <v>277</v>
       </c>
       <c r="P288" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q288">
         <v>5</v>
@@ -61545,7 +61551,7 @@
         <v>90</v>
       </c>
       <c r="P291" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q291">
         <v>2.63</v>
@@ -61751,7 +61757,7 @@
         <v>279</v>
       </c>
       <c r="P292" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q292">
         <v>2.6</v>
@@ -62244,7 +62250,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ294">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR294">
         <v>1.27</v>
@@ -62369,7 +62375,7 @@
         <v>237</v>
       </c>
       <c r="P295" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q295">
         <v>3.4</v>
@@ -62653,7 +62659,7 @@
         <v>0.5</v>
       </c>
       <c r="AP296">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AQ296">
         <v>0.44</v>
@@ -63605,7 +63611,7 @@
         <v>285</v>
       </c>
       <c r="P301" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q301">
         <v>3.5</v>
@@ -64223,7 +64229,7 @@
         <v>287</v>
       </c>
       <c r="P304" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q304">
         <v>4.33</v>
@@ -64635,7 +64641,7 @@
         <v>288</v>
       </c>
       <c r="P306" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q306">
         <v>4.33</v>
@@ -64841,7 +64847,7 @@
         <v>121</v>
       </c>
       <c r="P307" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q307">
         <v>3.5</v>
@@ -65047,7 +65053,7 @@
         <v>269</v>
       </c>
       <c r="P308" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q308">
         <v>4.75</v>
@@ -65459,7 +65465,7 @@
         <v>273</v>
       </c>
       <c r="P310" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65665,7 +65671,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q311">
         <v>1.8</v>
@@ -66158,7 +66164,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ313">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR313">
         <v>1.35</v>
@@ -66361,7 +66367,7 @@
         <v>1.27</v>
       </c>
       <c r="AP314">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AQ314">
         <v>1.17</v>
@@ -66489,7 +66495,7 @@
         <v>292</v>
       </c>
       <c r="P315" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q315">
         <v>1.8</v>
@@ -66695,7 +66701,7 @@
         <v>293</v>
       </c>
       <c r="P316" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q316">
         <v>4.75</v>
@@ -66901,7 +66907,7 @@
         <v>294</v>
       </c>
       <c r="P317" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q317">
         <v>1.57</v>
@@ -67725,7 +67731,7 @@
         <v>297</v>
       </c>
       <c r="P321" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q321">
         <v>5.5</v>
@@ -67806,7 +67812,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ321">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR321">
         <v>1.42</v>
@@ -68343,7 +68349,7 @@
         <v>90</v>
       </c>
       <c r="P324" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q324">
         <v>3</v>
@@ -68755,7 +68761,7 @@
         <v>90</v>
       </c>
       <c r="P326" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q326">
         <v>5</v>
@@ -68961,7 +68967,7 @@
         <v>291</v>
       </c>
       <c r="P327" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q327">
         <v>4.5</v>
@@ -69167,7 +69173,7 @@
         <v>299</v>
       </c>
       <c r="P328" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q328">
         <v>3.2</v>
@@ -69373,7 +69379,7 @@
         <v>101</v>
       </c>
       <c r="P329" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q329">
         <v>4</v>
@@ -69579,7 +69585,7 @@
         <v>300</v>
       </c>
       <c r="P330" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q330">
         <v>4</v>
@@ -70893,7 +70899,7 @@
         <v>1</v>
       </c>
       <c r="AP336">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AQ336">
         <v>1.11</v>
@@ -71227,7 +71233,7 @@
         <v>304</v>
       </c>
       <c r="P338" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q338">
         <v>2.5</v>
@@ -72051,7 +72057,7 @@
         <v>307</v>
       </c>
       <c r="P342" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q342">
         <v>4.75</v>
@@ -72463,7 +72469,7 @@
         <v>309</v>
       </c>
       <c r="P344" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q344">
         <v>2.9</v>
@@ -73081,7 +73087,7 @@
         <v>311</v>
       </c>
       <c r="P347" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q347">
         <v>2.11</v>
@@ -73368,7 +73374,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ348">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR348">
         <v>1.33</v>
@@ -73493,7 +73499,7 @@
         <v>255</v>
       </c>
       <c r="P349" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q349">
         <v>7</v>
@@ -73905,7 +73911,7 @@
         <v>90</v>
       </c>
       <c r="P351" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q351">
         <v>5</v>
@@ -74111,7 +74117,7 @@
         <v>90</v>
       </c>
       <c r="P352" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q352">
         <v>2.75</v>
@@ -74317,7 +74323,7 @@
         <v>313</v>
       </c>
       <c r="P353" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q353">
         <v>1.91</v>
@@ -74729,7 +74735,7 @@
         <v>315</v>
       </c>
       <c r="P355" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q355">
         <v>3.6</v>
@@ -75347,7 +75353,7 @@
         <v>317</v>
       </c>
       <c r="P358" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q358">
         <v>2.63</v>
@@ -75553,7 +75559,7 @@
         <v>90</v>
       </c>
       <c r="P359" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q359">
         <v>3.4</v>
@@ -75965,7 +75971,7 @@
         <v>319</v>
       </c>
       <c r="P361" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q361">
         <v>3</v>
@@ -76171,7 +76177,7 @@
         <v>90</v>
       </c>
       <c r="P362" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q362">
         <v>4.75</v>
@@ -76583,7 +76589,7 @@
         <v>90</v>
       </c>
       <c r="P364" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q364">
         <v>2.59</v>
@@ -77294,22 +77300,22 @@
         <v>2.99</v>
       </c>
       <c r="AU367">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV367">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW367">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AX367">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY367">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ367">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA367">
         <v>8</v>
@@ -77613,7 +77619,7 @@
         <v>148</v>
       </c>
       <c r="P369" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q369">
         <v>5</v>
@@ -77712,25 +77718,25 @@
         <v>4</v>
       </c>
       <c r="AW369">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AX369">
         <v>5</v>
       </c>
       <c r="AY369">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AZ369">
         <v>9</v>
       </c>
       <c r="BA369">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB369">
         <v>6</v>
       </c>
       <c r="BC369">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD369">
         <v>2.35</v>
@@ -77770,6 +77776,212 @@
       </c>
       <c r="BP369">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="370" spans="1:68">
+      <c r="A370" s="1">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>6745747</v>
+      </c>
+      <c r="C370" t="s">
+        <v>68</v>
+      </c>
+      <c r="D370" t="s">
+        <v>69</v>
+      </c>
+      <c r="E370" s="2">
+        <v>45432.65625</v>
+      </c>
+      <c r="F370">
+        <v>37</v>
+      </c>
+      <c r="G370" t="s">
+        <v>79</v>
+      </c>
+      <c r="H370" t="s">
+        <v>84</v>
+      </c>
+      <c r="I370">
+        <v>2</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+      <c r="K370">
+        <v>2</v>
+      </c>
+      <c r="L370">
+        <v>3</v>
+      </c>
+      <c r="M370">
+        <v>3</v>
+      </c>
+      <c r="N370">
+        <v>6</v>
+      </c>
+      <c r="O370" t="s">
+        <v>322</v>
+      </c>
+      <c r="P370" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q370">
+        <v>3.2</v>
+      </c>
+      <c r="R370">
+        <v>2</v>
+      </c>
+      <c r="S370">
+        <v>3.75</v>
+      </c>
+      <c r="T370">
+        <v>1.5</v>
+      </c>
+      <c r="U370">
+        <v>2.5</v>
+      </c>
+      <c r="V370">
+        <v>3.5</v>
+      </c>
+      <c r="W370">
+        <v>1.29</v>
+      </c>
+      <c r="X370">
+        <v>11</v>
+      </c>
+      <c r="Y370">
+        <v>1.05</v>
+      </c>
+      <c r="Z370">
+        <v>2.45</v>
+      </c>
+      <c r="AA370">
+        <v>3</v>
+      </c>
+      <c r="AB370">
+        <v>3</v>
+      </c>
+      <c r="AC370">
+        <v>1.09</v>
+      </c>
+      <c r="AD370">
+        <v>8.15</v>
+      </c>
+      <c r="AE370">
+        <v>1.43</v>
+      </c>
+      <c r="AF370">
+        <v>2.84</v>
+      </c>
+      <c r="AG370">
+        <v>2.45</v>
+      </c>
+      <c r="AH370">
+        <v>1.47</v>
+      </c>
+      <c r="AI370">
+        <v>1.95</v>
+      </c>
+      <c r="AJ370">
+        <v>1.8</v>
+      </c>
+      <c r="AK370">
+        <v>1.34</v>
+      </c>
+      <c r="AL370">
+        <v>1.32</v>
+      </c>
+      <c r="AM370">
+        <v>1.5</v>
+      </c>
+      <c r="AN370">
+        <v>2.22</v>
+      </c>
+      <c r="AO370">
+        <v>1.67</v>
+      </c>
+      <c r="AP370">
+        <v>2.16</v>
+      </c>
+      <c r="AQ370">
+        <v>1.63</v>
+      </c>
+      <c r="AR370">
+        <v>1.43</v>
+      </c>
+      <c r="AS370">
+        <v>1.3</v>
+      </c>
+      <c r="AT370">
+        <v>2.73</v>
+      </c>
+      <c r="AU370">
+        <v>2</v>
+      </c>
+      <c r="AV370">
+        <v>2</v>
+      </c>
+      <c r="AW370">
+        <v>1</v>
+      </c>
+      <c r="AX370">
+        <v>3</v>
+      </c>
+      <c r="AY370">
+        <v>3</v>
+      </c>
+      <c r="AZ370">
+        <v>5</v>
+      </c>
+      <c r="BA370">
+        <v>3</v>
+      </c>
+      <c r="BB370">
+        <v>2</v>
+      </c>
+      <c r="BC370">
+        <v>5</v>
+      </c>
+      <c r="BD370">
+        <v>1.75</v>
+      </c>
+      <c r="BE370">
+        <v>7.5</v>
+      </c>
+      <c r="BF370">
+        <v>2.43</v>
+      </c>
+      <c r="BG370">
+        <v>1.34</v>
+      </c>
+      <c r="BH370">
+        <v>2.8</v>
+      </c>
+      <c r="BI370">
+        <v>1.63</v>
+      </c>
+      <c r="BJ370">
+        <v>2.1</v>
+      </c>
+      <c r="BK370">
+        <v>2.02</v>
+      </c>
+      <c r="BL370">
+        <v>1.67</v>
+      </c>
+      <c r="BM370">
+        <v>2.63</v>
+      </c>
+      <c r="BN370">
+        <v>1.38</v>
+      </c>
+      <c r="BO370">
+        <v>3.55</v>
+      </c>
+      <c r="BP370">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
@@ -77712,22 +77712,22 @@
         <v>2.36</v>
       </c>
       <c r="AU369">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV369">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW369">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX369">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AY369">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AZ369">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BA369">
         <v>4</v>
@@ -77918,22 +77918,22 @@
         <v>2.73</v>
       </c>
       <c r="AU370">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV370">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW370">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX370">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY370">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AZ370">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BA370">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="463">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -985,6 +985,9 @@
     <t>['2', '11', '53']</t>
   </si>
   <si>
+    <t>['64', '85']</t>
+  </si>
+  <si>
     <t>['24', '42', '79']</t>
   </si>
   <si>
@@ -1398,6 +1401,9 @@
   <si>
     <t>['76', '83', '84']</t>
   </si>
+  <si>
+    <t>['39', '89', '90+13']</t>
+  </si>
 </sst>
 </file>
 
@@ -1758,7 +1764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP370"/>
+  <dimension ref="A1:BP372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2223,7 +2229,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q3">
         <v>7.5</v>
@@ -2429,7 +2435,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2507,10 +2513,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ4">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2841,7 +2847,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -3047,7 +3053,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -3459,7 +3465,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3871,7 +3877,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q11">
         <v>4.33</v>
@@ -4489,7 +4495,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4901,7 +4907,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -5188,7 +5194,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5313,7 +5319,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q18">
         <v>2.1</v>
@@ -5931,7 +5937,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q21">
         <v>6.5</v>
@@ -6009,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ21">
         <v>2.61</v>
@@ -6343,7 +6349,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6755,7 +6761,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6961,7 +6967,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -7660,7 +7666,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ29">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR29">
         <v>1.73</v>
@@ -7991,7 +7997,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -8609,7 +8615,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8687,7 +8693,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ34">
         <v>1.47</v>
@@ -8893,7 +8899,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ35">
         <v>1.11</v>
@@ -9227,7 +9233,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -9433,7 +9439,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9845,7 +9851,7 @@
         <v>90</v>
       </c>
       <c r="P40" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -10132,7 +10138,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR41">
         <v>0.76</v>
@@ -10875,7 +10881,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -11081,7 +11087,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -11699,7 +11705,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -11780,7 +11786,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ49">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR49">
         <v>1.56</v>
@@ -12111,7 +12117,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -12523,7 +12529,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12601,7 +12607,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ53">
         <v>1.84</v>
@@ -12935,7 +12941,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13347,7 +13353,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q57">
         <v>1.8</v>
@@ -13759,7 +13765,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13840,7 +13846,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ59">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR59">
         <v>1.22</v>
@@ -14046,7 +14052,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR60">
         <v>2.12</v>
@@ -14171,7 +14177,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14249,7 +14255,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ61">
         <v>1.28</v>
@@ -14377,7 +14383,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q62">
         <v>4.5</v>
@@ -14789,7 +14795,7 @@
         <v>90</v>
       </c>
       <c r="P64" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -15201,7 +15207,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15819,7 +15825,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -16643,7 +16649,7 @@
         <v>139</v>
       </c>
       <c r="P73" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16849,7 +16855,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16930,7 +16936,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ74">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR74">
         <v>1.73</v>
@@ -17339,7 +17345,7 @@
         <v>2.25</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ76">
         <v>1.84</v>
@@ -17879,7 +17885,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -18085,7 +18091,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18163,7 +18169,7 @@
         <v>0.33</v>
       </c>
       <c r="AP80">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ80">
         <v>1.28</v>
@@ -18291,7 +18297,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18372,7 +18378,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ81">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR81">
         <v>2.13</v>
@@ -18497,7 +18503,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18703,7 +18709,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18909,7 +18915,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -19321,7 +19327,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19527,7 +19533,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q87">
         <v>2.3</v>
@@ -19939,7 +19945,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -20351,7 +20357,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q91">
         <v>1.91</v>
@@ -20635,7 +20641,7 @@
         <v>0.25</v>
       </c>
       <c r="AP92">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ92">
         <v>0.44</v>
@@ -20844,7 +20850,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ93">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR93">
         <v>1.43</v>
@@ -21381,7 +21387,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21459,7 +21465,7 @@
         <v>0.5</v>
       </c>
       <c r="AP96">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ96">
         <v>0.53</v>
@@ -21587,7 +21593,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21999,7 +22005,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -22205,7 +22211,7 @@
         <v>90</v>
       </c>
       <c r="P100" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -22492,7 +22498,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ101">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR101">
         <v>1.2</v>
@@ -22823,7 +22829,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -23029,7 +23035,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -23235,7 +23241,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -23441,7 +23447,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -23725,7 +23731,7 @@
         <v>0.8</v>
       </c>
       <c r="AP107">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ107">
         <v>1</v>
@@ -24677,7 +24683,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q112">
         <v>2.2</v>
@@ -24961,7 +24967,7 @@
         <v>0.67</v>
       </c>
       <c r="AP113">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ113">
         <v>0.74</v>
@@ -25089,7 +25095,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -26119,7 +26125,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -26200,7 +26206,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ119">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR119">
         <v>1.76</v>
@@ -26943,7 +26949,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -27230,7 +27236,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ124">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR124">
         <v>1.39</v>
@@ -27433,7 +27439,7 @@
         <v>1.17</v>
       </c>
       <c r="AP125">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ125">
         <v>1.17</v>
@@ -27561,7 +27567,7 @@
         <v>178</v>
       </c>
       <c r="P126" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q126">
         <v>3.2</v>
@@ -27767,7 +27773,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q127">
         <v>3.2</v>
@@ -28179,7 +28185,7 @@
         <v>157</v>
       </c>
       <c r="P129" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -28385,7 +28391,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28797,7 +28803,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q132">
         <v>4.33</v>
@@ -29081,7 +29087,7 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ133">
         <v>0.84</v>
@@ -29415,7 +29421,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q135">
         <v>1.91</v>
@@ -29621,7 +29627,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29702,7 +29708,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ136">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR136">
         <v>1.61</v>
@@ -30033,7 +30039,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q138">
         <v>2.38</v>
@@ -30239,7 +30245,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -30445,7 +30451,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q140">
         <v>3.4</v>
@@ -31269,7 +31275,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -32093,7 +32099,7 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32174,7 +32180,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ148">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR148">
         <v>1.34</v>
@@ -32299,7 +32305,7 @@
         <v>195</v>
       </c>
       <c r="P149" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -32380,7 +32386,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ149">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR149">
         <v>1.47</v>
@@ -32789,7 +32795,7 @@
         <v>1.17</v>
       </c>
       <c r="AP151">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ151">
         <v>0.5</v>
@@ -32995,7 +33001,7 @@
         <v>2.29</v>
       </c>
       <c r="AP152">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ152">
         <v>1.63</v>
@@ -33123,7 +33129,7 @@
         <v>198</v>
       </c>
       <c r="P153" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33947,7 +33953,7 @@
         <v>201</v>
       </c>
       <c r="P157" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -34565,7 +34571,7 @@
         <v>90</v>
       </c>
       <c r="P160" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -34977,7 +34983,7 @@
         <v>90</v>
       </c>
       <c r="P162" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -35183,7 +35189,7 @@
         <v>205</v>
       </c>
       <c r="P163" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35470,7 +35476,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ164">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR164">
         <v>1.44</v>
@@ -35595,7 +35601,7 @@
         <v>206</v>
       </c>
       <c r="P165" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q165">
         <v>6.5</v>
@@ -35801,7 +35807,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q166">
         <v>5.5</v>
@@ -37527,7 +37533,7 @@
         <v>2.75</v>
       </c>
       <c r="AP174">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ174">
         <v>2.61</v>
@@ -38145,7 +38151,7 @@
         <v>0.88</v>
       </c>
       <c r="AP177">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ177">
         <v>0.84</v>
@@ -38354,7 +38360,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ178">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR178">
         <v>1.43</v>
@@ -39509,7 +39515,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q184">
         <v>3.25</v>
@@ -39715,7 +39721,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q185">
         <v>2.88</v>
@@ -40002,7 +40008,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ186">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR186">
         <v>1.52</v>
@@ -40127,7 +40133,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -40539,7 +40545,7 @@
         <v>214</v>
       </c>
       <c r="P189" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -40745,7 +40751,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q190">
         <v>7</v>
@@ -41235,7 +41241,7 @@
         <v>0.89</v>
       </c>
       <c r="AP192">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ192">
         <v>1.11</v>
@@ -41775,7 +41781,7 @@
         <v>224</v>
       </c>
       <c r="P195" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q195">
         <v>6.5</v>
@@ -42265,10 +42271,10 @@
         <v>1</v>
       </c>
       <c r="AP197">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ197">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR197">
         <v>1.49</v>
@@ -42393,7 +42399,7 @@
         <v>226</v>
       </c>
       <c r="P198" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q198">
         <v>2.3</v>
@@ -43217,7 +43223,7 @@
         <v>230</v>
       </c>
       <c r="P202" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q202">
         <v>2.05</v>
@@ -43423,7 +43429,7 @@
         <v>231</v>
       </c>
       <c r="P203" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q203">
         <v>4.5</v>
@@ -44041,7 +44047,7 @@
         <v>234</v>
       </c>
       <c r="P206" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q206">
         <v>4.33</v>
@@ -44247,7 +44253,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -44453,7 +44459,7 @@
         <v>235</v>
       </c>
       <c r="P208" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q208">
         <v>4.33</v>
@@ -44531,7 +44537,7 @@
         <v>0.9</v>
       </c>
       <c r="AP208">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ208">
         <v>1.11</v>
@@ -45071,7 +45077,7 @@
         <v>238</v>
       </c>
       <c r="P211" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45152,7 +45158,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ211">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR211">
         <v>1.41</v>
@@ -45355,7 +45361,7 @@
         <v>0.5</v>
       </c>
       <c r="AP212">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ212">
         <v>0.72</v>
@@ -46307,7 +46313,7 @@
         <v>132</v>
       </c>
       <c r="P217" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q217">
         <v>5.5</v>
@@ -46513,7 +46519,7 @@
         <v>241</v>
       </c>
       <c r="P218" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -46594,7 +46600,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ218">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR218">
         <v>1.52</v>
@@ -47131,7 +47137,7 @@
         <v>242</v>
       </c>
       <c r="P221" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q221">
         <v>4.75</v>
@@ -47337,7 +47343,7 @@
         <v>243</v>
       </c>
       <c r="P222" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q222">
         <v>2.38</v>
@@ -47955,7 +47961,7 @@
         <v>245</v>
       </c>
       <c r="P225" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q225">
         <v>2.75</v>
@@ -48573,7 +48579,7 @@
         <v>224</v>
       </c>
       <c r="P228" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q228">
         <v>3.2</v>
@@ -48779,7 +48785,7 @@
         <v>191</v>
       </c>
       <c r="P229" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q229">
         <v>4.33</v>
@@ -48857,7 +48863,7 @@
         <v>1.18</v>
       </c>
       <c r="AP229">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ229">
         <v>1.42</v>
@@ -48985,7 +48991,7 @@
         <v>247</v>
       </c>
       <c r="P230" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -49397,7 +49403,7 @@
         <v>248</v>
       </c>
       <c r="P232" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q232">
         <v>2.05</v>
@@ -50015,7 +50021,7 @@
         <v>191</v>
       </c>
       <c r="P235" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50093,7 +50099,7 @@
         <v>1.1</v>
       </c>
       <c r="AP235">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ235">
         <v>1.47</v>
@@ -50714,7 +50720,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ238">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR238">
         <v>1.41</v>
@@ -51457,7 +51463,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q242">
         <v>6</v>
@@ -51869,7 +51875,7 @@
         <v>255</v>
       </c>
       <c r="P244" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q244">
         <v>3</v>
@@ -51950,7 +51956,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ244">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR244">
         <v>1.19</v>
@@ -52362,7 +52368,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ246">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR246">
         <v>1.28</v>
@@ -52487,7 +52493,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q247">
         <v>4.33</v>
@@ -52693,7 +52699,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q248">
         <v>4.5</v>
@@ -52899,7 +52905,7 @@
         <v>90</v>
       </c>
       <c r="P249" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q249">
         <v>3.4</v>
@@ -53311,7 +53317,7 @@
         <v>260</v>
       </c>
       <c r="P251" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q251">
         <v>2.75</v>
@@ -53517,7 +53523,7 @@
         <v>90</v>
       </c>
       <c r="P252" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q252">
         <v>3.6</v>
@@ -53801,7 +53807,7 @@
         <v>1</v>
       </c>
       <c r="AP253">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ253">
         <v>1.11</v>
@@ -53929,7 +53935,7 @@
         <v>262</v>
       </c>
       <c r="P254" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q254">
         <v>1.8</v>
@@ -54213,7 +54219,7 @@
         <v>1.5</v>
       </c>
       <c r="AP255">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ255">
         <v>1.47</v>
@@ -54341,7 +54347,7 @@
         <v>90</v>
       </c>
       <c r="P256" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -54753,7 +54759,7 @@
         <v>264</v>
       </c>
       <c r="P258" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q258">
         <v>2.63</v>
@@ -54959,7 +54965,7 @@
         <v>265</v>
       </c>
       <c r="P259" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -55165,7 +55171,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -55989,7 +55995,7 @@
         <v>145</v>
       </c>
       <c r="P264" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56276,7 +56282,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ265">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR265">
         <v>1.37</v>
@@ -57019,7 +57025,7 @@
         <v>205</v>
       </c>
       <c r="P269" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q269">
         <v>2.6</v>
@@ -57100,7 +57106,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ269">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR269">
         <v>1.88</v>
@@ -58049,7 +58055,7 @@
         <v>271</v>
       </c>
       <c r="P274" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q274">
         <v>2.5</v>
@@ -58127,7 +58133,7 @@
         <v>0.54</v>
       </c>
       <c r="AP274">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ274">
         <v>0.44</v>
@@ -58461,7 +58467,7 @@
         <v>272</v>
       </c>
       <c r="P276" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q276">
         <v>3</v>
@@ -58539,7 +58545,7 @@
         <v>1.23</v>
       </c>
       <c r="AP276">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ276">
         <v>1.17</v>
@@ -59079,7 +59085,7 @@
         <v>169</v>
       </c>
       <c r="P279" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q279">
         <v>2.88</v>
@@ -59285,7 +59291,7 @@
         <v>274</v>
       </c>
       <c r="P280" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59491,7 +59497,7 @@
         <v>152</v>
       </c>
       <c r="P281" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q281">
         <v>2.6</v>
@@ -59778,7 +59784,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ282">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR282">
         <v>1.26</v>
@@ -60109,7 +60115,7 @@
         <v>90</v>
       </c>
       <c r="P284" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q284">
         <v>3.6</v>
@@ -60521,7 +60527,7 @@
         <v>276</v>
       </c>
       <c r="P286" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q286">
         <v>3.75</v>
@@ -60933,7 +60939,7 @@
         <v>277</v>
       </c>
       <c r="P288" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q288">
         <v>5</v>
@@ -61551,7 +61557,7 @@
         <v>90</v>
       </c>
       <c r="P291" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q291">
         <v>2.63</v>
@@ -61757,7 +61763,7 @@
         <v>279</v>
       </c>
       <c r="P292" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q292">
         <v>2.6</v>
@@ -61835,7 +61841,7 @@
         <v>0.21</v>
       </c>
       <c r="AP292">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ292">
         <v>0.53</v>
@@ -62375,7 +62381,7 @@
         <v>237</v>
       </c>
       <c r="P295" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q295">
         <v>3.4</v>
@@ -62865,7 +62871,7 @@
         <v>0.6</v>
       </c>
       <c r="AP297">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ297">
         <v>0.74</v>
@@ -63611,7 +63617,7 @@
         <v>285</v>
       </c>
       <c r="P301" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q301">
         <v>3.5</v>
@@ -64229,7 +64235,7 @@
         <v>287</v>
       </c>
       <c r="P304" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q304">
         <v>4.33</v>
@@ -64516,7 +64522,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ305">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR305">
         <v>1.41</v>
@@ -64641,7 +64647,7 @@
         <v>288</v>
       </c>
       <c r="P306" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q306">
         <v>4.33</v>
@@ -64847,7 +64853,7 @@
         <v>121</v>
       </c>
       <c r="P307" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q307">
         <v>3.5</v>
@@ -65053,7 +65059,7 @@
         <v>269</v>
       </c>
       <c r="P308" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q308">
         <v>4.75</v>
@@ -65131,7 +65137,7 @@
         <v>1.27</v>
       </c>
       <c r="AP308">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ308">
         <v>1.47</v>
@@ -65340,7 +65346,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ309">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR309">
         <v>1.53</v>
@@ -65465,7 +65471,7 @@
         <v>273</v>
       </c>
       <c r="P310" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65671,7 +65677,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q311">
         <v>1.8</v>
@@ -66495,7 +66501,7 @@
         <v>292</v>
       </c>
       <c r="P315" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q315">
         <v>1.8</v>
@@ -66701,7 +66707,7 @@
         <v>293</v>
       </c>
       <c r="P316" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q316">
         <v>4.75</v>
@@ -66907,7 +66913,7 @@
         <v>294</v>
       </c>
       <c r="P317" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q317">
         <v>1.57</v>
@@ -67603,7 +67609,7 @@
         <v>1.38</v>
       </c>
       <c r="AP320">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ320">
         <v>1.42</v>
@@ -67731,7 +67737,7 @@
         <v>297</v>
       </c>
       <c r="P321" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q321">
         <v>5.5</v>
@@ -67809,7 +67815,7 @@
         <v>1.75</v>
       </c>
       <c r="AP321">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ321">
         <v>1.63</v>
@@ -68349,7 +68355,7 @@
         <v>90</v>
       </c>
       <c r="P324" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q324">
         <v>3</v>
@@ -68761,7 +68767,7 @@
         <v>90</v>
       </c>
       <c r="P326" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q326">
         <v>5</v>
@@ -68842,7 +68848,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ326">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR326">
         <v>1.27</v>
@@ -68967,7 +68973,7 @@
         <v>291</v>
       </c>
       <c r="P327" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q327">
         <v>4.5</v>
@@ -69173,7 +69179,7 @@
         <v>299</v>
       </c>
       <c r="P328" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q328">
         <v>3.2</v>
@@ -69254,7 +69260,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ328">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR328">
         <v>1.31</v>
@@ -69379,7 +69385,7 @@
         <v>101</v>
       </c>
       <c r="P329" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q329">
         <v>4</v>
@@ -69585,7 +69591,7 @@
         <v>300</v>
       </c>
       <c r="P330" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q330">
         <v>4</v>
@@ -71233,7 +71239,7 @@
         <v>304</v>
       </c>
       <c r="P338" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q338">
         <v>2.5</v>
@@ -71723,7 +71729,7 @@
         <v>0.5</v>
       </c>
       <c r="AP340">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ340">
         <v>0.58</v>
@@ -71932,7 +71938,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ341">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR341">
         <v>1.32</v>
@@ -72057,7 +72063,7 @@
         <v>307</v>
       </c>
       <c r="P342" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q342">
         <v>4.75</v>
@@ -72469,7 +72475,7 @@
         <v>309</v>
       </c>
       <c r="P344" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q344">
         <v>2.9</v>
@@ -72547,7 +72553,7 @@
         <v>0.71</v>
       </c>
       <c r="AP344">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ344">
         <v>0.72</v>
@@ -72962,7 +72968,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ346">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR346">
         <v>1.36</v>
@@ -73087,7 +73093,7 @@
         <v>311</v>
       </c>
       <c r="P347" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q347">
         <v>2.11</v>
@@ -73499,7 +73505,7 @@
         <v>255</v>
       </c>
       <c r="P349" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q349">
         <v>7</v>
@@ -73911,7 +73917,7 @@
         <v>90</v>
       </c>
       <c r="P351" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q351">
         <v>5</v>
@@ -74117,7 +74123,7 @@
         <v>90</v>
       </c>
       <c r="P352" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q352">
         <v>2.75</v>
@@ -74198,7 +74204,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ352">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR352">
         <v>2.03</v>
@@ -74323,7 +74329,7 @@
         <v>313</v>
       </c>
       <c r="P353" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q353">
         <v>1.91</v>
@@ -74735,7 +74741,7 @@
         <v>315</v>
       </c>
       <c r="P355" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q355">
         <v>3.6</v>
@@ -75019,7 +75025,7 @@
         <v>0.53</v>
       </c>
       <c r="AP356">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ356">
         <v>0.5</v>
@@ -75353,7 +75359,7 @@
         <v>317</v>
       </c>
       <c r="P358" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q358">
         <v>2.63</v>
@@ -75559,7 +75565,7 @@
         <v>90</v>
       </c>
       <c r="P359" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q359">
         <v>3.4</v>
@@ -75971,7 +75977,7 @@
         <v>319</v>
       </c>
       <c r="P361" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q361">
         <v>3</v>
@@ -76177,7 +76183,7 @@
         <v>90</v>
       </c>
       <c r="P362" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q362">
         <v>4.75</v>
@@ -76589,7 +76595,7 @@
         <v>90</v>
       </c>
       <c r="P364" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q364">
         <v>2.59</v>
@@ -77619,7 +77625,7 @@
         <v>148</v>
       </c>
       <c r="P369" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q369">
         <v>5</v>
@@ -77825,7 +77831,7 @@
         <v>322</v>
       </c>
       <c r="P370" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q370">
         <v>3.2</v>
@@ -77982,6 +77988,418 @@
       </c>
       <c r="BP370">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="371" spans="1:68">
+      <c r="A371" s="1">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>6745758</v>
+      </c>
+      <c r="C371" t="s">
+        <v>68</v>
+      </c>
+      <c r="D371" t="s">
+        <v>69</v>
+      </c>
+      <c r="E371" s="2">
+        <v>45435.65625</v>
+      </c>
+      <c r="F371">
+        <v>38</v>
+      </c>
+      <c r="G371" t="s">
+        <v>88</v>
+      </c>
+      <c r="H371" t="s">
+        <v>83</v>
+      </c>
+      <c r="I371">
+        <v>0</v>
+      </c>
+      <c r="J371">
+        <v>1</v>
+      </c>
+      <c r="K371">
+        <v>1</v>
+      </c>
+      <c r="L371">
+        <v>2</v>
+      </c>
+      <c r="M371">
+        <v>3</v>
+      </c>
+      <c r="N371">
+        <v>5</v>
+      </c>
+      <c r="O371" t="s">
+        <v>323</v>
+      </c>
+      <c r="P371" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q371">
+        <v>4.5</v>
+      </c>
+      <c r="R371">
+        <v>2.3</v>
+      </c>
+      <c r="S371">
+        <v>2.3</v>
+      </c>
+      <c r="T371">
+        <v>1.33</v>
+      </c>
+      <c r="U371">
+        <v>3.25</v>
+      </c>
+      <c r="V371">
+        <v>2.63</v>
+      </c>
+      <c r="W371">
+        <v>1.44</v>
+      </c>
+      <c r="X371">
+        <v>6.5</v>
+      </c>
+      <c r="Y371">
+        <v>1.11</v>
+      </c>
+      <c r="Z371">
+        <v>1.78</v>
+      </c>
+      <c r="AA371">
+        <v>5.23</v>
+      </c>
+      <c r="AB371">
+        <v>2.8</v>
+      </c>
+      <c r="AC371">
+        <v>1.05</v>
+      </c>
+      <c r="AD371">
+        <v>9.5</v>
+      </c>
+      <c r="AE371">
+        <v>1.25</v>
+      </c>
+      <c r="AF371">
+        <v>3.95</v>
+      </c>
+      <c r="AG371">
+        <v>2.01</v>
+      </c>
+      <c r="AH371">
+        <v>1.81</v>
+      </c>
+      <c r="AI371">
+        <v>1.7</v>
+      </c>
+      <c r="AJ371">
+        <v>2.05</v>
+      </c>
+      <c r="AK371">
+        <v>2.05</v>
+      </c>
+      <c r="AL371">
+        <v>1.22</v>
+      </c>
+      <c r="AM371">
+        <v>1.22</v>
+      </c>
+      <c r="AN371">
+        <v>1.39</v>
+      </c>
+      <c r="AO371">
+        <v>1.12</v>
+      </c>
+      <c r="AP371">
+        <v>1.32</v>
+      </c>
+      <c r="AQ371">
+        <v>1.22</v>
+      </c>
+      <c r="AR371">
+        <v>1.37</v>
+      </c>
+      <c r="AS371">
+        <v>1.36</v>
+      </c>
+      <c r="AT371">
+        <v>2.73</v>
+      </c>
+      <c r="AU371">
+        <v>7</v>
+      </c>
+      <c r="AV371">
+        <v>6</v>
+      </c>
+      <c r="AW371">
+        <v>8</v>
+      </c>
+      <c r="AX371">
+        <v>6</v>
+      </c>
+      <c r="AY371">
+        <v>15</v>
+      </c>
+      <c r="AZ371">
+        <v>12</v>
+      </c>
+      <c r="BA371">
+        <v>4</v>
+      </c>
+      <c r="BB371">
+        <v>5</v>
+      </c>
+      <c r="BC371">
+        <v>9</v>
+      </c>
+      <c r="BD371">
+        <v>2.85</v>
+      </c>
+      <c r="BE371">
+        <v>8.5</v>
+      </c>
+      <c r="BF371">
+        <v>1.55</v>
+      </c>
+      <c r="BG371">
+        <v>1.33</v>
+      </c>
+      <c r="BH371">
+        <v>3.1</v>
+      </c>
+      <c r="BI371">
+        <v>1.51</v>
+      </c>
+      <c r="BJ371">
+        <v>2.37</v>
+      </c>
+      <c r="BK371">
+        <v>1.9</v>
+      </c>
+      <c r="BL371">
+        <v>1.8</v>
+      </c>
+      <c r="BM371">
+        <v>2.47</v>
+      </c>
+      <c r="BN371">
+        <v>1.48</v>
+      </c>
+      <c r="BO371">
+        <v>3.4</v>
+      </c>
+      <c r="BP371">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="372" spans="1:68">
+      <c r="A372" s="1">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>6745761</v>
+      </c>
+      <c r="C372" t="s">
+        <v>68</v>
+      </c>
+      <c r="D372" t="s">
+        <v>69</v>
+      </c>
+      <c r="E372" s="2">
+        <v>45436.65625</v>
+      </c>
+      <c r="F372">
+        <v>38</v>
+      </c>
+      <c r="G372" t="s">
+        <v>72</v>
+      </c>
+      <c r="H372" t="s">
+        <v>79</v>
+      </c>
+      <c r="I372">
+        <v>1</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>1</v>
+      </c>
+      <c r="L372">
+        <v>2</v>
+      </c>
+      <c r="M372">
+        <v>0</v>
+      </c>
+      <c r="N372">
+        <v>2</v>
+      </c>
+      <c r="O372" t="s">
+        <v>310</v>
+      </c>
+      <c r="P372" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q372">
+        <v>4</v>
+      </c>
+      <c r="R372">
+        <v>2</v>
+      </c>
+      <c r="S372">
+        <v>3</v>
+      </c>
+      <c r="T372">
+        <v>1.5</v>
+      </c>
+      <c r="U372">
+        <v>2.5</v>
+      </c>
+      <c r="V372">
+        <v>3.4</v>
+      </c>
+      <c r="W372">
+        <v>1.3</v>
+      </c>
+      <c r="X372">
+        <v>10</v>
+      </c>
+      <c r="Y372">
+        <v>1.06</v>
+      </c>
+      <c r="Z372">
+        <v>3.1</v>
+      </c>
+      <c r="AA372">
+        <v>3</v>
+      </c>
+      <c r="AB372">
+        <v>2.26</v>
+      </c>
+      <c r="AC372">
+        <v>1.08</v>
+      </c>
+      <c r="AD372">
+        <v>8.5</v>
+      </c>
+      <c r="AE372">
+        <v>1.44</v>
+      </c>
+      <c r="AF372">
+        <v>2.8</v>
+      </c>
+      <c r="AG372">
+        <v>2.25</v>
+      </c>
+      <c r="AH372">
+        <v>1.57</v>
+      </c>
+      <c r="AI372">
+        <v>1.95</v>
+      </c>
+      <c r="AJ372">
+        <v>1.8</v>
+      </c>
+      <c r="AK372">
+        <v>1.65</v>
+      </c>
+      <c r="AL372">
+        <v>1.3</v>
+      </c>
+      <c r="AM372">
+        <v>1.36</v>
+      </c>
+      <c r="AN372">
+        <v>1.5</v>
+      </c>
+      <c r="AO372">
+        <v>1.5</v>
+      </c>
+      <c r="AP372">
+        <v>1.58</v>
+      </c>
+      <c r="AQ372">
+        <v>1.42</v>
+      </c>
+      <c r="AR372">
+        <v>1.3</v>
+      </c>
+      <c r="AS372">
+        <v>1.25</v>
+      </c>
+      <c r="AT372">
+        <v>2.55</v>
+      </c>
+      <c r="AU372">
+        <v>4</v>
+      </c>
+      <c r="AV372">
+        <v>2</v>
+      </c>
+      <c r="AW372">
+        <v>11</v>
+      </c>
+      <c r="AX372">
+        <v>10</v>
+      </c>
+      <c r="AY372">
+        <v>15</v>
+      </c>
+      <c r="AZ372">
+        <v>12</v>
+      </c>
+      <c r="BA372">
+        <v>3</v>
+      </c>
+      <c r="BB372">
+        <v>6</v>
+      </c>
+      <c r="BC372">
+        <v>9</v>
+      </c>
+      <c r="BD372">
+        <v>2.05</v>
+      </c>
+      <c r="BE372">
+        <v>7.5</v>
+      </c>
+      <c r="BF372">
+        <v>2.05</v>
+      </c>
+      <c r="BG372">
+        <v>1.42</v>
+      </c>
+      <c r="BH372">
+        <v>2.65</v>
+      </c>
+      <c r="BI372">
+        <v>1.7</v>
+      </c>
+      <c r="BJ372">
+        <v>2.05</v>
+      </c>
+      <c r="BK372">
+        <v>2.1</v>
+      </c>
+      <c r="BL372">
+        <v>1.65</v>
+      </c>
+      <c r="BM372">
+        <v>2.65</v>
+      </c>
+      <c r="BN372">
+        <v>1.42</v>
+      </c>
+      <c r="BO372">
+        <v>4.25</v>
+      </c>
+      <c r="BP372">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="466">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -988,6 +988,12 @@
     <t>['64', '85']</t>
   </si>
   <si>
+    <t>['26', '28']</t>
+  </si>
+  <si>
+    <t>['22', '27', '77']</t>
+  </si>
+  <si>
     <t>['24', '42', '79']</t>
   </si>
   <si>
@@ -1404,6 +1410,9 @@
   <si>
     <t>['39', '89', '90+13']</t>
   </si>
+  <si>
+    <t>['64', '87', '89']</t>
+  </si>
 </sst>
 </file>
 
@@ -1764,7 +1773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP372"/>
+  <dimension ref="A1:BP374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2229,7 +2238,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q3">
         <v>7.5</v>
@@ -2435,7 +2444,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2722,7 +2731,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ5">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2847,7 +2856,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2928,7 +2937,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ6">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3053,7 +3062,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -3465,7 +3474,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3877,7 +3886,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q11">
         <v>4.33</v>
@@ -4495,7 +4504,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4573,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ14">
         <v>1.11</v>
@@ -4907,7 +4916,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -5191,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ17">
         <v>1.42</v>
@@ -5319,7 +5328,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q18">
         <v>2.1</v>
@@ -5937,7 +5946,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q21">
         <v>6.5</v>
@@ -6349,7 +6358,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6761,7 +6770,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6967,7 +6976,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -7254,7 +7263,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ27">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -7872,7 +7881,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ30">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR30">
         <v>2.13</v>
@@ -7997,7 +8006,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -8281,7 +8290,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ32">
         <v>1.42</v>
@@ -8615,7 +8624,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -9233,7 +9242,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -9439,7 +9448,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9851,7 +9860,7 @@
         <v>90</v>
       </c>
       <c r="P40" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -10753,7 +10762,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ44">
         <v>0.74</v>
@@ -10881,7 +10890,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -11087,7 +11096,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -11168,7 +11177,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ46">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR46">
         <v>1.78</v>
@@ -11705,7 +11714,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -12117,7 +12126,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -12401,7 +12410,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ52">
         <v>0.72</v>
@@ -12529,7 +12538,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12816,7 +12825,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ54">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR54">
         <v>0.87</v>
@@ -12941,7 +12950,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13353,7 +13362,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q57">
         <v>1.8</v>
@@ -13765,7 +13774,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -14177,7 +14186,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14383,7 +14392,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q62">
         <v>4.5</v>
@@ -14667,7 +14676,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ63">
         <v>1.42</v>
@@ -14795,7 +14804,7 @@
         <v>90</v>
       </c>
       <c r="P64" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -15207,7 +15216,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15825,7 +15834,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15906,7 +15915,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ69">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR69">
         <v>1.49</v>
@@ -16649,7 +16658,7 @@
         <v>139</v>
       </c>
       <c r="P73" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16855,7 +16864,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -17139,7 +17148,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ75">
         <v>1.11</v>
@@ -17554,7 +17563,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ77">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR77">
         <v>1.81</v>
@@ -17885,7 +17894,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -18091,7 +18100,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18297,7 +18306,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18503,7 +18512,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18709,7 +18718,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18915,7 +18924,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -19202,7 +19211,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ85">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR85">
         <v>1.41</v>
@@ -19327,7 +19336,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19533,7 +19542,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q87">
         <v>2.3</v>
@@ -19945,7 +19954,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -20023,7 +20032,7 @@
         <v>1.75</v>
       </c>
       <c r="AP89">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ89">
         <v>1.63</v>
@@ -20357,7 +20366,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q91">
         <v>1.91</v>
@@ -20644,7 +20653,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ92">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR92">
         <v>0.86</v>
@@ -21259,7 +21268,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ95">
         <v>0.74</v>
@@ -21387,7 +21396,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21593,7 +21602,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -22005,7 +22014,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -22211,7 +22220,7 @@
         <v>90</v>
       </c>
       <c r="P100" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -22829,7 +22838,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -23035,7 +23044,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -23241,7 +23250,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -23319,7 +23328,7 @@
         <v>0.8</v>
       </c>
       <c r="AP105">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ105">
         <v>1.11</v>
@@ -23447,7 +23456,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -23528,7 +23537,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ106">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR106">
         <v>1.15</v>
@@ -24683,7 +24692,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q112">
         <v>2.2</v>
@@ -24764,7 +24773,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ112">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR112">
         <v>1.5</v>
@@ -25095,7 +25104,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -25379,7 +25388,7 @@
         <v>0.4</v>
       </c>
       <c r="AP115">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ115">
         <v>0.58</v>
@@ -26125,7 +26134,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -26949,7 +26958,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -27233,7 +27242,7 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ124">
         <v>1.22</v>
@@ -27442,7 +27451,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ125">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR125">
         <v>1.37</v>
@@ -27567,7 +27576,7 @@
         <v>178</v>
       </c>
       <c r="P126" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q126">
         <v>3.2</v>
@@ -27773,7 +27782,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q127">
         <v>3.2</v>
@@ -28185,7 +28194,7 @@
         <v>157</v>
       </c>
       <c r="P129" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -28263,7 +28272,7 @@
         <v>3</v>
       </c>
       <c r="AP129">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ129">
         <v>2.61</v>
@@ -28391,7 +28400,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28803,7 +28812,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q132">
         <v>4.33</v>
@@ -29421,7 +29430,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q135">
         <v>1.91</v>
@@ -29499,7 +29508,7 @@
         <v>0.33</v>
       </c>
       <c r="AP135">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ135">
         <v>0.53</v>
@@ -29627,7 +29636,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29914,7 +29923,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ137">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR137">
         <v>1.63</v>
@@ -30039,7 +30048,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q138">
         <v>2.38</v>
@@ -30245,7 +30254,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -30451,7 +30460,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q140">
         <v>3.4</v>
@@ -30941,7 +30950,7 @@
         <v>2.43</v>
       </c>
       <c r="AP142">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ142">
         <v>1.47</v>
@@ -31275,7 +31284,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -32099,7 +32108,7 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32305,7 +32314,7 @@
         <v>195</v>
       </c>
       <c r="P149" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -33129,7 +33138,7 @@
         <v>198</v>
       </c>
       <c r="P153" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33825,10 +33834,10 @@
         <v>1.14</v>
       </c>
       <c r="AP156">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ156">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR156">
         <v>1.31</v>
@@ -33953,7 +33962,7 @@
         <v>201</v>
       </c>
       <c r="P157" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -34571,7 +34580,7 @@
         <v>90</v>
       </c>
       <c r="P160" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -34858,7 +34867,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ161">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR161">
         <v>1.6</v>
@@ -34983,7 +34992,7 @@
         <v>90</v>
       </c>
       <c r="P162" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -35189,7 +35198,7 @@
         <v>205</v>
       </c>
       <c r="P163" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35601,7 +35610,7 @@
         <v>206</v>
       </c>
       <c r="P165" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q165">
         <v>6.5</v>
@@ -35807,7 +35816,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q166">
         <v>5.5</v>
@@ -37330,7 +37339,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ173">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR173">
         <v>1.88</v>
@@ -38566,7 +38575,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ179">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR179">
         <v>1.32</v>
@@ -38769,7 +38778,7 @@
         <v>1</v>
       </c>
       <c r="AP180">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ180">
         <v>0.5</v>
@@ -38975,7 +38984,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ181">
         <v>1.28</v>
@@ -39515,7 +39524,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q184">
         <v>3.25</v>
@@ -39596,7 +39605,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ184">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR184">
         <v>1.26</v>
@@ -39721,7 +39730,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q185">
         <v>2.88</v>
@@ -40133,7 +40142,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -40545,7 +40554,7 @@
         <v>214</v>
       </c>
       <c r="P189" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -40751,7 +40760,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q190">
         <v>7</v>
@@ -41450,7 +41459,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ193">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR193">
         <v>1.94</v>
@@ -41781,7 +41790,7 @@
         <v>224</v>
       </c>
       <c r="P195" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q195">
         <v>6.5</v>
@@ -42399,7 +42408,7 @@
         <v>226</v>
       </c>
       <c r="P198" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q198">
         <v>2.3</v>
@@ -42683,7 +42692,7 @@
         <v>0.89</v>
       </c>
       <c r="AP199">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ199">
         <v>1.28</v>
@@ -43095,7 +43104,7 @@
         <v>0.89</v>
       </c>
       <c r="AP201">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ201">
         <v>0.5</v>
@@ -43223,7 +43232,7 @@
         <v>230</v>
       </c>
       <c r="P202" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q202">
         <v>2.05</v>
@@ -43429,7 +43438,7 @@
         <v>231</v>
       </c>
       <c r="P203" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q203">
         <v>4.5</v>
@@ -43922,7 +43931,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ205">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR205">
         <v>1.3</v>
@@ -44047,7 +44056,7 @@
         <v>234</v>
       </c>
       <c r="P206" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q206">
         <v>4.33</v>
@@ -44253,7 +44262,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -44459,7 +44468,7 @@
         <v>235</v>
       </c>
       <c r="P208" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q208">
         <v>4.33</v>
@@ -44949,7 +44958,7 @@
         <v>0.8</v>
       </c>
       <c r="AP210">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ210">
         <v>0.84</v>
@@ -45077,7 +45086,7 @@
         <v>238</v>
       </c>
       <c r="P211" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45155,7 +45164,7 @@
         <v>0.9</v>
       </c>
       <c r="AP211">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ211">
         <v>1.42</v>
@@ -46313,7 +46322,7 @@
         <v>132</v>
       </c>
       <c r="P217" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q217">
         <v>5.5</v>
@@ -46519,7 +46528,7 @@
         <v>241</v>
       </c>
       <c r="P218" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -46806,7 +46815,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ219">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR219">
         <v>1.41</v>
@@ -47137,7 +47146,7 @@
         <v>242</v>
       </c>
       <c r="P221" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q221">
         <v>4.75</v>
@@ -47343,7 +47352,7 @@
         <v>243</v>
       </c>
       <c r="P222" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q222">
         <v>2.38</v>
@@ -47630,7 +47639,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ223">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR223">
         <v>1.36</v>
@@ -47961,7 +47970,7 @@
         <v>245</v>
       </c>
       <c r="P225" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q225">
         <v>2.75</v>
@@ -48579,7 +48588,7 @@
         <v>224</v>
       </c>
       <c r="P228" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q228">
         <v>3.2</v>
@@ -48785,7 +48794,7 @@
         <v>191</v>
       </c>
       <c r="P229" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q229">
         <v>4.33</v>
@@ -48991,7 +49000,7 @@
         <v>247</v>
       </c>
       <c r="P230" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -49403,7 +49412,7 @@
         <v>248</v>
       </c>
       <c r="P232" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q232">
         <v>2.05</v>
@@ -50021,7 +50030,7 @@
         <v>191</v>
       </c>
       <c r="P235" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50305,7 +50314,7 @@
         <v>1.64</v>
       </c>
       <c r="AP236">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ236">
         <v>1.47</v>
@@ -50511,7 +50520,7 @@
         <v>0.82</v>
       </c>
       <c r="AP237">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ237">
         <v>1.11</v>
@@ -51132,7 +51141,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ240">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR240">
         <v>1.78</v>
@@ -51463,7 +51472,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q242">
         <v>6</v>
@@ -51875,7 +51884,7 @@
         <v>255</v>
       </c>
       <c r="P244" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q244">
         <v>3</v>
@@ -52493,7 +52502,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q247">
         <v>4.33</v>
@@ -52699,7 +52708,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q248">
         <v>4.5</v>
@@ -52905,7 +52914,7 @@
         <v>90</v>
       </c>
       <c r="P249" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q249">
         <v>3.4</v>
@@ -53317,7 +53326,7 @@
         <v>260</v>
       </c>
       <c r="P251" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q251">
         <v>2.75</v>
@@ -53523,7 +53532,7 @@
         <v>90</v>
       </c>
       <c r="P252" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q252">
         <v>3.6</v>
@@ -53604,7 +53613,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ252">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR252">
         <v>1.29</v>
@@ -53935,7 +53944,7 @@
         <v>262</v>
       </c>
       <c r="P254" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q254">
         <v>1.8</v>
@@ -54013,7 +54022,7 @@
         <v>0.25</v>
       </c>
       <c r="AP254">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ254">
         <v>0.53</v>
@@ -54347,7 +54356,7 @@
         <v>90</v>
       </c>
       <c r="P256" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -54631,7 +54640,7 @@
         <v>1.27</v>
       </c>
       <c r="AP257">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ257">
         <v>1.47</v>
@@ -54759,7 +54768,7 @@
         <v>264</v>
       </c>
       <c r="P258" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q258">
         <v>2.63</v>
@@ -54965,7 +54974,7 @@
         <v>265</v>
       </c>
       <c r="P259" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -55171,7 +55180,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -55870,7 +55879,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ263">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR263">
         <v>1.43</v>
@@ -55995,7 +56004,7 @@
         <v>145</v>
       </c>
       <c r="P264" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -57025,7 +57034,7 @@
         <v>205</v>
       </c>
       <c r="P269" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q269">
         <v>2.6</v>
@@ -58055,7 +58064,7 @@
         <v>271</v>
       </c>
       <c r="P274" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q274">
         <v>2.5</v>
@@ -58136,7 +58145,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ274">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR274">
         <v>1.47</v>
@@ -58467,7 +58476,7 @@
         <v>272</v>
       </c>
       <c r="P276" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q276">
         <v>3</v>
@@ -58548,7 +58557,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ276">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR276">
         <v>1.32</v>
@@ -58957,7 +58966,7 @@
         <v>1.15</v>
       </c>
       <c r="AP278">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ278">
         <v>0.84</v>
@@ -59085,7 +59094,7 @@
         <v>169</v>
       </c>
       <c r="P279" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q279">
         <v>2.88</v>
@@ -59163,7 +59172,7 @@
         <v>1.15</v>
       </c>
       <c r="AP279">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ279">
         <v>1.47</v>
@@ -59291,7 +59300,7 @@
         <v>274</v>
       </c>
       <c r="P280" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59497,7 +59506,7 @@
         <v>152</v>
       </c>
       <c r="P281" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q281">
         <v>2.6</v>
@@ -60115,7 +60124,7 @@
         <v>90</v>
       </c>
       <c r="P284" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q284">
         <v>3.6</v>
@@ -60527,7 +60536,7 @@
         <v>276</v>
       </c>
       <c r="P286" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q286">
         <v>3.75</v>
@@ -60811,7 +60820,7 @@
         <v>0.93</v>
       </c>
       <c r="AP287">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ287">
         <v>1</v>
@@ -60939,7 +60948,7 @@
         <v>277</v>
       </c>
       <c r="P288" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q288">
         <v>5</v>
@@ -61557,7 +61566,7 @@
         <v>90</v>
       </c>
       <c r="P291" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q291">
         <v>2.63</v>
@@ -61763,7 +61772,7 @@
         <v>279</v>
       </c>
       <c r="P292" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q292">
         <v>2.6</v>
@@ -62050,7 +62059,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ293">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR293">
         <v>1.34</v>
@@ -62381,7 +62390,7 @@
         <v>237</v>
       </c>
       <c r="P295" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q295">
         <v>3.4</v>
@@ -62668,7 +62677,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ296">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR296">
         <v>1.41</v>
@@ -63617,7 +63626,7 @@
         <v>285</v>
       </c>
       <c r="P301" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q301">
         <v>3.5</v>
@@ -63901,7 +63910,7 @@
         <v>0.6</v>
       </c>
       <c r="AP302">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ302">
         <v>0.72</v>
@@ -64235,7 +64244,7 @@
         <v>287</v>
       </c>
       <c r="P304" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q304">
         <v>4.33</v>
@@ -64647,7 +64656,7 @@
         <v>288</v>
       </c>
       <c r="P306" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q306">
         <v>4.33</v>
@@ -64853,7 +64862,7 @@
         <v>121</v>
       </c>
       <c r="P307" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q307">
         <v>3.5</v>
@@ -65059,7 +65068,7 @@
         <v>269</v>
       </c>
       <c r="P308" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q308">
         <v>4.75</v>
@@ -65343,7 +65352,7 @@
         <v>1.14</v>
       </c>
       <c r="AP309">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ309">
         <v>1.22</v>
@@ -65471,7 +65480,7 @@
         <v>273</v>
       </c>
       <c r="P310" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65677,7 +65686,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q311">
         <v>1.8</v>
@@ -65758,7 +65767,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ311">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR311">
         <v>1.29</v>
@@ -66376,7 +66385,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ314">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR314">
         <v>1.41</v>
@@ -66501,7 +66510,7 @@
         <v>292</v>
       </c>
       <c r="P315" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q315">
         <v>1.8</v>
@@ -66707,7 +66716,7 @@
         <v>293</v>
       </c>
       <c r="P316" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q316">
         <v>4.75</v>
@@ -66913,7 +66922,7 @@
         <v>294</v>
       </c>
       <c r="P317" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q317">
         <v>1.57</v>
@@ -67737,7 +67746,7 @@
         <v>297</v>
       </c>
       <c r="P321" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q321">
         <v>5.5</v>
@@ -68355,7 +68364,7 @@
         <v>90</v>
       </c>
       <c r="P324" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q324">
         <v>3</v>
@@ -68767,7 +68776,7 @@
         <v>90</v>
       </c>
       <c r="P326" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q326">
         <v>5</v>
@@ -68973,7 +68982,7 @@
         <v>291</v>
       </c>
       <c r="P327" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q327">
         <v>4.5</v>
@@ -69179,7 +69188,7 @@
         <v>299</v>
       </c>
       <c r="P328" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q328">
         <v>3.2</v>
@@ -69385,7 +69394,7 @@
         <v>101</v>
       </c>
       <c r="P329" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q329">
         <v>4</v>
@@ -69463,7 +69472,7 @@
         <v>2.73</v>
       </c>
       <c r="AP329">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ329">
         <v>2.61</v>
@@ -69591,7 +69600,7 @@
         <v>300</v>
       </c>
       <c r="P330" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q330">
         <v>4</v>
@@ -69878,7 +69887,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ331">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR331">
         <v>1.4</v>
@@ -70084,7 +70093,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ332">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR332">
         <v>1.53</v>
@@ -70287,7 +70296,7 @@
         <v>2</v>
       </c>
       <c r="AP333">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ333">
         <v>1.84</v>
@@ -71239,7 +71248,7 @@
         <v>304</v>
       </c>
       <c r="P338" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q338">
         <v>2.5</v>
@@ -72063,7 +72072,7 @@
         <v>307</v>
       </c>
       <c r="P342" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q342">
         <v>4.75</v>
@@ -72475,7 +72484,7 @@
         <v>309</v>
       </c>
       <c r="P344" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q344">
         <v>2.9</v>
@@ -73093,7 +73102,7 @@
         <v>311</v>
       </c>
       <c r="P347" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q347">
         <v>2.11</v>
@@ -73171,7 +73180,7 @@
         <v>1.06</v>
       </c>
       <c r="AP347">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ347">
         <v>1</v>
@@ -73505,7 +73514,7 @@
         <v>255</v>
       </c>
       <c r="P349" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q349">
         <v>7</v>
@@ -73917,7 +73926,7 @@
         <v>90</v>
       </c>
       <c r="P351" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q351">
         <v>5</v>
@@ -74123,7 +74132,7 @@
         <v>90</v>
       </c>
       <c r="P352" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q352">
         <v>2.75</v>
@@ -74329,7 +74338,7 @@
         <v>313</v>
       </c>
       <c r="P353" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q353">
         <v>1.91</v>
@@ -74407,7 +74416,7 @@
         <v>0.47</v>
       </c>
       <c r="AP353">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ353">
         <v>0.58</v>
@@ -74741,7 +74750,7 @@
         <v>315</v>
       </c>
       <c r="P355" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q355">
         <v>3.6</v>
@@ -75231,10 +75240,10 @@
         <v>0.41</v>
       </c>
       <c r="AP357">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ357">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR357">
         <v>1.52</v>
@@ -75359,7 +75368,7 @@
         <v>317</v>
       </c>
       <c r="P358" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q358">
         <v>2.63</v>
@@ -75565,7 +75574,7 @@
         <v>90</v>
       </c>
       <c r="P359" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q359">
         <v>3.4</v>
@@ -75852,7 +75861,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ360">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR360">
         <v>1.65</v>
@@ -75977,7 +75986,7 @@
         <v>319</v>
       </c>
       <c r="P361" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q361">
         <v>3</v>
@@ -76183,7 +76192,7 @@
         <v>90</v>
       </c>
       <c r="P362" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q362">
         <v>4.75</v>
@@ -76595,7 +76604,7 @@
         <v>90</v>
       </c>
       <c r="P364" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q364">
         <v>2.59</v>
@@ -77625,7 +77634,7 @@
         <v>148</v>
       </c>
       <c r="P369" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q369">
         <v>5</v>
@@ -77831,7 +77840,7 @@
         <v>322</v>
       </c>
       <c r="P370" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q370">
         <v>3.2</v>
@@ -78037,7 +78046,7 @@
         <v>323</v>
       </c>
       <c r="P371" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q371">
         <v>4.5</v>
@@ -78400,6 +78409,418 @@
       </c>
       <c r="BP372">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="373" spans="1:68">
+      <c r="A373" s="1">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>6745763</v>
+      </c>
+      <c r="C373" t="s">
+        <v>68</v>
+      </c>
+      <c r="D373" t="s">
+        <v>69</v>
+      </c>
+      <c r="E373" s="2">
+        <v>45437.54166666666</v>
+      </c>
+      <c r="F373">
+        <v>38</v>
+      </c>
+      <c r="G373" t="s">
+        <v>84</v>
+      </c>
+      <c r="H373" t="s">
+        <v>80</v>
+      </c>
+      <c r="I373">
+        <v>2</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>2</v>
+      </c>
+      <c r="L373">
+        <v>2</v>
+      </c>
+      <c r="M373">
+        <v>0</v>
+      </c>
+      <c r="N373">
+        <v>2</v>
+      </c>
+      <c r="O373" t="s">
+        <v>324</v>
+      </c>
+      <c r="P373" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q373">
+        <v>1.8</v>
+      </c>
+      <c r="R373">
+        <v>2.65</v>
+      </c>
+      <c r="S373">
+        <v>7</v>
+      </c>
+      <c r="T373">
+        <v>1.3</v>
+      </c>
+      <c r="U373">
+        <v>3.6</v>
+      </c>
+      <c r="V373">
+        <v>2.4</v>
+      </c>
+      <c r="W373">
+        <v>1.57</v>
+      </c>
+      <c r="X373">
+        <v>5.5</v>
+      </c>
+      <c r="Y373">
+        <v>1.14</v>
+      </c>
+      <c r="Z373">
+        <v>1.33</v>
+      </c>
+      <c r="AA373">
+        <v>5.25</v>
+      </c>
+      <c r="AB373">
+        <v>8</v>
+      </c>
+      <c r="AC373">
+        <v>1.02</v>
+      </c>
+      <c r="AD373">
+        <v>17</v>
+      </c>
+      <c r="AE373">
+        <v>1.19</v>
+      </c>
+      <c r="AF373">
+        <v>4.75</v>
+      </c>
+      <c r="AG373">
+        <v>1.58</v>
+      </c>
+      <c r="AH373">
+        <v>2.29</v>
+      </c>
+      <c r="AI373">
+        <v>1.92</v>
+      </c>
+      <c r="AJ373">
+        <v>1.85</v>
+      </c>
+      <c r="AK373">
+        <v>1.05</v>
+      </c>
+      <c r="AL373">
+        <v>1.12</v>
+      </c>
+      <c r="AM373">
+        <v>3.3</v>
+      </c>
+      <c r="AN373">
+        <v>2.06</v>
+      </c>
+      <c r="AO373">
+        <v>1.17</v>
+      </c>
+      <c r="AP373">
+        <v>2.11</v>
+      </c>
+      <c r="AQ373">
+        <v>1.11</v>
+      </c>
+      <c r="AR373">
+        <v>1.56</v>
+      </c>
+      <c r="AS373">
+        <v>1.12</v>
+      </c>
+      <c r="AT373">
+        <v>2.68</v>
+      </c>
+      <c r="AU373">
+        <v>5</v>
+      </c>
+      <c r="AV373">
+        <v>5</v>
+      </c>
+      <c r="AW373">
+        <v>8</v>
+      </c>
+      <c r="AX373">
+        <v>10</v>
+      </c>
+      <c r="AY373">
+        <v>13</v>
+      </c>
+      <c r="AZ373">
+        <v>15</v>
+      </c>
+      <c r="BA373">
+        <v>3</v>
+      </c>
+      <c r="BB373">
+        <v>4</v>
+      </c>
+      <c r="BC373">
+        <v>7</v>
+      </c>
+      <c r="BD373">
+        <v>1.29</v>
+      </c>
+      <c r="BE373">
+        <v>9.5</v>
+      </c>
+      <c r="BF373">
+        <v>4.33</v>
+      </c>
+      <c r="BG373">
+        <v>1.28</v>
+      </c>
+      <c r="BH373">
+        <v>3.4</v>
+      </c>
+      <c r="BI373">
+        <v>1.45</v>
+      </c>
+      <c r="BJ373">
+        <v>2.55</v>
+      </c>
+      <c r="BK373">
+        <v>1.85</v>
+      </c>
+      <c r="BL373">
+        <v>1.85</v>
+      </c>
+      <c r="BM373">
+        <v>2.35</v>
+      </c>
+      <c r="BN373">
+        <v>1.52</v>
+      </c>
+      <c r="BO373">
+        <v>3.2</v>
+      </c>
+      <c r="BP373">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:68">
+      <c r="A374" s="1">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>6745765</v>
+      </c>
+      <c r="C374" t="s">
+        <v>68</v>
+      </c>
+      <c r="D374" t="s">
+        <v>69</v>
+      </c>
+      <c r="E374" s="2">
+        <v>45437.65625</v>
+      </c>
+      <c r="F374">
+        <v>38</v>
+      </c>
+      <c r="G374" t="s">
+        <v>81</v>
+      </c>
+      <c r="H374" t="s">
+        <v>87</v>
+      </c>
+      <c r="I374">
+        <v>2</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+      <c r="K374">
+        <v>2</v>
+      </c>
+      <c r="L374">
+        <v>3</v>
+      </c>
+      <c r="M374">
+        <v>3</v>
+      </c>
+      <c r="N374">
+        <v>6</v>
+      </c>
+      <c r="O374" t="s">
+        <v>325</v>
+      </c>
+      <c r="P374" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q374">
+        <v>1.5</v>
+      </c>
+      <c r="R374">
+        <v>3.25</v>
+      </c>
+      <c r="S374">
+        <v>9</v>
+      </c>
+      <c r="T374">
+        <v>1.17</v>
+      </c>
+      <c r="U374">
+        <v>5</v>
+      </c>
+      <c r="V374">
+        <v>1.8</v>
+      </c>
+      <c r="W374">
+        <v>1.91</v>
+      </c>
+      <c r="X374">
+        <v>3.5</v>
+      </c>
+      <c r="Y374">
+        <v>1.29</v>
+      </c>
+      <c r="Z374">
+        <v>1.17</v>
+      </c>
+      <c r="AA374">
+        <v>8</v>
+      </c>
+      <c r="AB374">
+        <v>12</v>
+      </c>
+      <c r="AC374">
+        <v>1.02</v>
+      </c>
+      <c r="AD374">
+        <v>41</v>
+      </c>
+      <c r="AE374">
+        <v>1.07</v>
+      </c>
+      <c r="AF374">
+        <v>8.5</v>
+      </c>
+      <c r="AG374">
+        <v>1.26</v>
+      </c>
+      <c r="AH374">
+        <v>3.63</v>
+      </c>
+      <c r="AI374">
+        <v>1.8</v>
+      </c>
+      <c r="AJ374">
+        <v>1.95</v>
+      </c>
+      <c r="AK374">
+        <v>1.03</v>
+      </c>
+      <c r="AL374">
+        <v>1.05</v>
+      </c>
+      <c r="AM374">
+        <v>5</v>
+      </c>
+      <c r="AN374">
+        <v>2.17</v>
+      </c>
+      <c r="AO374">
+        <v>0.44</v>
+      </c>
+      <c r="AP374">
+        <v>2.11</v>
+      </c>
+      <c r="AQ374">
+        <v>0.47</v>
+      </c>
+      <c r="AR374">
+        <v>1.59</v>
+      </c>
+      <c r="AS374">
+        <v>0.96</v>
+      </c>
+      <c r="AT374">
+        <v>2.55</v>
+      </c>
+      <c r="AU374">
+        <v>12</v>
+      </c>
+      <c r="AV374">
+        <v>7</v>
+      </c>
+      <c r="AW374">
+        <v>12</v>
+      </c>
+      <c r="AX374">
+        <v>8</v>
+      </c>
+      <c r="AY374">
+        <v>24</v>
+      </c>
+      <c r="AZ374">
+        <v>15</v>
+      </c>
+      <c r="BA374">
+        <v>13</v>
+      </c>
+      <c r="BB374">
+        <v>3</v>
+      </c>
+      <c r="BC374">
+        <v>16</v>
+      </c>
+      <c r="BD374">
+        <v>1.08</v>
+      </c>
+      <c r="BE374">
+        <v>13</v>
+      </c>
+      <c r="BF374">
+        <v>8.5</v>
+      </c>
+      <c r="BG374">
+        <v>1.32</v>
+      </c>
+      <c r="BH374">
+        <v>3.1</v>
+      </c>
+      <c r="BI374">
+        <v>1.45</v>
+      </c>
+      <c r="BJ374">
+        <v>2.55</v>
+      </c>
+      <c r="BK374">
+        <v>1.85</v>
+      </c>
+      <c r="BL374">
+        <v>1.85</v>
+      </c>
+      <c r="BM374">
+        <v>2.35</v>
+      </c>
+      <c r="BN374">
+        <v>1.52</v>
+      </c>
+      <c r="BO374">
+        <v>3.2</v>
+      </c>
+      <c r="BP374">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="469">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -994,6 +994,12 @@
     <t>['22', '27', '77']</t>
   </si>
   <si>
+    <t>['26', '43', '71']</t>
+  </si>
+  <si>
+    <t>['16', '37']</t>
+  </si>
+  <si>
     <t>['24', '42', '79']</t>
   </si>
   <si>
@@ -1413,6 +1419,9 @@
   <si>
     <t>['64', '87', '89']</t>
   </si>
+  <si>
+    <t>['10', '45+1']</t>
+  </si>
 </sst>
 </file>
 
@@ -1773,7 +1782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP374"/>
+  <dimension ref="A1:BP380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2110,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ2">
         <v>0.74</v>
@@ -2238,7 +2247,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q3">
         <v>7.5</v>
@@ -2316,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ3">
         <v>1.47</v>
@@ -2444,7 +2453,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2856,7 +2865,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -3062,7 +3071,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -3474,7 +3483,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3886,7 +3895,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q11">
         <v>4.33</v>
@@ -4376,7 +4385,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ13">
         <v>1.47</v>
@@ -4504,7 +4513,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4585,7 +4594,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ14">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4788,10 +4797,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ15">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4916,7 +4925,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -4997,7 +5006,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ16">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5328,7 +5337,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q18">
         <v>2.1</v>
@@ -5406,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -5612,10 +5621,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ19">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5821,7 +5830,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ20">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5946,7 +5955,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q21">
         <v>6.5</v>
@@ -6027,7 +6036,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ21">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6358,7 +6367,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6770,7 +6779,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6976,7 +6985,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -7054,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ26">
         <v>1.42</v>
@@ -7260,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ27">
         <v>1.11</v>
@@ -8006,7 +8015,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -8084,7 +8093,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ31">
         <v>1.63</v>
@@ -8624,7 +8633,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8911,7 +8920,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ35">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR35">
         <v>0.99</v>
@@ -9117,7 +9126,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ36">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AR36">
         <v>1.85</v>
@@ -9242,7 +9251,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -9320,10 +9329,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ37">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR37">
         <v>0.92</v>
@@ -9448,7 +9457,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9860,7 +9869,7 @@
         <v>90</v>
       </c>
       <c r="P40" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9941,7 +9950,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ40">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR40">
         <v>1.19</v>
@@ -10144,7 +10153,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ41">
         <v>1.42</v>
@@ -10890,7 +10899,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -11096,7 +11105,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -11174,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ46">
         <v>1.11</v>
@@ -11380,10 +11389,10 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ47">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AR47">
         <v>0.98</v>
@@ -11586,7 +11595,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ48">
         <v>0.58</v>
@@ -11714,7 +11723,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -12126,7 +12135,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q51">
         <v>3.75</v>
@@ -12207,7 +12216,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ51">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR51">
         <v>1.2</v>
@@ -12413,7 +12422,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ52">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AR52">
         <v>1.69</v>
@@ -12538,7 +12547,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12822,7 +12831,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ54">
         <v>0.47</v>
@@ -12950,7 +12959,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13028,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ55">
         <v>1.47</v>
@@ -13234,10 +13243,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ56">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR56">
         <v>1.98</v>
@@ -13362,7 +13371,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q57">
         <v>1.8</v>
@@ -13443,7 +13452,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ57">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR57">
         <v>1.84</v>
@@ -13646,10 +13655,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ58">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR58">
         <v>1.39</v>
@@ -13774,7 +13783,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13852,7 +13861,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ59">
         <v>1.22</v>
@@ -14186,7 +14195,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14267,7 +14276,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ61">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR61">
         <v>0.9</v>
@@ -14392,7 +14401,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q62">
         <v>4.5</v>
@@ -14804,7 +14813,7 @@
         <v>90</v>
       </c>
       <c r="P64" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -14885,7 +14894,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ64">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AR64">
         <v>1.55</v>
@@ -15216,7 +15225,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15500,7 +15509,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ67">
         <v>1.63</v>
@@ -15834,7 +15843,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -16530,10 +16539,10 @@
         <v>0.67</v>
       </c>
       <c r="AP72">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ72">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR72">
         <v>1.06</v>
@@ -16658,7 +16667,7 @@
         <v>139</v>
       </c>
       <c r="P73" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16739,7 +16748,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ73">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR73">
         <v>1.66</v>
@@ -16864,7 +16873,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -17151,7 +17160,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ75">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR75">
         <v>1.62</v>
@@ -17766,7 +17775,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ78">
         <v>0.74</v>
@@ -17894,7 +17903,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17972,7 +17981,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ79">
         <v>1.47</v>
@@ -18100,7 +18109,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18181,7 +18190,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ80">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR80">
         <v>1.16</v>
@@ -18306,7 +18315,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18384,7 +18393,7 @@
         <v>1.75</v>
       </c>
       <c r="AP81">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ81">
         <v>1.22</v>
@@ -18512,7 +18521,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18590,7 +18599,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ82">
         <v>1.47</v>
@@ -18718,7 +18727,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q83">
         <v>4.75</v>
@@ -18799,7 +18808,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ83">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AR83">
         <v>1.23</v>
@@ -18924,7 +18933,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -19336,7 +19345,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19542,7 +19551,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q87">
         <v>2.3</v>
@@ -19826,7 +19835,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19954,7 +19963,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -20241,7 +20250,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ90">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AR90">
         <v>1.51</v>
@@ -20366,7 +20375,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q91">
         <v>1.91</v>
@@ -21065,7 +21074,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ94">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR94">
         <v>1.62</v>
@@ -21396,7 +21405,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21602,7 +21611,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21683,7 +21692,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ97">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR97">
         <v>1.74</v>
@@ -21889,7 +21898,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ98">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR98">
         <v>1.68</v>
@@ -22014,7 +22023,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -22092,7 +22101,7 @@
         <v>2.4</v>
       </c>
       <c r="AP99">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ99">
         <v>1.84</v>
@@ -22220,7 +22229,7 @@
         <v>90</v>
       </c>
       <c r="P100" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -22298,7 +22307,7 @@
         <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ100">
         <v>1.47</v>
@@ -22504,7 +22513,7 @@
         <v>2</v>
       </c>
       <c r="AP101">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ101">
         <v>1.22</v>
@@ -22838,7 +22847,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -23044,7 +23053,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -23122,10 +23131,10 @@
         <v>3</v>
       </c>
       <c r="AP104">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ104">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AR104">
         <v>1.65</v>
@@ -23250,7 +23259,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -23331,7 +23340,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ105">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR105">
         <v>1.31</v>
@@ -23456,7 +23465,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -23534,7 +23543,7 @@
         <v>0.8</v>
       </c>
       <c r="AP106">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ106">
         <v>1.11</v>
@@ -23949,7 +23958,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ108">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AR108">
         <v>1.44</v>
@@ -24358,7 +24367,7 @@
         <v>0.75</v>
       </c>
       <c r="AP110">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ110">
         <v>0.84</v>
@@ -24567,7 +24576,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ111">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR111">
         <v>1.18</v>
@@ -24692,7 +24701,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q112">
         <v>2.2</v>
@@ -25104,7 +25113,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -25597,7 +25606,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ116">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR116">
         <v>1.63</v>
@@ -25800,7 +25809,7 @@
         <v>0.6</v>
       </c>
       <c r="AP117">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ117">
         <v>0.84</v>
@@ -26134,7 +26143,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -26418,10 +26427,10 @@
         <v>0.8</v>
       </c>
       <c r="AP120">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ120">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR120">
         <v>1.2</v>
@@ -26958,7 +26967,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -27036,7 +27045,7 @@
         <v>2.33</v>
       </c>
       <c r="AP123">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ123">
         <v>1.47</v>
@@ -27576,7 +27585,7 @@
         <v>178</v>
       </c>
       <c r="P126" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q126">
         <v>3.2</v>
@@ -27654,10 +27663,10 @@
         <v>0.8</v>
       </c>
       <c r="AP126">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ126">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR126">
         <v>1.13</v>
@@ -27782,7 +27791,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q127">
         <v>3.2</v>
@@ -27860,7 +27869,7 @@
         <v>0.67</v>
       </c>
       <c r="AP127">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -28069,7 +28078,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ128">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR128">
         <v>1.45</v>
@@ -28194,7 +28203,7 @@
         <v>157</v>
       </c>
       <c r="P129" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -28275,7 +28284,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ129">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AR129">
         <v>1.75</v>
@@ -28400,7 +28409,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28478,10 +28487,10 @@
         <v>0.6</v>
       </c>
       <c r="AP130">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ130">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AR130">
         <v>1.21</v>
@@ -28687,7 +28696,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ131">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR131">
         <v>1.45</v>
@@ -28812,7 +28821,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q132">
         <v>4.33</v>
@@ -29302,7 +29311,7 @@
         <v>0.33</v>
       </c>
       <c r="AP134">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ134">
         <v>0.58</v>
@@ -29430,7 +29439,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q135">
         <v>1.91</v>
@@ -29636,7 +29645,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -30048,7 +30057,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q138">
         <v>2.38</v>
@@ -30254,7 +30263,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -30335,7 +30344,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ139">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR139">
         <v>1.66</v>
@@ -30460,7 +30469,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q140">
         <v>3.4</v>
@@ -30538,10 +30547,10 @@
         <v>2.67</v>
       </c>
       <c r="AP140">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ140">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AR140">
         <v>1.93</v>
@@ -31156,7 +31165,7 @@
         <v>0.86</v>
       </c>
       <c r="AP143">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ143">
         <v>1.42</v>
@@ -31284,7 +31293,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31362,7 +31371,7 @@
         <v>2</v>
       </c>
       <c r="AP144">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ144">
         <v>1.84</v>
@@ -31571,7 +31580,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ145">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR145">
         <v>1.71</v>
@@ -31774,10 +31783,10 @@
         <v>1</v>
       </c>
       <c r="AP146">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ146">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR146">
         <v>1.3</v>
@@ -32108,7 +32117,7 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32314,7 +32323,7 @@
         <v>195</v>
       </c>
       <c r="P149" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -32598,10 +32607,10 @@
         <v>0.67</v>
       </c>
       <c r="AP150">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ150">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AR150">
         <v>1.21</v>
@@ -32807,7 +32816,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ151">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR151">
         <v>1.41</v>
@@ -33138,7 +33147,7 @@
         <v>198</v>
       </c>
       <c r="P153" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33422,7 +33431,7 @@
         <v>0.29</v>
       </c>
       <c r="AP154">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ154">
         <v>0.58</v>
@@ -33962,7 +33971,7 @@
         <v>201</v>
       </c>
       <c r="P157" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -34043,7 +34052,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ157">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR157">
         <v>1.45</v>
@@ -34455,7 +34464,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ159">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR159">
         <v>1.41</v>
@@ -34580,7 +34589,7 @@
         <v>90</v>
       </c>
       <c r="P160" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -34658,10 +34667,10 @@
         <v>2.71</v>
       </c>
       <c r="AP160">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ160">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AR160">
         <v>1.18</v>
@@ -34864,7 +34873,7 @@
         <v>0.29</v>
       </c>
       <c r="AP161">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ161">
         <v>0.47</v>
@@ -34992,7 +35001,7 @@
         <v>90</v>
       </c>
       <c r="P162" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -35070,7 +35079,7 @@
         <v>0.88</v>
       </c>
       <c r="AP162">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ162">
         <v>1.42</v>
@@ -35198,7 +35207,7 @@
         <v>205</v>
       </c>
       <c r="P163" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35610,7 +35619,7 @@
         <v>206</v>
       </c>
       <c r="P165" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q165">
         <v>6.5</v>
@@ -35816,7 +35825,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q166">
         <v>5.5</v>
@@ -35894,7 +35903,7 @@
         <v>2.13</v>
       </c>
       <c r="AP166">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ166">
         <v>1.63</v>
@@ -36309,7 +36318,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ168">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR168">
         <v>1.34</v>
@@ -36512,7 +36521,7 @@
         <v>0.25</v>
       </c>
       <c r="AP169">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ169">
         <v>0.58</v>
@@ -36721,7 +36730,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ170">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AR170">
         <v>1.77</v>
@@ -37133,7 +37142,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ172">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR172">
         <v>1.63</v>
@@ -37336,7 +37345,7 @@
         <v>1</v>
       </c>
       <c r="AP173">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ173">
         <v>1.11</v>
@@ -37545,7 +37554,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ174">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AR174">
         <v>1.13</v>
@@ -37748,7 +37757,7 @@
         <v>0.25</v>
       </c>
       <c r="AP175">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ175">
         <v>0.53</v>
@@ -37954,10 +37963,10 @@
         <v>0.63</v>
       </c>
       <c r="AP176">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ176">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AR176">
         <v>1.7</v>
@@ -38572,7 +38581,7 @@
         <v>0.25</v>
       </c>
       <c r="AP179">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ179">
         <v>0.47</v>
@@ -38781,7 +38790,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ180">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR180">
         <v>1.38</v>
@@ -38987,7 +38996,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ181">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR181">
         <v>1.52</v>
@@ -39524,7 +39533,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q184">
         <v>3.25</v>
@@ -39602,7 +39611,7 @@
         <v>1</v>
       </c>
       <c r="AP184">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ184">
         <v>1.11</v>
@@ -39730,7 +39739,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q185">
         <v>2.88</v>
@@ -40142,7 +40151,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -40220,7 +40229,7 @@
         <v>1.67</v>
       </c>
       <c r="AP187">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ187">
         <v>1.84</v>
@@ -40554,7 +40563,7 @@
         <v>214</v>
       </c>
       <c r="P189" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -40760,7 +40769,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q190">
         <v>7</v>
@@ -41253,7 +41262,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ192">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR192">
         <v>1.16</v>
@@ -41456,7 +41465,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP193">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ193">
         <v>0.47</v>
@@ -41662,7 +41671,7 @@
         <v>0.89</v>
       </c>
       <c r="AP194">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ194">
         <v>0.84</v>
@@ -41790,7 +41799,7 @@
         <v>224</v>
       </c>
       <c r="P195" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q195">
         <v>6.5</v>
@@ -41871,7 +41880,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ195">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AR195">
         <v>1.37</v>
@@ -42074,10 +42083,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP196">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ196">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AR196">
         <v>1.24</v>
@@ -42408,7 +42417,7 @@
         <v>226</v>
       </c>
       <c r="P198" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q198">
         <v>2.3</v>
@@ -42489,7 +42498,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ198">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR198">
         <v>1.58</v>
@@ -42695,7 +42704,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ199">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR199">
         <v>1.39</v>
@@ -42898,7 +42907,7 @@
         <v>0.22</v>
       </c>
       <c r="AP200">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ200">
         <v>0.53</v>
@@ -43107,7 +43116,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ201">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR201">
         <v>1.51</v>
@@ -43232,7 +43241,7 @@
         <v>230</v>
       </c>
       <c r="P202" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q202">
         <v>2.05</v>
@@ -43438,7 +43447,7 @@
         <v>231</v>
       </c>
       <c r="P203" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q203">
         <v>4.5</v>
@@ -43722,7 +43731,7 @@
         <v>0.3</v>
       </c>
       <c r="AP204">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ204">
         <v>0.58</v>
@@ -43928,7 +43937,7 @@
         <v>1.2</v>
       </c>
       <c r="AP205">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ205">
         <v>1.11</v>
@@ -44056,7 +44065,7 @@
         <v>234</v>
       </c>
       <c r="P206" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q206">
         <v>4.33</v>
@@ -44262,7 +44271,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -44468,7 +44477,7 @@
         <v>235</v>
       </c>
       <c r="P208" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q208">
         <v>4.33</v>
@@ -44549,7 +44558,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ208">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR208">
         <v>1.41</v>
@@ -44752,10 +44761,10 @@
         <v>0.9</v>
       </c>
       <c r="AP209">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ209">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR209">
         <v>1.75</v>
@@ -45086,7 +45095,7 @@
         <v>238</v>
       </c>
       <c r="P211" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45373,7 +45382,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ212">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AR212">
         <v>1.19</v>
@@ -45579,7 +45588,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ213">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR213">
         <v>1.35</v>
@@ -45782,7 +45791,7 @@
         <v>0.2</v>
       </c>
       <c r="AP214">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ214">
         <v>0.53</v>
@@ -45988,7 +45997,7 @@
         <v>1.7</v>
       </c>
       <c r="AP215">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ215">
         <v>1.47</v>
@@ -46197,7 +46206,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ216">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AR216">
         <v>1.55</v>
@@ -46322,7 +46331,7 @@
         <v>132</v>
       </c>
       <c r="P217" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q217">
         <v>5.5</v>
@@ -46403,7 +46412,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ217">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR217">
         <v>1.25</v>
@@ -46528,7 +46537,7 @@
         <v>241</v>
       </c>
       <c r="P218" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -47018,7 +47027,7 @@
         <v>1</v>
       </c>
       <c r="AP220">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ220">
         <v>1</v>
@@ -47146,7 +47155,7 @@
         <v>242</v>
       </c>
       <c r="P221" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q221">
         <v>4.75</v>
@@ -47224,7 +47233,7 @@
         <v>1.91</v>
       </c>
       <c r="AP221">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ221">
         <v>1.84</v>
@@ -47352,7 +47361,7 @@
         <v>243</v>
       </c>
       <c r="P222" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q222">
         <v>2.38</v>
@@ -47433,7 +47442,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ222">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR222">
         <v>1.36</v>
@@ -47842,7 +47851,7 @@
         <v>0.45</v>
       </c>
       <c r="AP224">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ224">
         <v>0.74</v>
@@ -47970,7 +47979,7 @@
         <v>245</v>
       </c>
       <c r="P225" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q225">
         <v>2.75</v>
@@ -48048,7 +48057,7 @@
         <v>1.3</v>
       </c>
       <c r="AP225">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ225">
         <v>1.42</v>
@@ -48588,7 +48597,7 @@
         <v>224</v>
       </c>
       <c r="P228" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q228">
         <v>3.2</v>
@@ -48794,7 +48803,7 @@
         <v>191</v>
       </c>
       <c r="P229" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q229">
         <v>4.33</v>
@@ -49000,7 +49009,7 @@
         <v>247</v>
       </c>
       <c r="P230" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q230">
         <v>4.75</v>
@@ -49081,7 +49090,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ230">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AR230">
         <v>1.38</v>
@@ -49287,7 +49296,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ231">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR231">
         <v>1.45</v>
@@ -49412,7 +49421,7 @@
         <v>248</v>
       </c>
       <c r="P232" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q232">
         <v>2.05</v>
@@ -49905,7 +49914,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ234">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AR234">
         <v>1.37</v>
@@ -50030,7 +50039,7 @@
         <v>191</v>
       </c>
       <c r="P235" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q235">
         <v>4.33</v>
@@ -50523,7 +50532,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ237">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR237">
         <v>1.44</v>
@@ -50935,7 +50944,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ239">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AR239">
         <v>1.35</v>
@@ -51344,7 +51353,7 @@
         <v>1</v>
       </c>
       <c r="AP241">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ241">
         <v>1</v>
@@ -51472,7 +51481,7 @@
         <v>253</v>
       </c>
       <c r="P242" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q242">
         <v>6</v>
@@ -51550,7 +51559,7 @@
         <v>2.17</v>
       </c>
       <c r="AP242">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ242">
         <v>1.63</v>
@@ -51756,10 +51765,10 @@
         <v>0.67</v>
       </c>
       <c r="AP243">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ243">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR243">
         <v>1.79</v>
@@ -51884,7 +51893,7 @@
         <v>255</v>
       </c>
       <c r="P244" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q244">
         <v>3</v>
@@ -51962,7 +51971,7 @@
         <v>0.91</v>
       </c>
       <c r="AP244">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ244">
         <v>1.42</v>
@@ -52374,7 +52383,7 @@
         <v>1.17</v>
       </c>
       <c r="AP246">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ246">
         <v>1.22</v>
@@ -52502,7 +52511,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q247">
         <v>4.33</v>
@@ -52580,10 +52589,10 @@
         <v>1</v>
       </c>
       <c r="AP247">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ247">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR247">
         <v>1.32</v>
@@ -52708,7 +52717,7 @@
         <v>258</v>
       </c>
       <c r="P248" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q248">
         <v>4.5</v>
@@ -52914,7 +52923,7 @@
         <v>90</v>
       </c>
       <c r="P249" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q249">
         <v>3.4</v>
@@ -53326,7 +53335,7 @@
         <v>260</v>
       </c>
       <c r="P251" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q251">
         <v>2.75</v>
@@ -53532,7 +53541,7 @@
         <v>90</v>
       </c>
       <c r="P252" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q252">
         <v>3.6</v>
@@ -53819,7 +53828,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ253">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR253">
         <v>1.3</v>
@@ -53944,7 +53953,7 @@
         <v>262</v>
       </c>
       <c r="P254" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q254">
         <v>1.8</v>
@@ -54356,7 +54365,7 @@
         <v>90</v>
       </c>
       <c r="P256" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q256">
         <v>6.5</v>
@@ -54437,7 +54446,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ256">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AR256">
         <v>1.55</v>
@@ -54768,7 +54777,7 @@
         <v>264</v>
       </c>
       <c r="P258" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q258">
         <v>2.63</v>
@@ -54849,7 +54858,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ258">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR258">
         <v>1.36</v>
@@ -54974,7 +54983,7 @@
         <v>265</v>
       </c>
       <c r="P259" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -55180,7 +55189,7 @@
         <v>266</v>
       </c>
       <c r="P260" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -55670,7 +55679,7 @@
         <v>1.85</v>
       </c>
       <c r="AP262">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ262">
         <v>1.84</v>
@@ -56004,7 +56013,7 @@
         <v>145</v>
       </c>
       <c r="P264" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56085,7 +56094,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ264">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR264">
         <v>1.28</v>
@@ -56494,10 +56503,10 @@
         <v>0.62</v>
       </c>
       <c r="AP266">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ266">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR266">
         <v>1.36</v>
@@ -56700,10 +56709,10 @@
         <v>0.38</v>
       </c>
       <c r="AP267">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ267">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AR267">
         <v>1.37</v>
@@ -56906,7 +56915,7 @@
         <v>0.31</v>
       </c>
       <c r="AP268">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ268">
         <v>0.58</v>
@@ -57034,7 +57043,7 @@
         <v>205</v>
       </c>
       <c r="P269" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q269">
         <v>2.6</v>
@@ -57112,7 +57121,7 @@
         <v>1.08</v>
       </c>
       <c r="AP269">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ269">
         <v>1.42</v>
@@ -57318,7 +57327,7 @@
         <v>2.08</v>
       </c>
       <c r="AP270">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ270">
         <v>1.63</v>
@@ -57730,10 +57739,10 @@
         <v>1</v>
       </c>
       <c r="AP272">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ272">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR272">
         <v>2</v>
@@ -58064,7 +58073,7 @@
         <v>271</v>
       </c>
       <c r="P274" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q274">
         <v>2.5</v>
@@ -58351,7 +58360,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ275">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AR275">
         <v>1.42</v>
@@ -58476,7 +58485,7 @@
         <v>272</v>
       </c>
       <c r="P276" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q276">
         <v>3</v>
@@ -59094,7 +59103,7 @@
         <v>169</v>
       </c>
       <c r="P279" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q279">
         <v>2.88</v>
@@ -59300,7 +59309,7 @@
         <v>274</v>
       </c>
       <c r="P280" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59381,7 +59390,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ280">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR280">
         <v>1.62</v>
@@ -59506,7 +59515,7 @@
         <v>152</v>
       </c>
       <c r="P281" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q281">
         <v>2.6</v>
@@ -59584,10 +59593,10 @@
         <v>0.92</v>
       </c>
       <c r="AP281">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ281">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR281">
         <v>1.2</v>
@@ -59790,7 +59799,7 @@
         <v>1.23</v>
       </c>
       <c r="AP282">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ282">
         <v>1.42</v>
@@ -60124,7 +60133,7 @@
         <v>90</v>
       </c>
       <c r="P284" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q284">
         <v>3.6</v>
@@ -60205,7 +60214,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ284">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR284">
         <v>1.45</v>
@@ -60411,7 +60420,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ285">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AR285">
         <v>1.28</v>
@@ -60536,7 +60545,7 @@
         <v>276</v>
       </c>
       <c r="P286" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q286">
         <v>3.75</v>
@@ -60614,7 +60623,7 @@
         <v>1.36</v>
       </c>
       <c r="AP286">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ286">
         <v>1.42</v>
@@ -60948,7 +60957,7 @@
         <v>277</v>
       </c>
       <c r="P288" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q288">
         <v>5</v>
@@ -61026,7 +61035,7 @@
         <v>1.93</v>
       </c>
       <c r="AP288">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ288">
         <v>1.84</v>
@@ -61235,7 +61244,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ289">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR289">
         <v>1.32</v>
@@ -61566,7 +61575,7 @@
         <v>90</v>
       </c>
       <c r="P291" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q291">
         <v>2.63</v>
@@ -61644,7 +61653,7 @@
         <v>1.14</v>
       </c>
       <c r="AP291">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ291">
         <v>1.47</v>
@@ -61772,7 +61781,7 @@
         <v>279</v>
       </c>
       <c r="P292" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q292">
         <v>2.6</v>
@@ -62262,7 +62271,7 @@
         <v>1.93</v>
       </c>
       <c r="AP294">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ294">
         <v>1.63</v>
@@ -62390,7 +62399,7 @@
         <v>237</v>
       </c>
       <c r="P295" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q295">
         <v>3.4</v>
@@ -63089,7 +63098,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ298">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR298">
         <v>1.39</v>
@@ -63295,7 +63304,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ299">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR299">
         <v>1.5</v>
@@ -63626,7 +63635,7 @@
         <v>285</v>
       </c>
       <c r="P301" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q301">
         <v>3.5</v>
@@ -63707,7 +63716,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ301">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR301">
         <v>1.3</v>
@@ -63913,7 +63922,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ302">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AR302">
         <v>1.49</v>
@@ -64244,7 +64253,7 @@
         <v>287</v>
       </c>
       <c r="P304" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q304">
         <v>4.33</v>
@@ -64322,10 +64331,10 @@
         <v>1.13</v>
       </c>
       <c r="AP304">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ304">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR304">
         <v>1.23</v>
@@ -64528,7 +64537,7 @@
         <v>1.36</v>
       </c>
       <c r="AP305">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ305">
         <v>1.42</v>
@@ -64656,7 +64665,7 @@
         <v>288</v>
       </c>
       <c r="P306" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q306">
         <v>4.33</v>
@@ -64862,7 +64871,7 @@
         <v>121</v>
       </c>
       <c r="P307" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q307">
         <v>3.5</v>
@@ -64940,7 +64949,7 @@
         <v>0.93</v>
       </c>
       <c r="AP307">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ307">
         <v>1</v>
@@ -65068,7 +65077,7 @@
         <v>269</v>
       </c>
       <c r="P308" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q308">
         <v>4.75</v>
@@ -65480,7 +65489,7 @@
         <v>273</v>
       </c>
       <c r="P310" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65561,7 +65570,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ310">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AR310">
         <v>1.41</v>
@@ -65686,7 +65695,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q311">
         <v>1.8</v>
@@ -65764,7 +65773,7 @@
         <v>0.47</v>
       </c>
       <c r="AP311">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ311">
         <v>0.47</v>
@@ -66510,7 +66519,7 @@
         <v>292</v>
       </c>
       <c r="P315" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q315">
         <v>1.8</v>
@@ -66588,7 +66597,7 @@
         <v>0.27</v>
       </c>
       <c r="AP315">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ315">
         <v>0.53</v>
@@ -66716,7 +66725,7 @@
         <v>293</v>
       </c>
       <c r="P316" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q316">
         <v>4.75</v>
@@ -66922,7 +66931,7 @@
         <v>294</v>
       </c>
       <c r="P317" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q317">
         <v>1.57</v>
@@ -67412,7 +67421,7 @@
         <v>0.63</v>
       </c>
       <c r="AP319">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ319">
         <v>0.74</v>
@@ -67746,7 +67755,7 @@
         <v>297</v>
       </c>
       <c r="P321" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q321">
         <v>5.5</v>
@@ -68030,7 +68039,7 @@
         <v>1.63</v>
       </c>
       <c r="AP322">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ322">
         <v>1.47</v>
@@ -68236,10 +68245,10 @@
         <v>1.07</v>
       </c>
       <c r="AP323">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ323">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR323">
         <v>1.35</v>
@@ -68364,7 +68373,7 @@
         <v>90</v>
       </c>
       <c r="P324" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q324">
         <v>3</v>
@@ -68445,7 +68454,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ324">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AR324">
         <v>1.39</v>
@@ -68776,7 +68785,7 @@
         <v>90</v>
       </c>
       <c r="P326" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q326">
         <v>5</v>
@@ -68982,7 +68991,7 @@
         <v>291</v>
       </c>
       <c r="P327" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q327">
         <v>4.5</v>
@@ -69188,7 +69197,7 @@
         <v>299</v>
       </c>
       <c r="P328" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q328">
         <v>3.2</v>
@@ -69394,7 +69403,7 @@
         <v>101</v>
       </c>
       <c r="P329" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q329">
         <v>4</v>
@@ -69475,7 +69484,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ329">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AR329">
         <v>1.52</v>
@@ -69600,7 +69609,7 @@
         <v>300</v>
       </c>
       <c r="P330" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q330">
         <v>4</v>
@@ -69681,7 +69690,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ330">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR330">
         <v>1.35</v>
@@ -69884,7 +69893,7 @@
         <v>0.44</v>
       </c>
       <c r="AP331">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ331">
         <v>0.47</v>
@@ -70502,7 +70511,7 @@
         <v>0.65</v>
       </c>
       <c r="AP334">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ334">
         <v>0.74</v>
@@ -70711,7 +70720,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ335">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR335">
         <v>1.81</v>
@@ -70917,7 +70926,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ336">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR336">
         <v>1.44</v>
@@ -71120,7 +71129,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP337">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ337">
         <v>0.84</v>
@@ -71248,7 +71257,7 @@
         <v>304</v>
       </c>
       <c r="P338" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q338">
         <v>2.5</v>
@@ -71326,10 +71335,10 @@
         <v>1.38</v>
       </c>
       <c r="AP338">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ338">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR338">
         <v>2</v>
@@ -71535,7 +71544,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ339">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR339">
         <v>1.59</v>
@@ -72072,7 +72081,7 @@
         <v>307</v>
       </c>
       <c r="P342" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q342">
         <v>4.75</v>
@@ -72359,7 +72368,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ343">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AR343">
         <v>1.38</v>
@@ -72484,7 +72493,7 @@
         <v>309</v>
       </c>
       <c r="P344" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q344">
         <v>2.9</v>
@@ -72565,7 +72574,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ344">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AR344">
         <v>1.4</v>
@@ -72768,7 +72777,7 @@
         <v>0.35</v>
       </c>
       <c r="AP345">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ345">
         <v>0.53</v>
@@ -72974,7 +72983,7 @@
         <v>1.19</v>
       </c>
       <c r="AP346">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ346">
         <v>1.22</v>
@@ -73102,7 +73111,7 @@
         <v>311</v>
       </c>
       <c r="P347" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q347">
         <v>2.11</v>
@@ -73514,7 +73523,7 @@
         <v>255</v>
       </c>
       <c r="P349" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q349">
         <v>7</v>
@@ -73926,7 +73935,7 @@
         <v>90</v>
       </c>
       <c r="P351" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q351">
         <v>5</v>
@@ -74004,10 +74013,10 @@
         <v>2.59</v>
       </c>
       <c r="AP351">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ351">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AR351">
         <v>1.39</v>
@@ -74132,7 +74141,7 @@
         <v>90</v>
       </c>
       <c r="P352" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q352">
         <v>2.75</v>
@@ -74210,7 +74219,7 @@
         <v>1.41</v>
       </c>
       <c r="AP352">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ352">
         <v>1.42</v>
@@ -74338,7 +74347,7 @@
         <v>313</v>
       </c>
       <c r="P353" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q353">
         <v>1.91</v>
@@ -74622,7 +74631,7 @@
         <v>0.88</v>
       </c>
       <c r="AP354">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ354">
         <v>0.84</v>
@@ -74750,7 +74759,7 @@
         <v>315</v>
       </c>
       <c r="P355" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q355">
         <v>3.6</v>
@@ -74828,10 +74837,10 @@
         <v>1</v>
       </c>
       <c r="AP355">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ355">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR355">
         <v>1.35</v>
@@ -75037,7 +75046,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ356">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR356">
         <v>1.33</v>
@@ -75368,7 +75377,7 @@
         <v>317</v>
       </c>
       <c r="P358" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q358">
         <v>2.63</v>
@@ -75446,10 +75455,10 @@
         <v>1.35</v>
       </c>
       <c r="AP358">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ358">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR358">
         <v>1.82</v>
@@ -75574,7 +75583,7 @@
         <v>90</v>
       </c>
       <c r="P359" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q359">
         <v>3.4</v>
@@ -75655,7 +75664,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ359">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR359">
         <v>1.52</v>
@@ -75986,7 +75995,7 @@
         <v>319</v>
       </c>
       <c r="P361" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q361">
         <v>3</v>
@@ -76192,7 +76201,7 @@
         <v>90</v>
       </c>
       <c r="P362" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q362">
         <v>4.75</v>
@@ -76604,7 +76613,7 @@
         <v>90</v>
       </c>
       <c r="P364" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q364">
         <v>2.59</v>
@@ -77634,7 +77643,7 @@
         <v>148</v>
       </c>
       <c r="P369" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q369">
         <v>5</v>
@@ -77840,7 +77849,7 @@
         <v>322</v>
       </c>
       <c r="P370" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Q370">
         <v>3.2</v>
@@ -78046,7 +78055,7 @@
         <v>323</v>
       </c>
       <c r="P371" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q371">
         <v>4.5</v>
@@ -78664,7 +78673,7 @@
         <v>325</v>
       </c>
       <c r="P374" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q374">
         <v>1.5</v>
@@ -78821,6 +78830,1242 @@
       </c>
       <c r="BP374">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:68">
+      <c r="A375" s="1">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>6745757</v>
+      </c>
+      <c r="C375" t="s">
+        <v>68</v>
+      </c>
+      <c r="D375" t="s">
+        <v>69</v>
+      </c>
+      <c r="E375" s="2">
+        <v>45438.54166666666</v>
+      </c>
+      <c r="F375">
+        <v>38</v>
+      </c>
+      <c r="G375" t="s">
+        <v>89</v>
+      </c>
+      <c r="H375" t="s">
+        <v>78</v>
+      </c>
+      <c r="I375">
+        <v>2</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>2</v>
+      </c>
+      <c r="L375">
+        <v>3</v>
+      </c>
+      <c r="M375">
+        <v>0</v>
+      </c>
+      <c r="N375">
+        <v>3</v>
+      </c>
+      <c r="O375" t="s">
+        <v>326</v>
+      </c>
+      <c r="P375" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q375">
+        <v>2.88</v>
+      </c>
+      <c r="R375">
+        <v>2.2</v>
+      </c>
+      <c r="S375">
+        <v>3.75</v>
+      </c>
+      <c r="T375">
+        <v>1.4</v>
+      </c>
+      <c r="U375">
+        <v>2.75</v>
+      </c>
+      <c r="V375">
+        <v>2.75</v>
+      </c>
+      <c r="W375">
+        <v>1.4</v>
+      </c>
+      <c r="X375">
+        <v>8</v>
+      </c>
+      <c r="Y375">
+        <v>1.08</v>
+      </c>
+      <c r="Z375">
+        <v>2.14</v>
+      </c>
+      <c r="AA375">
+        <v>3.15</v>
+      </c>
+      <c r="AB375">
+        <v>3.14</v>
+      </c>
+      <c r="AC375">
+        <v>1.05</v>
+      </c>
+      <c r="AD375">
+        <v>12</v>
+      </c>
+      <c r="AE375">
+        <v>1.32</v>
+      </c>
+      <c r="AF375">
+        <v>3.4</v>
+      </c>
+      <c r="AG375">
+        <v>2.01</v>
+      </c>
+      <c r="AH375">
+        <v>1.87</v>
+      </c>
+      <c r="AI375">
+        <v>1.75</v>
+      </c>
+      <c r="AJ375">
+        <v>2</v>
+      </c>
+      <c r="AK375">
+        <v>1.35</v>
+      </c>
+      <c r="AL375">
+        <v>1.25</v>
+      </c>
+      <c r="AM375">
+        <v>1.72</v>
+      </c>
+      <c r="AN375">
+        <v>2.24</v>
+      </c>
+      <c r="AO375">
+        <v>1.11</v>
+      </c>
+      <c r="AP375">
+        <v>2.28</v>
+      </c>
+      <c r="AQ375">
+        <v>1.05</v>
+      </c>
+      <c r="AR375">
+        <v>1.86</v>
+      </c>
+      <c r="AS375">
+        <v>1.18</v>
+      </c>
+      <c r="AT375">
+        <v>3.04</v>
+      </c>
+      <c r="AU375">
+        <v>8</v>
+      </c>
+      <c r="AV375">
+        <v>2</v>
+      </c>
+      <c r="AW375">
+        <v>11</v>
+      </c>
+      <c r="AX375">
+        <v>7</v>
+      </c>
+      <c r="AY375">
+        <v>19</v>
+      </c>
+      <c r="AZ375">
+        <v>9</v>
+      </c>
+      <c r="BA375">
+        <v>2</v>
+      </c>
+      <c r="BB375">
+        <v>5</v>
+      </c>
+      <c r="BC375">
+        <v>7</v>
+      </c>
+      <c r="BD375">
+        <v>1.62</v>
+      </c>
+      <c r="BE375">
+        <v>8</v>
+      </c>
+      <c r="BF375">
+        <v>2.75</v>
+      </c>
+      <c r="BG375">
+        <v>1.32</v>
+      </c>
+      <c r="BH375">
+        <v>3.1</v>
+      </c>
+      <c r="BI375">
+        <v>1.62</v>
+      </c>
+      <c r="BJ375">
+        <v>2.15</v>
+      </c>
+      <c r="BK375">
+        <v>2.05</v>
+      </c>
+      <c r="BL375">
+        <v>1.7</v>
+      </c>
+      <c r="BM375">
+        <v>2.77</v>
+      </c>
+      <c r="BN375">
+        <v>1.39</v>
+      </c>
+      <c r="BO375">
+        <v>3.65</v>
+      </c>
+      <c r="BP375">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="376" spans="1:68">
+      <c r="A376" s="1">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>6745766</v>
+      </c>
+      <c r="C376" t="s">
+        <v>68</v>
+      </c>
+      <c r="D376" t="s">
+        <v>69</v>
+      </c>
+      <c r="E376" s="2">
+        <v>45438.54166666666</v>
+      </c>
+      <c r="F376">
+        <v>38</v>
+      </c>
+      <c r="G376" t="s">
+        <v>86</v>
+      </c>
+      <c r="H376" t="s">
+        <v>76</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376">
+        <v>0</v>
+      </c>
+      <c r="L376">
+        <v>0</v>
+      </c>
+      <c r="M376">
+        <v>0</v>
+      </c>
+      <c r="N376">
+        <v>0</v>
+      </c>
+      <c r="O376" t="s">
+        <v>90</v>
+      </c>
+      <c r="P376" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q376">
+        <v>1.92</v>
+      </c>
+      <c r="R376">
+        <v>2.55</v>
+      </c>
+      <c r="S376">
+        <v>6</v>
+      </c>
+      <c r="T376">
+        <v>1.28</v>
+      </c>
+      <c r="U376">
+        <v>3.75</v>
+      </c>
+      <c r="V376">
+        <v>2.3</v>
+      </c>
+      <c r="W376">
+        <v>1.6</v>
+      </c>
+      <c r="X376">
+        <v>5</v>
+      </c>
+      <c r="Y376">
+        <v>1.16</v>
+      </c>
+      <c r="Z376">
+        <v>1.4</v>
+      </c>
+      <c r="AA376">
+        <v>4.38</v>
+      </c>
+      <c r="AB376">
+        <v>6.2</v>
+      </c>
+      <c r="AC376">
+        <v>1.04</v>
+      </c>
+      <c r="AD376">
+        <v>2.46</v>
+      </c>
+      <c r="AE376">
+        <v>1.16</v>
+      </c>
+      <c r="AF376">
+        <v>2.46</v>
+      </c>
+      <c r="AG376">
+        <v>1.55</v>
+      </c>
+      <c r="AH376">
+        <v>2.4</v>
+      </c>
+      <c r="AI376">
+        <v>1.72</v>
+      </c>
+      <c r="AJ376">
+        <v>2.1</v>
+      </c>
+      <c r="AK376">
+        <v>1.1</v>
+      </c>
+      <c r="AL376">
+        <v>1.15</v>
+      </c>
+      <c r="AM376">
+        <v>2.85</v>
+      </c>
+      <c r="AN376">
+        <v>1.33</v>
+      </c>
+      <c r="AO376">
+        <v>0.72</v>
+      </c>
+      <c r="AP376">
+        <v>1.32</v>
+      </c>
+      <c r="AQ376">
+        <v>0.74</v>
+      </c>
+      <c r="AR376">
+        <v>2.02</v>
+      </c>
+      <c r="AS376">
+        <v>1.21</v>
+      </c>
+      <c r="AT376">
+        <v>3.23</v>
+      </c>
+      <c r="AU376">
+        <v>6</v>
+      </c>
+      <c r="AV376">
+        <v>0</v>
+      </c>
+      <c r="AW376">
+        <v>19</v>
+      </c>
+      <c r="AX376">
+        <v>11</v>
+      </c>
+      <c r="AY376">
+        <v>25</v>
+      </c>
+      <c r="AZ376">
+        <v>11</v>
+      </c>
+      <c r="BA376">
+        <v>4</v>
+      </c>
+      <c r="BB376">
+        <v>1</v>
+      </c>
+      <c r="BC376">
+        <v>5</v>
+      </c>
+      <c r="BD376">
+        <v>1.3</v>
+      </c>
+      <c r="BE376">
+        <v>9.5</v>
+      </c>
+      <c r="BF376">
+        <v>4</v>
+      </c>
+      <c r="BG376">
+        <v>1.18</v>
+      </c>
+      <c r="BH376">
+        <v>4.05</v>
+      </c>
+      <c r="BI376">
+        <v>1.45</v>
+      </c>
+      <c r="BJ376">
+        <v>2.55</v>
+      </c>
+      <c r="BK376">
+        <v>1.8</v>
+      </c>
+      <c r="BL376">
+        <v>1.9</v>
+      </c>
+      <c r="BM376">
+        <v>2.32</v>
+      </c>
+      <c r="BN376">
+        <v>1.54</v>
+      </c>
+      <c r="BO376">
+        <v>3.1</v>
+      </c>
+      <c r="BP376">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="377" spans="1:68">
+      <c r="A377" s="1">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>6745760</v>
+      </c>
+      <c r="C377" t="s">
+        <v>68</v>
+      </c>
+      <c r="D377" t="s">
+        <v>69</v>
+      </c>
+      <c r="E377" s="2">
+        <v>45438.65625</v>
+      </c>
+      <c r="F377">
+        <v>38</v>
+      </c>
+      <c r="G377" t="s">
+        <v>71</v>
+      </c>
+      <c r="H377" t="s">
+        <v>77</v>
+      </c>
+      <c r="I377">
+        <v>0</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+      <c r="K377">
+        <v>0</v>
+      </c>
+      <c r="L377">
+        <v>0</v>
+      </c>
+      <c r="M377">
+        <v>1</v>
+      </c>
+      <c r="N377">
+        <v>1</v>
+      </c>
+      <c r="O377" t="s">
+        <v>90</v>
+      </c>
+      <c r="P377" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q377">
+        <v>3</v>
+      </c>
+      <c r="R377">
+        <v>2.1</v>
+      </c>
+      <c r="S377">
+        <v>3.75</v>
+      </c>
+      <c r="T377">
+        <v>1.44</v>
+      </c>
+      <c r="U377">
+        <v>2.85</v>
+      </c>
+      <c r="V377">
+        <v>2.9</v>
+      </c>
+      <c r="W377">
+        <v>1.4</v>
+      </c>
+      <c r="X377">
+        <v>7.5</v>
+      </c>
+      <c r="Y377">
+        <v>1.08</v>
+      </c>
+      <c r="Z377">
+        <v>2.23</v>
+      </c>
+      <c r="AA377">
+        <v>3.21</v>
+      </c>
+      <c r="AB377">
+        <v>2.92</v>
+      </c>
+      <c r="AC377">
+        <v>1.06</v>
+      </c>
+      <c r="AD377">
+        <v>10</v>
+      </c>
+      <c r="AE377">
+        <v>1.32</v>
+      </c>
+      <c r="AF377">
+        <v>3.4</v>
+      </c>
+      <c r="AG377">
+        <v>1.93</v>
+      </c>
+      <c r="AH377">
+        <v>1.95</v>
+      </c>
+      <c r="AI377">
+        <v>1.72</v>
+      </c>
+      <c r="AJ377">
+        <v>2.1</v>
+      </c>
+      <c r="AK377">
+        <v>1.38</v>
+      </c>
+      <c r="AL377">
+        <v>1.3</v>
+      </c>
+      <c r="AM377">
+        <v>1.62</v>
+      </c>
+      <c r="AN377">
+        <v>1.39</v>
+      </c>
+      <c r="AO377">
+        <v>1.11</v>
+      </c>
+      <c r="AP377">
+        <v>1.32</v>
+      </c>
+      <c r="AQ377">
+        <v>1.21</v>
+      </c>
+      <c r="AR377">
+        <v>1.44</v>
+      </c>
+      <c r="AS377">
+        <v>1.12</v>
+      </c>
+      <c r="AT377">
+        <v>2.56</v>
+      </c>
+      <c r="AU377">
+        <v>6</v>
+      </c>
+      <c r="AV377">
+        <v>6</v>
+      </c>
+      <c r="AW377">
+        <v>16</v>
+      </c>
+      <c r="AX377">
+        <v>5</v>
+      </c>
+      <c r="AY377">
+        <v>22</v>
+      </c>
+      <c r="AZ377">
+        <v>11</v>
+      </c>
+      <c r="BA377">
+        <v>11</v>
+      </c>
+      <c r="BB377">
+        <v>1</v>
+      </c>
+      <c r="BC377">
+        <v>12</v>
+      </c>
+      <c r="BD377">
+        <v>1.4</v>
+      </c>
+      <c r="BE377">
+        <v>9</v>
+      </c>
+      <c r="BF377">
+        <v>3.4</v>
+      </c>
+      <c r="BG377">
+        <v>1.16</v>
+      </c>
+      <c r="BH377">
+        <v>4.33</v>
+      </c>
+      <c r="BI377">
+        <v>1.38</v>
+      </c>
+      <c r="BJ377">
+        <v>2.8</v>
+      </c>
+      <c r="BK377">
+        <v>1.7</v>
+      </c>
+      <c r="BL377">
+        <v>2.03</v>
+      </c>
+      <c r="BM377">
+        <v>2.13</v>
+      </c>
+      <c r="BN377">
+        <v>1.63</v>
+      </c>
+      <c r="BO377">
+        <v>2.8</v>
+      </c>
+      <c r="BP377">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="378" spans="1:68">
+      <c r="A378" s="1">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>6745762</v>
+      </c>
+      <c r="C378" t="s">
+        <v>68</v>
+      </c>
+      <c r="D378" t="s">
+        <v>69</v>
+      </c>
+      <c r="E378" s="2">
+        <v>45438.65625</v>
+      </c>
+      <c r="F378">
+        <v>38</v>
+      </c>
+      <c r="G378" t="s">
+        <v>82</v>
+      </c>
+      <c r="H378" t="s">
+        <v>73</v>
+      </c>
+      <c r="I378">
+        <v>2</v>
+      </c>
+      <c r="J378">
+        <v>2</v>
+      </c>
+      <c r="K378">
+        <v>4</v>
+      </c>
+      <c r="L378">
+        <v>2</v>
+      </c>
+      <c r="M378">
+        <v>2</v>
+      </c>
+      <c r="N378">
+        <v>4</v>
+      </c>
+      <c r="O378" t="s">
+        <v>327</v>
+      </c>
+      <c r="P378" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q378">
+        <v>5</v>
+      </c>
+      <c r="R378">
+        <v>2.45</v>
+      </c>
+      <c r="S378">
+        <v>2.15</v>
+      </c>
+      <c r="T378">
+        <v>1.3</v>
+      </c>
+      <c r="U378">
+        <v>3.5</v>
+      </c>
+      <c r="V378">
+        <v>2.4</v>
+      </c>
+      <c r="W378">
+        <v>1.55</v>
+      </c>
+      <c r="X378">
+        <v>5.5</v>
+      </c>
+      <c r="Y378">
+        <v>1.14</v>
+      </c>
+      <c r="Z378">
+        <v>5</v>
+      </c>
+      <c r="AA378">
+        <v>3.95</v>
+      </c>
+      <c r="AB378">
+        <v>1.54</v>
+      </c>
+      <c r="AC378">
+        <v>1.03</v>
+      </c>
+      <c r="AD378">
+        <v>17</v>
+      </c>
+      <c r="AE378">
+        <v>1.2</v>
+      </c>
+      <c r="AF378">
+        <v>4.5</v>
+      </c>
+      <c r="AG378">
+        <v>1.6</v>
+      </c>
+      <c r="AH378">
+        <v>2.3</v>
+      </c>
+      <c r="AI378">
+        <v>1.68</v>
+      </c>
+      <c r="AJ378">
+        <v>2.15</v>
+      </c>
+      <c r="AK378">
+        <v>2.45</v>
+      </c>
+      <c r="AL378">
+        <v>1.19</v>
+      </c>
+      <c r="AM378">
+        <v>1.15</v>
+      </c>
+      <c r="AN378">
+        <v>1.28</v>
+      </c>
+      <c r="AO378">
+        <v>2.61</v>
+      </c>
+      <c r="AP378">
+        <v>1.26</v>
+      </c>
+      <c r="AQ378">
+        <v>2.53</v>
+      </c>
+      <c r="AR378">
+        <v>1.35</v>
+      </c>
+      <c r="AS378">
+        <v>1.44</v>
+      </c>
+      <c r="AT378">
+        <v>2.79</v>
+      </c>
+      <c r="AU378">
+        <v>9</v>
+      </c>
+      <c r="AV378">
+        <v>13</v>
+      </c>
+      <c r="AW378">
+        <v>10</v>
+      </c>
+      <c r="AX378">
+        <v>4</v>
+      </c>
+      <c r="AY378">
+        <v>19</v>
+      </c>
+      <c r="AZ378">
+        <v>17</v>
+      </c>
+      <c r="BA378">
+        <v>9</v>
+      </c>
+      <c r="BB378">
+        <v>3</v>
+      </c>
+      <c r="BC378">
+        <v>12</v>
+      </c>
+      <c r="BD378">
+        <v>3.75</v>
+      </c>
+      <c r="BE378">
+        <v>9</v>
+      </c>
+      <c r="BF378">
+        <v>1.36</v>
+      </c>
+      <c r="BG378">
+        <v>1.23</v>
+      </c>
+      <c r="BH378">
+        <v>3.56</v>
+      </c>
+      <c r="BI378">
+        <v>1.49</v>
+      </c>
+      <c r="BJ378">
+        <v>2.45</v>
+      </c>
+      <c r="BK378">
+        <v>1.9</v>
+      </c>
+      <c r="BL378">
+        <v>1.8</v>
+      </c>
+      <c r="BM378">
+        <v>2.47</v>
+      </c>
+      <c r="BN378">
+        <v>1.48</v>
+      </c>
+      <c r="BO378">
+        <v>2.98</v>
+      </c>
+      <c r="BP378">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="379" spans="1:68">
+      <c r="A379" s="1">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>6745764</v>
+      </c>
+      <c r="C379" t="s">
+        <v>68</v>
+      </c>
+      <c r="D379" t="s">
+        <v>69</v>
+      </c>
+      <c r="E379" s="2">
+        <v>45438.65625</v>
+      </c>
+      <c r="F379">
+        <v>38</v>
+      </c>
+      <c r="G379" t="s">
+        <v>85</v>
+      </c>
+      <c r="H379" t="s">
+        <v>75</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+      <c r="K379">
+        <v>0</v>
+      </c>
+      <c r="L379">
+        <v>1</v>
+      </c>
+      <c r="M379">
+        <v>1</v>
+      </c>
+      <c r="N379">
+        <v>2</v>
+      </c>
+      <c r="O379" t="s">
+        <v>147</v>
+      </c>
+      <c r="P379" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q379">
+        <v>1.83</v>
+      </c>
+      <c r="R379">
+        <v>2.7</v>
+      </c>
+      <c r="S379">
+        <v>6</v>
+      </c>
+      <c r="T379">
+        <v>1.26</v>
+      </c>
+      <c r="U379">
+        <v>4</v>
+      </c>
+      <c r="V379">
+        <v>2.2</v>
+      </c>
+      <c r="W379">
+        <v>1.66</v>
+      </c>
+      <c r="X379">
+        <v>4.75</v>
+      </c>
+      <c r="Y379">
+        <v>1.18</v>
+      </c>
+      <c r="Z379">
+        <v>1.33</v>
+      </c>
+      <c r="AA379">
+        <v>4.95</v>
+      </c>
+      <c r="AB379">
+        <v>6.6</v>
+      </c>
+      <c r="AC379">
+        <v>1.03</v>
+      </c>
+      <c r="AD379">
+        <v>18</v>
+      </c>
+      <c r="AE379">
+        <v>1.16</v>
+      </c>
+      <c r="AF379">
+        <v>5.4</v>
+      </c>
+      <c r="AG379">
+        <v>1.47</v>
+      </c>
+      <c r="AH379">
+        <v>2.57</v>
+      </c>
+      <c r="AI379">
+        <v>1.72</v>
+      </c>
+      <c r="AJ379">
+        <v>2.1</v>
+      </c>
+      <c r="AK379">
+        <v>1.08</v>
+      </c>
+      <c r="AL379">
+        <v>1.12</v>
+      </c>
+      <c r="AM379">
+        <v>3.1</v>
+      </c>
+      <c r="AN379">
+        <v>1.83</v>
+      </c>
+      <c r="AO379">
+        <v>0.5</v>
+      </c>
+      <c r="AP379">
+        <v>1.79</v>
+      </c>
+      <c r="AQ379">
+        <v>0.53</v>
+      </c>
+      <c r="AR379">
+        <v>1.32</v>
+      </c>
+      <c r="AS379">
+        <v>1.25</v>
+      </c>
+      <c r="AT379">
+        <v>2.57</v>
+      </c>
+      <c r="AU379">
+        <v>7</v>
+      </c>
+      <c r="AV379">
+        <v>4</v>
+      </c>
+      <c r="AW379">
+        <v>2</v>
+      </c>
+      <c r="AX379">
+        <v>5</v>
+      </c>
+      <c r="AY379">
+        <v>9</v>
+      </c>
+      <c r="AZ379">
+        <v>9</v>
+      </c>
+      <c r="BA379">
+        <v>5</v>
+      </c>
+      <c r="BB379">
+        <v>3</v>
+      </c>
+      <c r="BC379">
+        <v>8</v>
+      </c>
+      <c r="BD379">
+        <v>1.33</v>
+      </c>
+      <c r="BE379">
+        <v>9.5</v>
+      </c>
+      <c r="BF379">
+        <v>4</v>
+      </c>
+      <c r="BG379">
+        <v>1.18</v>
+      </c>
+      <c r="BH379">
+        <v>4.1</v>
+      </c>
+      <c r="BI379">
+        <v>1.37</v>
+      </c>
+      <c r="BJ379">
+        <v>2.85</v>
+      </c>
+      <c r="BK379">
+        <v>1.67</v>
+      </c>
+      <c r="BL379">
+        <v>2.07</v>
+      </c>
+      <c r="BM379">
+        <v>2.1</v>
+      </c>
+      <c r="BN379">
+        <v>1.65</v>
+      </c>
+      <c r="BO379">
+        <v>2.77</v>
+      </c>
+      <c r="BP379">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="380" spans="1:68">
+      <c r="A380" s="1">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>6745759</v>
+      </c>
+      <c r="C380" t="s">
+        <v>68</v>
+      </c>
+      <c r="D380" t="s">
+        <v>69</v>
+      </c>
+      <c r="E380" s="2">
+        <v>45438.65625</v>
+      </c>
+      <c r="F380">
+        <v>38</v>
+      </c>
+      <c r="G380" t="s">
+        <v>70</v>
+      </c>
+      <c r="H380" t="s">
+        <v>74</v>
+      </c>
+      <c r="I380">
+        <v>1</v>
+      </c>
+      <c r="J380">
+        <v>1</v>
+      </c>
+      <c r="K380">
+        <v>2</v>
+      </c>
+      <c r="L380">
+        <v>2</v>
+      </c>
+      <c r="M380">
+        <v>1</v>
+      </c>
+      <c r="N380">
+        <v>3</v>
+      </c>
+      <c r="O380" t="s">
+        <v>216</v>
+      </c>
+      <c r="P380" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q380">
+        <v>2.6</v>
+      </c>
+      <c r="R380">
+        <v>2.2</v>
+      </c>
+      <c r="S380">
+        <v>4.2</v>
+      </c>
+      <c r="T380">
+        <v>1.38</v>
+      </c>
+      <c r="U380">
+        <v>3.1</v>
+      </c>
+      <c r="V380">
+        <v>2.75</v>
+      </c>
+      <c r="W380">
+        <v>1.44</v>
+      </c>
+      <c r="X380">
+        <v>6.5</v>
+      </c>
+      <c r="Y380">
+        <v>1.1</v>
+      </c>
+      <c r="Z380">
+        <v>2.03</v>
+      </c>
+      <c r="AA380">
+        <v>3.24</v>
+      </c>
+      <c r="AB380">
+        <v>3.33</v>
+      </c>
+      <c r="AC380">
+        <v>1.04</v>
+      </c>
+      <c r="AD380">
+        <v>13</v>
+      </c>
+      <c r="AE380">
+        <v>1.28</v>
+      </c>
+      <c r="AF380">
+        <v>3.75</v>
+      </c>
+      <c r="AG380">
+        <v>1.86</v>
+      </c>
+      <c r="AH380">
+        <v>2.02</v>
+      </c>
+      <c r="AI380">
+        <v>1.72</v>
+      </c>
+      <c r="AJ380">
+        <v>2.1</v>
+      </c>
+      <c r="AK380">
+        <v>1.28</v>
+      </c>
+      <c r="AL380">
+        <v>1.24</v>
+      </c>
+      <c r="AM380">
+        <v>1.87</v>
+      </c>
+      <c r="AN380">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO380">
+        <v>1.28</v>
+      </c>
+      <c r="AP380">
+        <v>1.05</v>
+      </c>
+      <c r="AQ380">
+        <v>1.21</v>
+      </c>
+      <c r="AR380">
+        <v>1.15</v>
+      </c>
+      <c r="AS380">
+        <v>1.23</v>
+      </c>
+      <c r="AT380">
+        <v>2.38</v>
+      </c>
+      <c r="AU380">
+        <v>8</v>
+      </c>
+      <c r="AV380">
+        <v>4</v>
+      </c>
+      <c r="AW380">
+        <v>11</v>
+      </c>
+      <c r="AX380">
+        <v>12</v>
+      </c>
+      <c r="AY380">
+        <v>19</v>
+      </c>
+      <c r="AZ380">
+        <v>16</v>
+      </c>
+      <c r="BA380">
+        <v>4</v>
+      </c>
+      <c r="BB380">
+        <v>5</v>
+      </c>
+      <c r="BC380">
+        <v>9</v>
+      </c>
+      <c r="BD380">
+        <v>1.62</v>
+      </c>
+      <c r="BE380">
+        <v>8</v>
+      </c>
+      <c r="BF380">
+        <v>2.62</v>
+      </c>
+      <c r="BG380">
+        <v>1.26</v>
+      </c>
+      <c r="BH380">
+        <v>3.34</v>
+      </c>
+      <c r="BI380">
+        <v>1.51</v>
+      </c>
+      <c r="BJ380">
+        <v>2.37</v>
+      </c>
+      <c r="BK380">
+        <v>1.9</v>
+      </c>
+      <c r="BL380">
+        <v>1.8</v>
+      </c>
+      <c r="BM380">
+        <v>2.47</v>
+      </c>
+      <c r="BN380">
+        <v>1.48</v>
+      </c>
+      <c r="BO380">
+        <v>3.2</v>
+      </c>
+      <c r="BP380">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
@@ -78972,22 +78972,22 @@
         <v>3.04</v>
       </c>
       <c r="AU375">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV375">
         <v>2</v>
       </c>
       <c r="AW375">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AX375">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AY375">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AZ375">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA375">
         <v>2</v>
@@ -79178,22 +79178,22 @@
         <v>3.23</v>
       </c>
       <c r="AU376">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV376">
         <v>0</v>
       </c>
       <c r="AW376">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AX376">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AY376">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AZ376">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BA376">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20232024.xlsx
@@ -78972,22 +78972,22 @@
         <v>3.04</v>
       </c>
       <c r="AU375">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV375">
         <v>2</v>
       </c>
       <c r="AW375">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AX375">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY375">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AZ375">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA375">
         <v>2</v>
@@ -79178,22 +79178,22 @@
         <v>3.23</v>
       </c>
       <c r="AU376">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV376">
         <v>0</v>
       </c>
       <c r="AW376">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AX376">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AY376">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AZ376">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BA376">
         <v>4</v>
